--- a/BackTest/2020-01-16 BackTest STEEM.xlsx
+++ b/BackTest/2020-01-16 BackTest STEEM.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M299"/>
+  <dimension ref="A1:N309"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -394,35 +394,40 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
+          <t>CMO</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>MA60</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>low_check</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>high_check</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
@@ -448,18 +453,21 @@
         <v>4097.7233</v>
       </c>
       <c r="G2" t="n">
+        <v>157.84</v>
+      </c>
+      <c r="H2" t="n">
         <v>154.5633333333333</v>
       </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
       <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -483,18 +491,27 @@
         <v>9384.817300000001</v>
       </c>
       <c r="G3" t="n">
+        <v>158.26</v>
+      </c>
+      <c r="H3" t="n">
         <v>154.6933333333333</v>
       </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
       <c r="I3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>158.5</v>
+      </c>
       <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="N3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -518,18 +535,27 @@
         <v>5299.4861</v>
       </c>
       <c r="G4" t="n">
+        <v>158.5933333333333</v>
+      </c>
+      <c r="H4" t="n">
         <v>154.8316666666666</v>
       </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
       <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" t="n">
+        <v>160.8</v>
+      </c>
       <c r="L4" t="inlineStr"/>
-      <c r="M4" t="n">
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -553,18 +579,27 @@
         <v>14644.3297</v>
       </c>
       <c r="G5" t="n">
+        <v>159.1866666666666</v>
+      </c>
+      <c r="H5" t="n">
         <v>154.9816666666666</v>
       </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
       <c r="I5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>160.8</v>
+      </c>
       <c r="L5" t="inlineStr"/>
-      <c r="M5" t="n">
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -588,18 +623,25 @@
         <v>8278.531499999999</v>
       </c>
       <c r="G6" t="n">
+        <v>159.6666666666667</v>
+      </c>
+      <c r="H6" t="n">
         <v>155.19</v>
       </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
-      <c r="J6" t="inlineStr"/>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr"/>
-      <c r="M6" t="n">
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -623,18 +665,25 @@
         <v>9439.3874</v>
       </c>
       <c r="G7" t="n">
+        <v>160.08</v>
+      </c>
+      <c r="H7" t="n">
         <v>155.3666666666666</v>
       </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
-      <c r="J7" t="inlineStr"/>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr"/>
-      <c r="M7" t="n">
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N7" t="n">
         <v>1</v>
       </c>
     </row>
@@ -658,18 +707,25 @@
         <v>43837.96886942</v>
       </c>
       <c r="G8" t="n">
+        <v>160.5</v>
+      </c>
+      <c r="H8" t="n">
         <v>155.5366666666667</v>
       </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
-      <c r="J8" t="inlineStr"/>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr"/>
-      <c r="M8" t="n">
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N8" t="n">
         <v>1</v>
       </c>
     </row>
@@ -693,18 +749,25 @@
         <v>4611.2147</v>
       </c>
       <c r="G9" t="n">
+        <v>160.6133333333333</v>
+      </c>
+      <c r="H9" t="n">
         <v>155.67</v>
       </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
-      <c r="J9" t="inlineStr"/>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr"/>
-      <c r="M9" t="n">
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -728,18 +791,25 @@
         <v>9634.004499999999</v>
       </c>
       <c r="G10" t="n">
+        <v>160.8</v>
+      </c>
+      <c r="H10" t="n">
         <v>155.84</v>
       </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
-      <c r="J10" t="inlineStr"/>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr"/>
-      <c r="M10" t="n">
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N10" t="n">
         <v>1</v>
       </c>
     </row>
@@ -763,18 +833,25 @@
         <v>10986.1247</v>
       </c>
       <c r="G11" t="n">
+        <v>161.0866666666666</v>
+      </c>
+      <c r="H11" t="n">
         <v>156.0283333333333</v>
       </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
-      <c r="J11" t="inlineStr"/>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="inlineStr"/>
-      <c r="M11" t="n">
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -798,18 +875,25 @@
         <v>23447.848</v>
       </c>
       <c r="G12" t="n">
+        <v>161.2466666666666</v>
+      </c>
+      <c r="H12" t="n">
         <v>156.1616666666667</v>
       </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
-      <c r="J12" t="inlineStr"/>
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="inlineStr"/>
-      <c r="M12" t="n">
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N12" t="n">
         <v>1</v>
       </c>
     </row>
@@ -833,18 +917,25 @@
         <v>132195.67133001</v>
       </c>
       <c r="G13" t="n">
+        <v>161.4933333333333</v>
+      </c>
+      <c r="H13" t="n">
         <v>156.3483333333333</v>
       </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
-      <c r="J13" t="inlineStr"/>
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="inlineStr"/>
-      <c r="M13" t="n">
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N13" t="n">
         <v>1</v>
       </c>
     </row>
@@ -868,18 +959,25 @@
         <v>17417.6725</v>
       </c>
       <c r="G14" t="n">
+        <v>161.8133333333334</v>
+      </c>
+      <c r="H14" t="n">
         <v>156.5533333333333</v>
       </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
       <c r="I14" t="n">
-        <v>1</v>
-      </c>
-      <c r="J14" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="inlineStr"/>
-      <c r="M14" t="n">
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N14" t="n">
         <v>1</v>
       </c>
     </row>
@@ -903,18 +1001,25 @@
         <v>5647.7955</v>
       </c>
       <c r="G15" t="n">
+        <v>162.0133333333333</v>
+      </c>
+      <c r="H15" t="n">
         <v>156.7249999999999</v>
       </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
       <c r="I15" t="n">
-        <v>1</v>
-      </c>
-      <c r="J15" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0</v>
+      </c>
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="inlineStr"/>
-      <c r="M15" t="n">
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N15" t="n">
         <v>1</v>
       </c>
     </row>
@@ -938,18 +1043,25 @@
         <v>26458.4007</v>
       </c>
       <c r="G16" t="n">
+        <v>162.3466666666667</v>
+      </c>
+      <c r="H16" t="n">
         <v>156.9416666666666</v>
       </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
-      <c r="J16" t="inlineStr"/>
+      <c r="J16" t="n">
+        <v>0</v>
+      </c>
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="inlineStr"/>
-      <c r="M16" t="n">
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N16" t="n">
         <v>1</v>
       </c>
     </row>
@@ -973,18 +1085,25 @@
         <v>15513.1237</v>
       </c>
       <c r="G17" t="n">
+        <v>162.8466666666667</v>
+      </c>
+      <c r="H17" t="n">
         <v>157.1716666666666</v>
       </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
-      <c r="J17" t="inlineStr"/>
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
       <c r="K17" t="inlineStr"/>
       <c r="L17" t="inlineStr"/>
-      <c r="M17" t="n">
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N17" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1008,18 +1127,25 @@
         <v>5743.2212</v>
       </c>
       <c r="G18" t="n">
+        <v>163.3266666666667</v>
+      </c>
+      <c r="H18" t="n">
         <v>157.4349999999999</v>
       </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
-      <c r="J18" t="inlineStr"/>
+      <c r="J18" t="n">
+        <v>0</v>
+      </c>
       <c r="K18" t="inlineStr"/>
       <c r="L18" t="inlineStr"/>
-      <c r="M18" t="n">
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N18" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1043,18 +1169,25 @@
         <v>4256.4376</v>
       </c>
       <c r="G19" t="n">
+        <v>163.4933333333333</v>
+      </c>
+      <c r="H19" t="n">
         <v>157.6233333333332</v>
       </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
-      <c r="J19" t="inlineStr"/>
+      <c r="J19" t="n">
+        <v>0</v>
+      </c>
       <c r="K19" t="inlineStr"/>
       <c r="L19" t="inlineStr"/>
-      <c r="M19" t="n">
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N19" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1078,18 +1211,25 @@
         <v>24258.0953</v>
       </c>
       <c r="G20" t="n">
+        <v>163.32</v>
+      </c>
+      <c r="H20" t="n">
         <v>157.7066666666666</v>
       </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
-      <c r="J20" t="inlineStr"/>
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
       <c r="K20" t="inlineStr"/>
       <c r="L20" t="inlineStr"/>
-      <c r="M20" t="n">
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N20" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1113,18 +1253,25 @@
         <v>1353.869</v>
       </c>
       <c r="G21" t="n">
+        <v>163.0533333333333</v>
+      </c>
+      <c r="H21" t="n">
         <v>157.7899999999999</v>
       </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
-      <c r="J21" t="inlineStr"/>
+      <c r="J21" t="n">
+        <v>0</v>
+      </c>
       <c r="K21" t="inlineStr"/>
       <c r="L21" t="inlineStr"/>
-      <c r="M21" t="n">
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N21" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1148,18 +1295,25 @@
         <v>3951.91</v>
       </c>
       <c r="G22" t="n">
+        <v>162.8466666666667</v>
+      </c>
+      <c r="H22" t="n">
         <v>157.8733333333332</v>
       </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
-      <c r="J22" t="inlineStr"/>
+      <c r="J22" t="n">
+        <v>0</v>
+      </c>
       <c r="K22" t="inlineStr"/>
       <c r="L22" t="inlineStr"/>
-      <c r="M22" t="n">
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N22" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1183,18 +1337,25 @@
         <v>221</v>
       </c>
       <c r="G23" t="n">
+        <v>162.56</v>
+      </c>
+      <c r="H23" t="n">
         <v>157.9866666666666</v>
       </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
-      <c r="J23" t="inlineStr"/>
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
       <c r="K23" t="inlineStr"/>
       <c r="L23" t="inlineStr"/>
-      <c r="M23" t="n">
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N23" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1218,24 +1379,25 @@
         <v>4678.8667</v>
       </c>
       <c r="G24" t="n">
+        <v>162.8200000000001</v>
+      </c>
+      <c r="H24" t="n">
         <v>158.1683333333332</v>
       </c>
-      <c r="H24" t="n">
-        <v>1</v>
-      </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>158.9</v>
+        <v>0</v>
       </c>
       <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="M24" t="n">
+      <c r="L24" t="inlineStr"/>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N24" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1259,24 +1421,25 @@
         <v>156</v>
       </c>
       <c r="G25" t="n">
+        <v>162.8333333333334</v>
+      </c>
+      <c r="H25" t="n">
         <v>158.3349999999999</v>
       </c>
-      <c r="H25" t="n">
-        <v>1</v>
-      </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>164.9</v>
+        <v>0</v>
       </c>
       <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr">
+      <c r="L25" t="inlineStr"/>
+      <c r="M25" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M25" t="n">
+      <c r="N25" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1300,22 +1463,25 @@
         <v>559.999</v>
       </c>
       <c r="G26" t="n">
+        <v>162.9266666666667</v>
+      </c>
+      <c r="H26" t="n">
         <v>158.5149999999999</v>
       </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
-      <c r="J26" t="inlineStr"/>
+      <c r="J26" t="n">
+        <v>0</v>
+      </c>
       <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr">
+      <c r="L26" t="inlineStr"/>
+      <c r="M26" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M26" t="n">
+      <c r="N26" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1339,22 +1505,25 @@
         <v>1687</v>
       </c>
       <c r="G27" t="n">
+        <v>163.1133333333334</v>
+      </c>
+      <c r="H27" t="n">
         <v>158.6949999999999</v>
       </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
-      <c r="J27" t="inlineStr"/>
+      <c r="J27" t="n">
+        <v>0</v>
+      </c>
       <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr">
+      <c r="L27" t="inlineStr"/>
+      <c r="M27" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M27" t="n">
+      <c r="N27" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1378,22 +1547,25 @@
         <v>1984.528</v>
       </c>
       <c r="G28" t="n">
+        <v>163.2133333333334</v>
+      </c>
+      <c r="H28" t="n">
         <v>158.8599999999998</v>
       </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
-      <c r="J28" t="inlineStr"/>
+      <c r="J28" t="n">
+        <v>0</v>
+      </c>
       <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr">
+      <c r="L28" t="inlineStr"/>
+      <c r="M28" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M28" t="n">
+      <c r="N28" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1417,22 +1589,25 @@
         <v>24064.56988812</v>
       </c>
       <c r="G29" t="n">
+        <v>163.3066666666667</v>
+      </c>
+      <c r="H29" t="n">
         <v>159.0416666666665</v>
       </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
-      <c r="J29" t="inlineStr"/>
+      <c r="J29" t="n">
+        <v>0</v>
+      </c>
       <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr">
+      <c r="L29" t="inlineStr"/>
+      <c r="M29" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M29" t="n">
+      <c r="N29" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1456,22 +1631,25 @@
         <v>3181.1229</v>
       </c>
       <c r="G30" t="n">
+        <v>163.4933333333334</v>
+      </c>
+      <c r="H30" t="n">
         <v>159.2516666666665</v>
       </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
-      <c r="J30" t="inlineStr"/>
+      <c r="J30" t="n">
+        <v>0</v>
+      </c>
       <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr">
+      <c r="L30" t="inlineStr"/>
+      <c r="M30" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M30" t="n">
+      <c r="N30" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1495,22 +1673,25 @@
         <v>4181.0628</v>
       </c>
       <c r="G31" t="n">
+        <v>163.4800000000001</v>
+      </c>
+      <c r="H31" t="n">
         <v>159.4349999999998</v>
       </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
-      <c r="J31" t="inlineStr"/>
+      <c r="J31" t="n">
+        <v>0</v>
+      </c>
       <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr">
+      <c r="L31" t="inlineStr"/>
+      <c r="M31" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M31" t="n">
+      <c r="N31" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1534,22 +1715,25 @@
         <v>1879.251</v>
       </c>
       <c r="G32" t="n">
+        <v>163.4800000000001</v>
+      </c>
+      <c r="H32" t="n">
         <v>159.6683333333332</v>
       </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
-      <c r="J32" t="inlineStr"/>
+      <c r="J32" t="n">
+        <v>0</v>
+      </c>
       <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr">
+      <c r="L32" t="inlineStr"/>
+      <c r="M32" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M32" t="n">
+      <c r="N32" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1573,22 +1757,25 @@
         <v>1557.429</v>
       </c>
       <c r="G33" t="n">
+        <v>163.2800000000001</v>
+      </c>
+      <c r="H33" t="n">
         <v>159.8849999999998</v>
       </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
-      <c r="J33" t="inlineStr"/>
+      <c r="J33" t="n">
+        <v>0</v>
+      </c>
       <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr">
+      <c r="L33" t="inlineStr"/>
+      <c r="M33" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M33" t="n">
+      <c r="N33" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1612,22 +1799,25 @@
         <v>22527.5431</v>
       </c>
       <c r="G34" t="n">
+        <v>163.3933333333334</v>
+      </c>
+      <c r="H34" t="n">
         <v>160.1016666666665</v>
       </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
       <c r="I34" t="n">
         <v>0</v>
       </c>
-      <c r="J34" t="inlineStr"/>
+      <c r="J34" t="n">
+        <v>0</v>
+      </c>
       <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr">
+      <c r="L34" t="inlineStr"/>
+      <c r="M34" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M34" t="n">
+      <c r="N34" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1651,22 +1841,25 @@
         <v>5387.4282</v>
       </c>
       <c r="G35" t="n">
+        <v>163.8666666666667</v>
+      </c>
+      <c r="H35" t="n">
         <v>160.3349999999998</v>
       </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
-      <c r="J35" t="inlineStr"/>
+      <c r="J35" t="n">
+        <v>0</v>
+      </c>
       <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr">
+      <c r="L35" t="inlineStr"/>
+      <c r="M35" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M35" t="n">
+      <c r="N35" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1690,22 +1883,25 @@
         <v>14516.7121</v>
       </c>
       <c r="G36" t="n">
+        <v>164.2733333333334</v>
+      </c>
+      <c r="H36" t="n">
         <v>160.5199999999998</v>
       </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
-      <c r="J36" t="inlineStr"/>
+      <c r="J36" t="n">
+        <v>0</v>
+      </c>
       <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr">
+      <c r="L36" t="inlineStr"/>
+      <c r="M36" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M36" t="n">
+      <c r="N36" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1729,22 +1925,25 @@
         <v>25074.5699</v>
       </c>
       <c r="G37" t="n">
+        <v>164.8666666666667</v>
+      </c>
+      <c r="H37" t="n">
         <v>160.7499999999998</v>
       </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
-      <c r="J37" t="inlineStr"/>
+      <c r="J37" t="n">
+        <v>0</v>
+      </c>
       <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr">
+      <c r="L37" t="inlineStr"/>
+      <c r="M37" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M37" t="n">
+      <c r="N37" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1768,24 +1967,25 @@
         <v>5786.6083</v>
       </c>
       <c r="G38" t="n">
+        <v>165.4600000000001</v>
+      </c>
+      <c r="H38" t="n">
         <v>160.9616666666665</v>
       </c>
-      <c r="H38" t="n">
-        <v>1</v>
-      </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>167.8</v>
+        <v>0</v>
       </c>
       <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr">
+      <c r="L38" t="inlineStr"/>
+      <c r="M38" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M38" t="n">
+      <c r="N38" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1809,24 +2009,25 @@
         <v>12598.88547403</v>
       </c>
       <c r="G39" t="n">
+        <v>165.8133333333334</v>
+      </c>
+      <c r="H39" t="n">
         <v>161.1949999999998</v>
       </c>
-      <c r="H39" t="n">
-        <v>1</v>
-      </c>
       <c r="I39" t="n">
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>167.8</v>
+        <v>0</v>
       </c>
       <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr">
+      <c r="L39" t="inlineStr"/>
+      <c r="M39" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M39" t="n">
+      <c r="N39" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1850,22 +2051,25 @@
         <v>8652.128084600001</v>
       </c>
       <c r="G40" t="n">
+        <v>166.3466666666667</v>
+      </c>
+      <c r="H40" t="n">
         <v>161.4166666666665</v>
       </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
       <c r="I40" t="n">
         <v>0</v>
       </c>
-      <c r="J40" t="inlineStr"/>
+      <c r="J40" t="n">
+        <v>0</v>
+      </c>
       <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr">
+      <c r="L40" t="inlineStr"/>
+      <c r="M40" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M40" t="n">
+      <c r="N40" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1889,22 +2093,25 @@
         <v>3102.743</v>
       </c>
       <c r="G41" t="n">
+        <v>166.4933333333334</v>
+      </c>
+      <c r="H41" t="n">
         <v>161.6133333333332</v>
       </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
-      <c r="J41" t="inlineStr"/>
+      <c r="J41" t="n">
+        <v>0</v>
+      </c>
       <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr">
+      <c r="L41" t="inlineStr"/>
+      <c r="M41" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M41" t="n">
+      <c r="N41" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1928,22 +2135,25 @@
         <v>6000</v>
       </c>
       <c r="G42" t="n">
+        <v>166.54</v>
+      </c>
+      <c r="H42" t="n">
         <v>161.7849999999999</v>
       </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
-      <c r="J42" t="inlineStr"/>
+      <c r="J42" t="n">
+        <v>0</v>
+      </c>
       <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr">
+      <c r="L42" t="inlineStr"/>
+      <c r="M42" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M42" t="n">
+      <c r="N42" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1967,22 +2177,25 @@
         <v>0.001</v>
       </c>
       <c r="G43" t="n">
+        <v>166.6866666666667</v>
+      </c>
+      <c r="H43" t="n">
         <v>161.9816666666665</v>
       </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
-      <c r="J43" t="inlineStr"/>
+      <c r="J43" t="n">
+        <v>0</v>
+      </c>
       <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr">
+      <c r="L43" t="inlineStr"/>
+      <c r="M43" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M43" t="n">
+      <c r="N43" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2006,22 +2219,25 @@
         <v>12579.328</v>
       </c>
       <c r="G44" t="n">
+        <v>166.8866666666667</v>
+      </c>
+      <c r="H44" t="n">
         <v>162.2083333333332</v>
       </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
-      <c r="J44" t="inlineStr"/>
+      <c r="J44" t="n">
+        <v>0</v>
+      </c>
       <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr">
+      <c r="L44" t="inlineStr"/>
+      <c r="M44" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M44" t="n">
+      <c r="N44" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2045,22 +2261,25 @@
         <v>125</v>
       </c>
       <c r="G45" t="n">
+        <v>167.0933333333333</v>
+      </c>
+      <c r="H45" t="n">
         <v>162.4349999999999</v>
       </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
-      <c r="J45" t="inlineStr"/>
+      <c r="J45" t="n">
+        <v>0</v>
+      </c>
       <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr">
+      <c r="L45" t="inlineStr"/>
+      <c r="M45" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M45" t="n">
+      <c r="N45" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2084,22 +2303,25 @@
         <v>6449.7894</v>
       </c>
       <c r="G46" t="n">
+        <v>167.2733333333333</v>
+      </c>
+      <c r="H46" t="n">
         <v>162.6683333333332</v>
       </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
       <c r="I46" t="n">
         <v>0</v>
       </c>
-      <c r="J46" t="inlineStr"/>
+      <c r="J46" t="n">
+        <v>0</v>
+      </c>
       <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr">
+      <c r="L46" t="inlineStr"/>
+      <c r="M46" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M46" t="n">
+      <c r="N46" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2123,22 +2345,25 @@
         <v>4600</v>
       </c>
       <c r="G47" t="n">
+        <v>167.28</v>
+      </c>
+      <c r="H47" t="n">
         <v>162.8616666666666</v>
       </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
       <c r="I47" t="n">
         <v>0</v>
       </c>
-      <c r="J47" t="inlineStr"/>
+      <c r="J47" t="n">
+        <v>0</v>
+      </c>
       <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr">
+      <c r="L47" t="inlineStr"/>
+      <c r="M47" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M47" t="n">
+      <c r="N47" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2162,22 +2387,25 @@
         <v>329</v>
       </c>
       <c r="G48" t="n">
+        <v>167.3533333333333</v>
+      </c>
+      <c r="H48" t="n">
         <v>163.0549999999999</v>
       </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
       <c r="I48" t="n">
         <v>0</v>
       </c>
-      <c r="J48" t="inlineStr"/>
+      <c r="J48" t="n">
+        <v>0</v>
+      </c>
       <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr">
+      <c r="L48" t="inlineStr"/>
+      <c r="M48" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M48" t="n">
+      <c r="N48" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2201,22 +2429,25 @@
         <v>2000</v>
       </c>
       <c r="G49" t="n">
+        <v>167.2933333333333</v>
+      </c>
+      <c r="H49" t="n">
         <v>163.1933333333332</v>
       </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
       <c r="I49" t="n">
         <v>0</v>
       </c>
-      <c r="J49" t="inlineStr"/>
+      <c r="J49" t="n">
+        <v>0</v>
+      </c>
       <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr">
+      <c r="L49" t="inlineStr"/>
+      <c r="M49" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M49" t="n">
+      <c r="N49" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2240,22 +2471,25 @@
         <v>2125</v>
       </c>
       <c r="G50" t="n">
+        <v>167.28</v>
+      </c>
+      <c r="H50" t="n">
         <v>163.4133333333332</v>
       </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
       <c r="I50" t="n">
         <v>0</v>
       </c>
-      <c r="J50" t="inlineStr"/>
+      <c r="J50" t="n">
+        <v>0</v>
+      </c>
       <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr">
+      <c r="L50" t="inlineStr"/>
+      <c r="M50" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M50" t="n">
+      <c r="N50" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2279,22 +2513,25 @@
         <v>461.3723</v>
       </c>
       <c r="G51" t="n">
+        <v>167.3466666666667</v>
+      </c>
+      <c r="H51" t="n">
         <v>163.5849999999999</v>
       </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
       <c r="I51" t="n">
         <v>0</v>
       </c>
-      <c r="J51" t="inlineStr"/>
+      <c r="J51" t="n">
+        <v>0</v>
+      </c>
       <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr">
+      <c r="L51" t="inlineStr"/>
+      <c r="M51" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M51" t="n">
+      <c r="N51" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2318,22 +2555,25 @@
         <v>4592.6831</v>
       </c>
       <c r="G52" t="n">
+        <v>167.12</v>
+      </c>
+      <c r="H52" t="n">
         <v>163.7283333333332</v>
       </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
       <c r="I52" t="n">
         <v>0</v>
       </c>
-      <c r="J52" t="inlineStr"/>
+      <c r="J52" t="n">
+        <v>0</v>
+      </c>
       <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr">
+      <c r="L52" t="inlineStr"/>
+      <c r="M52" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M52" t="n">
+      <c r="N52" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2357,22 +2597,25 @@
         <v>1420.7914</v>
       </c>
       <c r="G53" t="n">
+        <v>166.8666666666666</v>
+      </c>
+      <c r="H53" t="n">
         <v>163.8466666666666</v>
       </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
       <c r="I53" t="n">
         <v>0</v>
       </c>
-      <c r="J53" t="inlineStr"/>
+      <c r="J53" t="n">
+        <v>0</v>
+      </c>
       <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr">
+      <c r="L53" t="inlineStr"/>
+      <c r="M53" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M53" t="n">
+      <c r="N53" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2396,22 +2639,25 @@
         <v>855.215</v>
       </c>
       <c r="G54" t="n">
+        <v>166.4533333333333</v>
+      </c>
+      <c r="H54" t="n">
         <v>163.9249999999999</v>
       </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
       <c r="I54" t="n">
         <v>0</v>
       </c>
-      <c r="J54" t="inlineStr"/>
+      <c r="J54" t="n">
+        <v>0</v>
+      </c>
       <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr">
+      <c r="L54" t="inlineStr"/>
+      <c r="M54" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M54" t="n">
+      <c r="N54" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2435,24 +2681,25 @@
         <v>29882.4351</v>
       </c>
       <c r="G55" t="n">
+        <v>166.2933333333334</v>
+      </c>
+      <c r="H55" t="n">
         <v>164.0683333333332</v>
       </c>
-      <c r="H55" t="n">
-        <v>1</v>
-      </c>
       <c r="I55" t="n">
         <v>0</v>
       </c>
       <c r="J55" t="n">
-        <v>164</v>
+        <v>0</v>
       </c>
       <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr">
+      <c r="L55" t="inlineStr"/>
+      <c r="M55" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M55" t="n">
+      <c r="N55" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2476,22 +2723,25 @@
         <v>12247.0863</v>
       </c>
       <c r="G56" t="n">
+        <v>166.34</v>
+      </c>
+      <c r="H56" t="n">
         <v>164.2116666666665</v>
       </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
       <c r="I56" t="n">
         <v>0</v>
       </c>
-      <c r="J56" t="inlineStr"/>
+      <c r="J56" t="n">
+        <v>0</v>
+      </c>
       <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr">
+      <c r="L56" t="inlineStr"/>
+      <c r="M56" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M56" t="n">
+      <c r="N56" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2515,22 +2765,25 @@
         <v>2350.156</v>
       </c>
       <c r="G57" t="n">
+        <v>166.4933333333334</v>
+      </c>
+      <c r="H57" t="n">
         <v>164.3483333333332</v>
       </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
       <c r="I57" t="n">
         <v>0</v>
       </c>
-      <c r="J57" t="inlineStr"/>
+      <c r="J57" t="n">
+        <v>0</v>
+      </c>
       <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr">
+      <c r="L57" t="inlineStr"/>
+      <c r="M57" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M57" t="n">
+      <c r="N57" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2554,22 +2807,25 @@
         <v>4569.4718</v>
       </c>
       <c r="G58" t="n">
+        <v>166.5466666666667</v>
+      </c>
+      <c r="H58" t="n">
         <v>164.4849999999998</v>
       </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
       <c r="I58" t="n">
         <v>0</v>
       </c>
-      <c r="J58" t="inlineStr"/>
+      <c r="J58" t="n">
+        <v>0</v>
+      </c>
       <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr">
+      <c r="L58" t="inlineStr"/>
+      <c r="M58" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M58" t="n">
+      <c r="N58" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2593,22 +2849,25 @@
         <v>5162.0977</v>
       </c>
       <c r="G59" t="n">
+        <v>166.42</v>
+      </c>
+      <c r="H59" t="n">
         <v>164.6066666666665</v>
       </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
       <c r="I59" t="n">
         <v>0</v>
       </c>
-      <c r="J59" t="inlineStr"/>
+      <c r="J59" t="n">
+        <v>0</v>
+      </c>
       <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr">
+      <c r="L59" t="inlineStr"/>
+      <c r="M59" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M59" t="n">
+      <c r="N59" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2632,22 +2891,25 @@
         <v>16589.8052</v>
       </c>
       <c r="G60" t="n">
+        <v>166.2266666666667</v>
+      </c>
+      <c r="H60" t="n">
         <v>164.7066666666665</v>
       </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
       <c r="I60" t="n">
         <v>0</v>
       </c>
-      <c r="J60" t="inlineStr"/>
+      <c r="J60" t="n">
+        <v>0</v>
+      </c>
       <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr">
+      <c r="L60" t="inlineStr"/>
+      <c r="M60" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M60" t="n">
+      <c r="N60" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2671,22 +2933,25 @@
         <v>1757.5937</v>
       </c>
       <c r="G61" t="n">
+        <v>165.9333333333334</v>
+      </c>
+      <c r="H61" t="n">
         <v>164.7583333333332</v>
       </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
       <c r="I61" t="n">
         <v>0</v>
       </c>
-      <c r="J61" t="inlineStr"/>
+      <c r="J61" t="n">
+        <v>0</v>
+      </c>
       <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr">
+      <c r="L61" t="inlineStr"/>
+      <c r="M61" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M61" t="n">
+      <c r="N61" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2710,22 +2975,25 @@
         <v>2417.372</v>
       </c>
       <c r="G62" t="n">
+        <v>165.9066666666667</v>
+      </c>
+      <c r="H62" t="n">
         <v>164.8783333333332</v>
       </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
       <c r="I62" t="n">
         <v>0</v>
       </c>
-      <c r="J62" t="inlineStr"/>
+      <c r="J62" t="n">
+        <v>0</v>
+      </c>
       <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr">
+      <c r="L62" t="inlineStr"/>
+      <c r="M62" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M62" t="n">
+      <c r="N62" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2749,22 +3017,25 @@
         <v>16186.3272</v>
       </c>
       <c r="G63" t="n">
+        <v>165.6666666666667</v>
+      </c>
+      <c r="H63" t="n">
         <v>164.9066666666665</v>
       </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
       <c r="I63" t="n">
         <v>0</v>
       </c>
-      <c r="J63" t="inlineStr"/>
+      <c r="J63" t="n">
+        <v>0</v>
+      </c>
       <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr">
+      <c r="L63" t="inlineStr"/>
+      <c r="M63" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M63" t="n">
+      <c r="N63" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2788,22 +3059,25 @@
         <v>1699</v>
       </c>
       <c r="G64" t="n">
+        <v>165.7800000000001</v>
+      </c>
+      <c r="H64" t="n">
         <v>164.9899999999998</v>
       </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
       <c r="I64" t="n">
         <v>0</v>
       </c>
-      <c r="J64" t="inlineStr"/>
+      <c r="J64" t="n">
+        <v>0</v>
+      </c>
       <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr">
+      <c r="L64" t="inlineStr"/>
+      <c r="M64" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M64" t="n">
+      <c r="N64" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2827,22 +3101,25 @@
         <v>12729.08858849</v>
       </c>
       <c r="G65" t="n">
+        <v>165.7333333333334</v>
+      </c>
+      <c r="H65" t="n">
         <v>165.0499999999998</v>
       </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
       <c r="I65" t="n">
         <v>0</v>
       </c>
-      <c r="J65" t="inlineStr"/>
+      <c r="J65" t="n">
+        <v>0</v>
+      </c>
       <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr">
+      <c r="L65" t="inlineStr"/>
+      <c r="M65" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M65" t="n">
+      <c r="N65" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2866,22 +3143,25 @@
         <v>880</v>
       </c>
       <c r="G66" t="n">
+        <v>165.6933333333334</v>
+      </c>
+      <c r="H66" t="n">
         <v>165.0916666666665</v>
       </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
       <c r="I66" t="n">
         <v>0</v>
       </c>
-      <c r="J66" t="inlineStr"/>
+      <c r="J66" t="n">
+        <v>0</v>
+      </c>
       <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr">
+      <c r="L66" t="inlineStr"/>
+      <c r="M66" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M66" t="n">
+      <c r="N66" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2905,22 +3185,25 @@
         <v>390.59</v>
       </c>
       <c r="G67" t="n">
+        <v>165.7</v>
+      </c>
+      <c r="H67" t="n">
         <v>165.1333333333332</v>
       </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
       <c r="I67" t="n">
         <v>0</v>
       </c>
-      <c r="J67" t="inlineStr"/>
+      <c r="J67" t="n">
+        <v>0</v>
+      </c>
       <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr">
+      <c r="L67" t="inlineStr"/>
+      <c r="M67" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M67" t="n">
+      <c r="N67" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2944,22 +3227,25 @@
         <v>3451.428</v>
       </c>
       <c r="G68" t="n">
+        <v>165.9133333333334</v>
+      </c>
+      <c r="H68" t="n">
         <v>165.1999999999998</v>
       </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
       <c r="I68" t="n">
         <v>0</v>
       </c>
-      <c r="J68" t="inlineStr"/>
+      <c r="J68" t="n">
+        <v>0</v>
+      </c>
       <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr">
+      <c r="L68" t="inlineStr"/>
+      <c r="M68" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M68" t="n">
+      <c r="N68" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2983,22 +3269,25 @@
         <v>4199.1</v>
       </c>
       <c r="G69" t="n">
+        <v>166.1266666666667</v>
+      </c>
+      <c r="H69" t="n">
         <v>165.3033333333332</v>
       </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
       <c r="I69" t="n">
         <v>0</v>
       </c>
-      <c r="J69" t="inlineStr"/>
+      <c r="J69" t="n">
+        <v>0</v>
+      </c>
       <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr">
+      <c r="L69" t="inlineStr"/>
+      <c r="M69" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M69" t="n">
+      <c r="N69" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3022,22 +3311,25 @@
         <v>827.1784</v>
       </c>
       <c r="G70" t="n">
+        <v>166.0866666666666</v>
+      </c>
+      <c r="H70" t="n">
         <v>165.3899999999999</v>
       </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
       <c r="I70" t="n">
         <v>0</v>
       </c>
-      <c r="J70" t="inlineStr"/>
+      <c r="J70" t="n">
+        <v>0</v>
+      </c>
       <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr">
+      <c r="L70" t="inlineStr"/>
+      <c r="M70" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M70" t="n">
+      <c r="N70" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3061,22 +3353,25 @@
         <v>252.5426</v>
       </c>
       <c r="G71" t="n">
+        <v>165.9333333333333</v>
+      </c>
+      <c r="H71" t="n">
         <v>165.4233333333332</v>
       </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
       <c r="I71" t="n">
         <v>0</v>
       </c>
-      <c r="J71" t="inlineStr"/>
+      <c r="J71" t="n">
+        <v>0</v>
+      </c>
       <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr">
+      <c r="L71" t="inlineStr"/>
+      <c r="M71" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M71" t="n">
+      <c r="N71" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3100,22 +3395,25 @@
         <v>316.97</v>
       </c>
       <c r="G72" t="n">
+        <v>165.7799999999999</v>
+      </c>
+      <c r="H72" t="n">
         <v>165.4816666666665</v>
       </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
       <c r="I72" t="n">
         <v>0</v>
       </c>
-      <c r="J72" t="inlineStr"/>
+      <c r="J72" t="n">
+        <v>0</v>
+      </c>
       <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr">
+      <c r="L72" t="inlineStr"/>
+      <c r="M72" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M72" t="n">
+      <c r="N72" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3139,22 +3437,25 @@
         <v>30</v>
       </c>
       <c r="G73" t="n">
+        <v>165.8133333333333</v>
+      </c>
+      <c r="H73" t="n">
         <v>165.5649999999999</v>
       </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
       <c r="I73" t="n">
         <v>0</v>
       </c>
-      <c r="J73" t="inlineStr"/>
+      <c r="J73" t="n">
+        <v>0</v>
+      </c>
       <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr">
+      <c r="L73" t="inlineStr"/>
+      <c r="M73" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M73" t="n">
+      <c r="N73" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3178,22 +3479,25 @@
         <v>3561.3075</v>
       </c>
       <c r="G74" t="n">
+        <v>165.7933333333333</v>
+      </c>
+      <c r="H74" t="n">
         <v>165.6016666666665</v>
       </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
       <c r="I74" t="n">
         <v>0</v>
       </c>
-      <c r="J74" t="inlineStr"/>
+      <c r="J74" t="n">
+        <v>0</v>
+      </c>
       <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr">
+      <c r="L74" t="inlineStr"/>
+      <c r="M74" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M74" t="n">
+      <c r="N74" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3217,22 +3521,25 @@
         <v>4319.563</v>
       </c>
       <c r="G75" t="n">
+        <v>165.7933333333333</v>
+      </c>
+      <c r="H75" t="n">
         <v>165.6516666666666</v>
       </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
       <c r="I75" t="n">
         <v>0</v>
       </c>
-      <c r="J75" t="inlineStr"/>
+      <c r="J75" t="n">
+        <v>0</v>
+      </c>
       <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr">
+      <c r="L75" t="inlineStr"/>
+      <c r="M75" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M75" t="n">
+      <c r="N75" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3256,22 +3563,25 @@
         <v>5479.3776</v>
       </c>
       <c r="G76" t="n">
+        <v>166.08</v>
+      </c>
+      <c r="H76" t="n">
         <v>165.6916666666665</v>
       </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
       <c r="I76" t="n">
         <v>0</v>
       </c>
-      <c r="J76" t="inlineStr"/>
+      <c r="J76" t="n">
+        <v>0</v>
+      </c>
       <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr">
+      <c r="L76" t="inlineStr"/>
+      <c r="M76" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M76" t="n">
+      <c r="N76" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3295,22 +3605,25 @@
         <v>17403.6103</v>
       </c>
       <c r="G77" t="n">
+        <v>166.2733333333333</v>
+      </c>
+      <c r="H77" t="n">
         <v>165.7349999999999</v>
       </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
       <c r="I77" t="n">
         <v>0</v>
       </c>
-      <c r="J77" t="inlineStr"/>
+      <c r="J77" t="n">
+        <v>0</v>
+      </c>
       <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr">
+      <c r="L77" t="inlineStr"/>
+      <c r="M77" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M77" t="n">
+      <c r="N77" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3334,22 +3647,25 @@
         <v>9769.171</v>
       </c>
       <c r="G78" t="n">
+        <v>166.74</v>
+      </c>
+      <c r="H78" t="n">
         <v>165.7599999999999</v>
       </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
       <c r="I78" t="n">
         <v>0</v>
       </c>
-      <c r="J78" t="inlineStr"/>
+      <c r="J78" t="n">
+        <v>0</v>
+      </c>
       <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr">
+      <c r="L78" t="inlineStr"/>
+      <c r="M78" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M78" t="n">
+      <c r="N78" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3373,22 +3689,25 @@
         <v>3132.261</v>
       </c>
       <c r="G79" t="n">
+        <v>166.9866666666666</v>
+      </c>
+      <c r="H79" t="n">
         <v>165.8633333333332</v>
       </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
       <c r="I79" t="n">
         <v>0</v>
       </c>
-      <c r="J79" t="inlineStr"/>
+      <c r="J79" t="n">
+        <v>0</v>
+      </c>
       <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr">
+      <c r="L79" t="inlineStr"/>
+      <c r="M79" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M79" t="n">
+      <c r="N79" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3412,22 +3731,25 @@
         <v>9207.2111</v>
       </c>
       <c r="G80" t="n">
+        <v>167.2799999999999</v>
+      </c>
+      <c r="H80" t="n">
         <v>166.0399999999999</v>
       </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
       <c r="I80" t="n">
         <v>0</v>
       </c>
-      <c r="J80" t="inlineStr"/>
+      <c r="J80" t="n">
+        <v>0</v>
+      </c>
       <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr">
+      <c r="L80" t="inlineStr"/>
+      <c r="M80" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M80" t="n">
+      <c r="N80" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3451,22 +3773,25 @@
         <v>237.6534</v>
       </c>
       <c r="G81" t="n">
+        <v>167.5533333333333</v>
+      </c>
+      <c r="H81" t="n">
         <v>166.2166666666666</v>
       </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
       <c r="I81" t="n">
         <v>0</v>
       </c>
-      <c r="J81" t="inlineStr"/>
+      <c r="J81" t="n">
+        <v>0</v>
+      </c>
       <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr">
+      <c r="L81" t="inlineStr"/>
+      <c r="M81" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M81" t="n">
+      <c r="N81" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3490,22 +3815,25 @@
         <v>371.8816</v>
       </c>
       <c r="G82" t="n">
+        <v>167.7933333333333</v>
+      </c>
+      <c r="H82" t="n">
         <v>166.3699999999999</v>
       </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
       <c r="I82" t="n">
         <v>0</v>
       </c>
-      <c r="J82" t="inlineStr"/>
+      <c r="J82" t="n">
+        <v>0</v>
+      </c>
       <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr">
+      <c r="L82" t="inlineStr"/>
+      <c r="M82" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M82" t="n">
+      <c r="N82" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3529,22 +3857,25 @@
         <v>384</v>
       </c>
       <c r="G83" t="n">
+        <v>167.8</v>
+      </c>
+      <c r="H83" t="n">
         <v>166.5099999999999</v>
       </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
       <c r="I83" t="n">
         <v>0</v>
       </c>
-      <c r="J83" t="inlineStr"/>
+      <c r="J83" t="n">
+        <v>0</v>
+      </c>
       <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr">
+      <c r="L83" t="inlineStr"/>
+      <c r="M83" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M83" t="n">
+      <c r="N83" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3568,22 +3899,25 @@
         <v>12367.1239</v>
       </c>
       <c r="G84" t="n">
+        <v>167.6733333333333</v>
+      </c>
+      <c r="H84" t="n">
         <v>166.5166666666666</v>
       </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
       <c r="I84" t="n">
         <v>0</v>
       </c>
-      <c r="J84" t="inlineStr"/>
+      <c r="J84" t="n">
+        <v>0</v>
+      </c>
       <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr">
+      <c r="L84" t="inlineStr"/>
+      <c r="M84" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M84" t="n">
+      <c r="N84" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3607,22 +3941,25 @@
         <v>344.59</v>
       </c>
       <c r="G85" t="n">
+        <v>167.5933333333333</v>
+      </c>
+      <c r="H85" t="n">
         <v>166.5799999999999</v>
       </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
       <c r="I85" t="n">
         <v>0</v>
       </c>
-      <c r="J85" t="inlineStr"/>
+      <c r="J85" t="n">
+        <v>0</v>
+      </c>
       <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr">
+      <c r="L85" t="inlineStr"/>
+      <c r="M85" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M85" t="n">
+      <c r="N85" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3646,22 +3983,25 @@
         <v>3013.4283</v>
       </c>
       <c r="G86" t="n">
+        <v>167.6933333333333</v>
+      </c>
+      <c r="H86" t="n">
         <v>166.6149999999999</v>
       </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
       <c r="I86" t="n">
         <v>0</v>
       </c>
-      <c r="J86" t="inlineStr"/>
+      <c r="J86" t="n">
+        <v>0</v>
+      </c>
       <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr">
+      <c r="L86" t="inlineStr"/>
+      <c r="M86" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M86" t="n">
+      <c r="N86" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3685,22 +4025,25 @@
         <v>58.5871</v>
       </c>
       <c r="G87" t="n">
+        <v>167.6533333333333</v>
+      </c>
+      <c r="H87" t="n">
         <v>166.6166666666666</v>
       </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
       <c r="I87" t="n">
         <v>0</v>
       </c>
-      <c r="J87" t="inlineStr"/>
+      <c r="J87" t="n">
+        <v>0</v>
+      </c>
       <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr">
+      <c r="L87" t="inlineStr"/>
+      <c r="M87" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M87" t="n">
+      <c r="N87" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3724,22 +4067,25 @@
         <v>120.3945</v>
       </c>
       <c r="G88" t="n">
+        <v>167.4933333333333</v>
+      </c>
+      <c r="H88" t="n">
         <v>166.6349999999999</v>
       </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
       <c r="I88" t="n">
         <v>0</v>
       </c>
-      <c r="J88" t="inlineStr"/>
+      <c r="J88" t="n">
+        <v>0</v>
+      </c>
       <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr">
+      <c r="L88" t="inlineStr"/>
+      <c r="M88" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M88" t="n">
+      <c r="N88" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3763,22 +4109,25 @@
         <v>2971.72</v>
       </c>
       <c r="G89" t="n">
+        <v>167.5066666666667</v>
+      </c>
+      <c r="H89" t="n">
         <v>166.6516666666666</v>
       </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
       <c r="I89" t="n">
         <v>0</v>
       </c>
-      <c r="J89" t="inlineStr"/>
+      <c r="J89" t="n">
+        <v>0</v>
+      </c>
       <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr">
+      <c r="L89" t="inlineStr"/>
+      <c r="M89" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M89" t="n">
+      <c r="N89" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3802,22 +4151,25 @@
         <v>10</v>
       </c>
       <c r="G90" t="n">
+        <v>167.44</v>
+      </c>
+      <c r="H90" t="n">
         <v>166.6383333333333</v>
       </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
       <c r="I90" t="n">
         <v>0</v>
       </c>
-      <c r="J90" t="inlineStr"/>
+      <c r="J90" t="n">
+        <v>0</v>
+      </c>
       <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr">
+      <c r="L90" t="inlineStr"/>
+      <c r="M90" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M90" t="n">
+      <c r="N90" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3841,22 +4193,25 @@
         <v>86.3613</v>
       </c>
       <c r="G91" t="n">
+        <v>167.2133333333333</v>
+      </c>
+      <c r="H91" t="n">
         <v>166.6249999999999</v>
       </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
       <c r="I91" t="n">
         <v>0</v>
       </c>
-      <c r="J91" t="inlineStr"/>
+      <c r="J91" t="n">
+        <v>0</v>
+      </c>
       <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr">
+      <c r="L91" t="inlineStr"/>
+      <c r="M91" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M91" t="n">
+      <c r="N91" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3880,22 +4235,25 @@
         <v>1198.32234871</v>
       </c>
       <c r="G92" t="n">
+        <v>167.1</v>
+      </c>
+      <c r="H92" t="n">
         <v>166.6399999999999</v>
       </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
       <c r="I92" t="n">
         <v>0</v>
       </c>
-      <c r="J92" t="inlineStr"/>
+      <c r="J92" t="n">
+        <v>0</v>
+      </c>
       <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr">
+      <c r="L92" t="inlineStr"/>
+      <c r="M92" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M92" t="n">
+      <c r="N92" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3919,22 +4277,25 @@
         <v>4000</v>
       </c>
       <c r="G93" t="n">
+        <v>166.9266666666667</v>
+      </c>
+      <c r="H93" t="n">
         <v>166.6716666666666</v>
       </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
       <c r="I93" t="n">
         <v>0</v>
       </c>
-      <c r="J93" t="inlineStr"/>
+      <c r="J93" t="n">
+        <v>0</v>
+      </c>
       <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr">
+      <c r="L93" t="inlineStr"/>
+      <c r="M93" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M93" t="n">
+      <c r="N93" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3958,22 +4319,25 @@
         <v>105.3087</v>
       </c>
       <c r="G94" t="n">
+        <v>166.6266666666667</v>
+      </c>
+      <c r="H94" t="n">
         <v>166.6716666666666</v>
       </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
       <c r="I94" t="n">
         <v>0</v>
       </c>
-      <c r="J94" t="inlineStr"/>
+      <c r="J94" t="n">
+        <v>0</v>
+      </c>
       <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr">
+      <c r="L94" t="inlineStr"/>
+      <c r="M94" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M94" t="n">
+      <c r="N94" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3997,22 +4361,25 @@
         <v>19.99</v>
       </c>
       <c r="G95" t="n">
+        <v>166.3266666666667</v>
+      </c>
+      <c r="H95" t="n">
         <v>166.6549999999999</v>
       </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
       <c r="I95" t="n">
         <v>0</v>
       </c>
-      <c r="J95" t="inlineStr"/>
+      <c r="J95" t="n">
+        <v>0</v>
+      </c>
       <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr">
+      <c r="L95" t="inlineStr"/>
+      <c r="M95" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M95" t="n">
+      <c r="N95" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4036,22 +4403,25 @@
         <v>2700</v>
       </c>
       <c r="G96" t="n">
+        <v>166.0266666666667</v>
+      </c>
+      <c r="H96" t="n">
         <v>166.6549999999999</v>
       </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
       <c r="I96" t="n">
         <v>0</v>
       </c>
-      <c r="J96" t="inlineStr"/>
+      <c r="J96" t="n">
+        <v>0</v>
+      </c>
       <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr">
+      <c r="L96" t="inlineStr"/>
+      <c r="M96" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M96" t="n">
+      <c r="N96" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4075,22 +4445,25 @@
         <v>1198.3223</v>
       </c>
       <c r="G97" t="n">
+        <v>165.7200000000001</v>
+      </c>
+      <c r="H97" t="n">
         <v>166.5833333333333</v>
       </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
       <c r="I97" t="n">
         <v>0</v>
       </c>
-      <c r="J97" t="inlineStr"/>
+      <c r="J97" t="n">
+        <v>0</v>
+      </c>
       <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr">
+      <c r="L97" t="inlineStr"/>
+      <c r="M97" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M97" t="n">
+      <c r="N97" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4114,22 +4487,25 @@
         <v>5521.3054</v>
       </c>
       <c r="G98" t="n">
+        <v>165.6933333333334</v>
+      </c>
+      <c r="H98" t="n">
         <v>166.5683333333333</v>
       </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
       <c r="I98" t="n">
         <v>0</v>
       </c>
-      <c r="J98" t="inlineStr"/>
+      <c r="J98" t="n">
+        <v>0</v>
+      </c>
       <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr">
+      <c r="L98" t="inlineStr"/>
+      <c r="M98" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M98" t="n">
+      <c r="N98" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4153,22 +4529,25 @@
         <v>9975</v>
       </c>
       <c r="G99" t="n">
+        <v>165.74</v>
+      </c>
+      <c r="H99" t="n">
         <v>166.4983333333333</v>
       </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
       <c r="I99" t="n">
         <v>0</v>
       </c>
-      <c r="J99" t="inlineStr"/>
+      <c r="J99" t="n">
+        <v>0</v>
+      </c>
       <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr">
+      <c r="L99" t="inlineStr"/>
+      <c r="M99" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M99" t="n">
+      <c r="N99" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4192,22 +4571,25 @@
         <v>9077.791999999999</v>
       </c>
       <c r="G100" t="n">
+        <v>165.8066666666667</v>
+      </c>
+      <c r="H100" t="n">
         <v>166.4449999999999</v>
       </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
       <c r="I100" t="n">
         <v>0</v>
       </c>
-      <c r="J100" t="inlineStr"/>
+      <c r="J100" t="n">
+        <v>0</v>
+      </c>
       <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr">
+      <c r="L100" t="inlineStr"/>
+      <c r="M100" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M100" t="n">
+      <c r="N100" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4231,22 +4613,25 @@
         <v>125</v>
       </c>
       <c r="G101" t="n">
+        <v>165.74</v>
+      </c>
+      <c r="H101" t="n">
         <v>166.4266666666666</v>
       </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
       <c r="I101" t="n">
         <v>0</v>
       </c>
-      <c r="J101" t="inlineStr"/>
+      <c r="J101" t="n">
+        <v>0</v>
+      </c>
       <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr">
+      <c r="L101" t="inlineStr"/>
+      <c r="M101" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M101" t="n">
+      <c r="N101" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4270,22 +4655,25 @@
         <v>162.6716</v>
       </c>
       <c r="G102" t="n">
+        <v>165.78</v>
+      </c>
+      <c r="H102" t="n">
         <v>166.4266666666666</v>
       </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
       <c r="I102" t="n">
         <v>0</v>
       </c>
-      <c r="J102" t="inlineStr"/>
+      <c r="J102" t="n">
+        <v>0</v>
+      </c>
       <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr">
+      <c r="L102" t="inlineStr"/>
+      <c r="M102" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M102" t="n">
+      <c r="N102" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4309,22 +4697,25 @@
         <v>182.4146</v>
       </c>
       <c r="G103" t="n">
+        <v>165.7466666666667</v>
+      </c>
+      <c r="H103" t="n">
         <v>166.3999999999999</v>
       </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
       <c r="I103" t="n">
         <v>0</v>
       </c>
-      <c r="J103" t="inlineStr"/>
+      <c r="J103" t="n">
+        <v>0</v>
+      </c>
       <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr">
+      <c r="L103" t="inlineStr"/>
+      <c r="M103" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M103" t="n">
+      <c r="N103" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4348,22 +4739,25 @@
         <v>71</v>
       </c>
       <c r="G104" t="n">
+        <v>165.6866666666667</v>
+      </c>
+      <c r="H104" t="n">
         <v>166.3516666666666</v>
       </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
       <c r="I104" t="n">
         <v>0</v>
       </c>
-      <c r="J104" t="inlineStr"/>
+      <c r="J104" t="n">
+        <v>0</v>
+      </c>
       <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr">
+      <c r="L104" t="inlineStr"/>
+      <c r="M104" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M104" t="n">
+      <c r="N104" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4387,22 +4781,25 @@
         <v>2478.693</v>
       </c>
       <c r="G105" t="n">
+        <v>165.82</v>
+      </c>
+      <c r="H105" t="n">
         <v>166.3199999999999</v>
       </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
       <c r="I105" t="n">
         <v>0</v>
       </c>
-      <c r="J105" t="inlineStr"/>
+      <c r="J105" t="n">
+        <v>0</v>
+      </c>
       <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr">
+      <c r="L105" t="inlineStr"/>
+      <c r="M105" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M105" t="n">
+      <c r="N105" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4426,22 +4823,25 @@
         <v>5912.773</v>
       </c>
       <c r="G106" t="n">
+        <v>165.9533333333333</v>
+      </c>
+      <c r="H106" t="n">
         <v>166.2949999999999</v>
       </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
       <c r="I106" t="n">
         <v>0</v>
       </c>
-      <c r="J106" t="inlineStr"/>
+      <c r="J106" t="n">
+        <v>0</v>
+      </c>
       <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr">
+      <c r="L106" t="inlineStr"/>
+      <c r="M106" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M106" t="n">
+      <c r="N106" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4465,22 +4865,25 @@
         <v>1922.576</v>
       </c>
       <c r="G107" t="n">
+        <v>165.96</v>
+      </c>
+      <c r="H107" t="n">
         <v>166.3099999999999</v>
       </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
       <c r="I107" t="n">
         <v>0</v>
       </c>
-      <c r="J107" t="inlineStr"/>
+      <c r="J107" t="n">
+        <v>0</v>
+      </c>
       <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr">
+      <c r="L107" t="inlineStr"/>
+      <c r="M107" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M107" t="n">
+      <c r="N107" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4504,22 +4907,25 @@
         <v>527.3405</v>
       </c>
       <c r="G108" t="n">
+        <v>165.9666666666667</v>
+      </c>
+      <c r="H108" t="n">
         <v>166.3249999999999</v>
       </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
       <c r="I108" t="n">
         <v>0</v>
       </c>
-      <c r="J108" t="inlineStr"/>
+      <c r="J108" t="n">
+        <v>0</v>
+      </c>
       <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr">
+      <c r="L108" t="inlineStr"/>
+      <c r="M108" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M108" t="n">
+      <c r="N108" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4543,22 +4949,25 @@
         <v>200.0134</v>
       </c>
       <c r="G109" t="n">
+        <v>166.1533333333333</v>
+      </c>
+      <c r="H109" t="n">
         <v>166.3866666666666</v>
       </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
       <c r="I109" t="n">
         <v>0</v>
       </c>
-      <c r="J109" t="inlineStr"/>
+      <c r="J109" t="n">
+        <v>0</v>
+      </c>
       <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr">
+      <c r="L109" t="inlineStr"/>
+      <c r="M109" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M109" t="n">
+      <c r="N109" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4582,22 +4991,25 @@
         <v>10285</v>
       </c>
       <c r="G110" t="n">
+        <v>166.34</v>
+      </c>
+      <c r="H110" t="n">
         <v>166.4199999999999</v>
       </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
       <c r="I110" t="n">
         <v>0</v>
       </c>
-      <c r="J110" t="inlineStr"/>
+      <c r="J110" t="n">
+        <v>0</v>
+      </c>
       <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr">
+      <c r="L110" t="inlineStr"/>
+      <c r="M110" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M110" t="n">
+      <c r="N110" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4621,22 +5033,25 @@
         <v>3231.9404</v>
       </c>
       <c r="G111" t="n">
+        <v>166.5266666666667</v>
+      </c>
+      <c r="H111" t="n">
         <v>166.4499999999999</v>
       </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
       <c r="I111" t="n">
         <v>0</v>
       </c>
-      <c r="J111" t="inlineStr"/>
+      <c r="J111" t="n">
+        <v>0</v>
+      </c>
       <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr">
+      <c r="L111" t="inlineStr"/>
+      <c r="M111" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M111" t="n">
+      <c r="N111" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4660,22 +5075,25 @@
         <v>768.901</v>
       </c>
       <c r="G112" t="n">
+        <v>166.8733333333334</v>
+      </c>
+      <c r="H112" t="n">
         <v>166.5216666666666</v>
       </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
       <c r="I112" t="n">
         <v>0</v>
       </c>
-      <c r="J112" t="inlineStr"/>
+      <c r="J112" t="n">
+        <v>0</v>
+      </c>
       <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr">
+      <c r="L112" t="inlineStr"/>
+      <c r="M112" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M112" t="n">
+      <c r="N112" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4699,22 +5117,25 @@
         <v>3762.93</v>
       </c>
       <c r="G113" t="n">
+        <v>166.9333333333334</v>
+      </c>
+      <c r="H113" t="n">
         <v>166.5849999999999</v>
       </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
       <c r="I113" t="n">
         <v>0</v>
       </c>
-      <c r="J113" t="inlineStr"/>
+      <c r="J113" t="n">
+        <v>0</v>
+      </c>
       <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr">
+      <c r="L113" t="inlineStr"/>
+      <c r="M113" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M113" t="n">
+      <c r="N113" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4738,22 +5159,25 @@
         <v>3</v>
       </c>
       <c r="G114" t="n">
+        <v>167.1066666666667</v>
+      </c>
+      <c r="H114" t="n">
         <v>166.6616666666665</v>
       </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
       <c r="I114" t="n">
         <v>0</v>
       </c>
-      <c r="J114" t="inlineStr"/>
+      <c r="J114" t="n">
+        <v>0</v>
+      </c>
       <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr">
+      <c r="L114" t="inlineStr"/>
+      <c r="M114" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M114" t="n">
+      <c r="N114" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4777,22 +5201,25 @@
         <v>9997.9858</v>
       </c>
       <c r="G115" t="n">
+        <v>167.2266666666667</v>
+      </c>
+      <c r="H115" t="n">
         <v>166.6783333333332</v>
       </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
       <c r="I115" t="n">
         <v>0</v>
       </c>
-      <c r="J115" t="inlineStr"/>
+      <c r="J115" t="n">
+        <v>0</v>
+      </c>
       <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr">
+      <c r="L115" t="inlineStr"/>
+      <c r="M115" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M115" t="n">
+      <c r="N115" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4816,22 +5243,25 @@
         <v>711</v>
       </c>
       <c r="G116" t="n">
+        <v>167.3800000000001</v>
+      </c>
+      <c r="H116" t="n">
         <v>166.6866666666666</v>
       </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
       <c r="I116" t="n">
         <v>0</v>
       </c>
-      <c r="J116" t="inlineStr"/>
+      <c r="J116" t="n">
+        <v>0</v>
+      </c>
       <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr">
+      <c r="L116" t="inlineStr"/>
+      <c r="M116" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M116" t="n">
+      <c r="N116" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4855,22 +5285,25 @@
         <v>83241.58349999999</v>
       </c>
       <c r="G117" t="n">
+        <v>167.54</v>
+      </c>
+      <c r="H117" t="n">
         <v>166.6883333333332</v>
       </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
       <c r="I117" t="n">
         <v>0</v>
       </c>
-      <c r="J117" t="inlineStr"/>
+      <c r="J117" t="n">
+        <v>0</v>
+      </c>
       <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr">
+      <c r="L117" t="inlineStr"/>
+      <c r="M117" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M117" t="n">
+      <c r="N117" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4894,22 +5327,25 @@
         <v>8661.885399999999</v>
       </c>
       <c r="G118" t="n">
+        <v>167.98</v>
+      </c>
+      <c r="H118" t="n">
         <v>166.7583333333332</v>
       </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
       <c r="I118" t="n">
         <v>0</v>
       </c>
-      <c r="J118" t="inlineStr"/>
+      <c r="J118" t="n">
+        <v>0</v>
+      </c>
       <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr">
+      <c r="L118" t="inlineStr"/>
+      <c r="M118" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M118" t="n">
+      <c r="N118" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4933,22 +5369,25 @@
         <v>37623.4097</v>
       </c>
       <c r="G119" t="n">
+        <v>168.5133333333334</v>
+      </c>
+      <c r="H119" t="n">
         <v>166.8749999999999</v>
       </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
       <c r="I119" t="n">
         <v>0</v>
       </c>
-      <c r="J119" t="inlineStr"/>
+      <c r="J119" t="n">
+        <v>0</v>
+      </c>
       <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr">
+      <c r="L119" t="inlineStr"/>
+      <c r="M119" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M119" t="n">
+      <c r="N119" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4972,24 +5411,25 @@
         <v>22716.8091</v>
       </c>
       <c r="G120" t="n">
+        <v>168.8533333333334</v>
+      </c>
+      <c r="H120" t="n">
         <v>166.9766666666666</v>
       </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
       <c r="I120" t="n">
         <v>0</v>
       </c>
-      <c r="J120" t="inlineStr"/>
+      <c r="J120" t="n">
+        <v>1</v>
+      </c>
       <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M120" t="n">
-        <v>1</v>
-      </c>
+      <c r="L120" t="inlineStr"/>
+      <c r="M120" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="N120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -5011,22 +5451,21 @@
         <v>30368.3416</v>
       </c>
       <c r="G121" t="n">
+        <v>169.3733333333334</v>
+      </c>
+      <c r="H121" t="n">
         <v>167.1549999999999</v>
       </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
       <c r="I121" t="n">
         <v>0</v>
       </c>
-      <c r="J121" t="inlineStr"/>
+      <c r="J121" t="n">
+        <v>1</v>
+      </c>
       <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M121" t="n">
+      <c r="L121" t="inlineStr"/>
+      <c r="M121" t="inlineStr"/>
+      <c r="N121" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5050,22 +5489,21 @@
         <v>6403.4971</v>
       </c>
       <c r="G122" t="n">
+        <v>169.9066666666667</v>
+      </c>
+      <c r="H122" t="n">
         <v>167.3099999999999</v>
       </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
       <c r="I122" t="n">
         <v>0</v>
       </c>
-      <c r="J122" t="inlineStr"/>
+      <c r="J122" t="n">
+        <v>1</v>
+      </c>
       <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M122" t="n">
+      <c r="L122" t="inlineStr"/>
+      <c r="M122" t="inlineStr"/>
+      <c r="N122" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5089,22 +5527,21 @@
         <v>20486.9541</v>
       </c>
       <c r="G123" t="n">
+        <v>170.1066666666667</v>
+      </c>
+      <c r="H123" t="n">
         <v>167.4349999999999</v>
       </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
       <c r="I123" t="n">
         <v>0</v>
       </c>
-      <c r="J123" t="inlineStr"/>
+      <c r="J123" t="n">
+        <v>1</v>
+      </c>
       <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M123" t="n">
+      <c r="L123" t="inlineStr"/>
+      <c r="M123" t="inlineStr"/>
+      <c r="N123" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5128,22 +5565,21 @@
         <v>5925.2199</v>
       </c>
       <c r="G124" t="n">
+        <v>170</v>
+      </c>
+      <c r="H124" t="n">
         <v>167.4416666666666</v>
       </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
       <c r="I124" t="n">
         <v>0</v>
       </c>
-      <c r="J124" t="inlineStr"/>
+      <c r="J124" t="n">
+        <v>1</v>
+      </c>
       <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M124" t="n">
+      <c r="L124" t="inlineStr"/>
+      <c r="M124" t="inlineStr"/>
+      <c r="N124" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5167,22 +5603,21 @@
         <v>17005.8775</v>
       </c>
       <c r="G125" t="n">
+        <v>169.9466666666667</v>
+      </c>
+      <c r="H125" t="n">
         <v>167.4733333333332</v>
       </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
       <c r="I125" t="n">
         <v>0</v>
       </c>
-      <c r="J125" t="inlineStr"/>
+      <c r="J125" t="n">
+        <v>1</v>
+      </c>
       <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M125" t="n">
+      <c r="L125" t="inlineStr"/>
+      <c r="M125" t="inlineStr"/>
+      <c r="N125" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5206,22 +5641,21 @@
         <v>2781.8926</v>
       </c>
       <c r="G126" t="n">
+        <v>170.0266666666667</v>
+      </c>
+      <c r="H126" t="n">
         <v>167.5333333333332</v>
       </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
       <c r="I126" t="n">
         <v>0</v>
       </c>
-      <c r="J126" t="inlineStr"/>
+      <c r="J126" t="n">
+        <v>1</v>
+      </c>
       <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M126" t="n">
+      <c r="L126" t="inlineStr"/>
+      <c r="M126" t="inlineStr"/>
+      <c r="N126" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5245,22 +5679,21 @@
         <v>438</v>
       </c>
       <c r="G127" t="n">
+        <v>170.1133333333333</v>
+      </c>
+      <c r="H127" t="n">
         <v>167.6249999999999</v>
       </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
       <c r="I127" t="n">
         <v>0</v>
       </c>
-      <c r="J127" t="inlineStr"/>
+      <c r="J127" t="n">
+        <v>1</v>
+      </c>
       <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M127" t="n">
+      <c r="L127" t="inlineStr"/>
+      <c r="M127" t="inlineStr"/>
+      <c r="N127" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5284,22 +5717,21 @@
         <v>3892.2788</v>
       </c>
       <c r="G128" t="n">
+        <v>170.2533333333334</v>
+      </c>
+      <c r="H128" t="n">
         <v>167.6699999999999</v>
       </c>
-      <c r="H128" t="n">
-        <v>0</v>
-      </c>
       <c r="I128" t="n">
         <v>0</v>
       </c>
-      <c r="J128" t="inlineStr"/>
+      <c r="J128" t="n">
+        <v>1</v>
+      </c>
       <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M128" t="n">
+      <c r="L128" t="inlineStr"/>
+      <c r="M128" t="inlineStr"/>
+      <c r="N128" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5323,22 +5755,21 @@
         <v>4719.3936</v>
       </c>
       <c r="G129" t="n">
+        <v>170.02</v>
+      </c>
+      <c r="H129" t="n">
         <v>167.6349999999999</v>
       </c>
-      <c r="H129" t="n">
-        <v>0</v>
-      </c>
       <c r="I129" t="n">
         <v>0</v>
       </c>
-      <c r="J129" t="inlineStr"/>
+      <c r="J129" t="n">
+        <v>1</v>
+      </c>
       <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M129" t="n">
+      <c r="L129" t="inlineStr"/>
+      <c r="M129" t="inlineStr"/>
+      <c r="N129" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5362,22 +5793,21 @@
         <v>23360.0682</v>
       </c>
       <c r="G130" t="n">
+        <v>169.6666666666667</v>
+      </c>
+      <c r="H130" t="n">
         <v>167.5733333333332</v>
       </c>
-      <c r="H130" t="n">
-        <v>0</v>
-      </c>
       <c r="I130" t="n">
         <v>0</v>
       </c>
-      <c r="J130" t="inlineStr"/>
+      <c r="J130" t="n">
+        <v>1</v>
+      </c>
       <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M130" t="n">
+      <c r="L130" t="inlineStr"/>
+      <c r="M130" t="inlineStr"/>
+      <c r="N130" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5401,22 +5831,21 @@
         <v>2596.6448</v>
       </c>
       <c r="G131" t="n">
+        <v>169.4466666666667</v>
+      </c>
+      <c r="H131" t="n">
         <v>167.5649999999999</v>
       </c>
-      <c r="H131" t="n">
-        <v>0</v>
-      </c>
       <c r="I131" t="n">
         <v>0</v>
       </c>
-      <c r="J131" t="inlineStr"/>
+      <c r="J131" t="n">
+        <v>1</v>
+      </c>
       <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M131" t="n">
+      <c r="L131" t="inlineStr"/>
+      <c r="M131" t="inlineStr"/>
+      <c r="N131" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5440,22 +5869,21 @@
         <v>3740.4481</v>
       </c>
       <c r="G132" t="n">
+        <v>169.2466666666666</v>
+      </c>
+      <c r="H132" t="n">
         <v>167.5549999999999</v>
       </c>
-      <c r="H132" t="n">
-        <v>0</v>
-      </c>
       <c r="I132" t="n">
         <v>0</v>
       </c>
-      <c r="J132" t="inlineStr"/>
+      <c r="J132" t="n">
+        <v>1</v>
+      </c>
       <c r="K132" t="inlineStr"/>
-      <c r="L132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M132" t="n">
+      <c r="L132" t="inlineStr"/>
+      <c r="M132" t="inlineStr"/>
+      <c r="N132" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5479,22 +5907,21 @@
         <v>671.1651000000001</v>
       </c>
       <c r="G133" t="n">
+        <v>168.7733333333333</v>
+      </c>
+      <c r="H133" t="n">
         <v>167.4983333333332</v>
       </c>
-      <c r="H133" t="n">
-        <v>0</v>
-      </c>
       <c r="I133" t="n">
         <v>0</v>
       </c>
-      <c r="J133" t="inlineStr"/>
+      <c r="J133" t="n">
+        <v>1</v>
+      </c>
       <c r="K133" t="inlineStr"/>
-      <c r="L133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M133" t="n">
+      <c r="L133" t="inlineStr"/>
+      <c r="M133" t="inlineStr"/>
+      <c r="N133" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5518,22 +5945,21 @@
         <v>2164.6981</v>
       </c>
       <c r="G134" t="n">
+        <v>168.1733333333333</v>
+      </c>
+      <c r="H134" t="n">
         <v>167.4699999999999</v>
       </c>
-      <c r="H134" t="n">
-        <v>0</v>
-      </c>
       <c r="I134" t="n">
         <v>0</v>
       </c>
-      <c r="J134" t="inlineStr"/>
+      <c r="J134" t="n">
+        <v>0</v>
+      </c>
       <c r="K134" t="inlineStr"/>
-      <c r="L134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M134" t="n">
+      <c r="L134" t="inlineStr"/>
+      <c r="M134" t="inlineStr"/>
+      <c r="N134" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5557,22 +5983,21 @@
         <v>44.4691</v>
       </c>
       <c r="G135" t="n">
+        <v>167.8066666666667</v>
+      </c>
+      <c r="H135" t="n">
         <v>167.4799999999999</v>
       </c>
-      <c r="H135" t="n">
-        <v>0</v>
-      </c>
       <c r="I135" t="n">
         <v>0</v>
       </c>
-      <c r="J135" t="inlineStr"/>
+      <c r="J135" t="n">
+        <v>1</v>
+      </c>
       <c r="K135" t="inlineStr"/>
-      <c r="L135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M135" t="n">
+      <c r="L135" t="inlineStr"/>
+      <c r="M135" t="inlineStr"/>
+      <c r="N135" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5596,22 +6021,21 @@
         <v>125</v>
       </c>
       <c r="G136" t="n">
+        <v>167.0866666666666</v>
+      </c>
+      <c r="H136" t="n">
         <v>167.4066666666666</v>
       </c>
-      <c r="H136" t="n">
-        <v>0</v>
-      </c>
       <c r="I136" t="n">
         <v>0</v>
       </c>
-      <c r="J136" t="inlineStr"/>
+      <c r="J136" t="n">
+        <v>0</v>
+      </c>
       <c r="K136" t="inlineStr"/>
-      <c r="L136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M136" t="n">
+      <c r="L136" t="inlineStr"/>
+      <c r="M136" t="inlineStr"/>
+      <c r="N136" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5635,22 +6059,21 @@
         <v>109.21</v>
       </c>
       <c r="G137" t="n">
+        <v>166.3533333333333</v>
+      </c>
+      <c r="H137" t="n">
         <v>167.3299999999999</v>
       </c>
-      <c r="H137" t="n">
-        <v>0</v>
-      </c>
       <c r="I137" t="n">
         <v>0</v>
       </c>
-      <c r="J137" t="inlineStr"/>
+      <c r="J137" t="n">
+        <v>0</v>
+      </c>
       <c r="K137" t="inlineStr"/>
-      <c r="L137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M137" t="n">
+      <c r="L137" t="inlineStr"/>
+      <c r="M137" t="inlineStr"/>
+      <c r="N137" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5674,22 +6097,21 @@
         <v>6876.3456</v>
       </c>
       <c r="G138" t="n">
+        <v>165.8533333333333</v>
+      </c>
+      <c r="H138" t="n">
         <v>167.2133333333332</v>
       </c>
-      <c r="H138" t="n">
-        <v>0</v>
-      </c>
       <c r="I138" t="n">
         <v>0</v>
       </c>
-      <c r="J138" t="inlineStr"/>
+      <c r="J138" t="n">
+        <v>0</v>
+      </c>
       <c r="K138" t="inlineStr"/>
-      <c r="L138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M138" t="n">
+      <c r="L138" t="inlineStr"/>
+      <c r="M138" t="inlineStr"/>
+      <c r="N138" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5713,22 +6135,21 @@
         <v>1004.8629</v>
       </c>
       <c r="G139" t="n">
+        <v>165.6</v>
+      </c>
+      <c r="H139" t="n">
         <v>167.0949999999999</v>
       </c>
-      <c r="H139" t="n">
-        <v>0</v>
-      </c>
       <c r="I139" t="n">
         <v>0</v>
       </c>
-      <c r="J139" t="inlineStr"/>
+      <c r="J139" t="n">
+        <v>0</v>
+      </c>
       <c r="K139" t="inlineStr"/>
-      <c r="L139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M139" t="n">
+      <c r="L139" t="inlineStr"/>
+      <c r="M139" t="inlineStr"/>
+      <c r="N139" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5752,22 +6173,21 @@
         <v>75.053</v>
       </c>
       <c r="G140" t="n">
+        <v>165.3933333333333</v>
+      </c>
+      <c r="H140" t="n">
         <v>167.0016666666665</v>
       </c>
-      <c r="H140" t="n">
-        <v>0</v>
-      </c>
       <c r="I140" t="n">
         <v>0</v>
       </c>
-      <c r="J140" t="inlineStr"/>
+      <c r="J140" t="n">
+        <v>0</v>
+      </c>
       <c r="K140" t="inlineStr"/>
-      <c r="L140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M140" t="n">
+      <c r="L140" t="inlineStr"/>
+      <c r="M140" t="inlineStr"/>
+      <c r="N140" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5791,22 +6211,21 @@
         <v>4</v>
       </c>
       <c r="G141" t="n">
+        <v>165.06</v>
+      </c>
+      <c r="H141" t="n">
         <v>166.9099999999999</v>
       </c>
-      <c r="H141" t="n">
-        <v>0</v>
-      </c>
       <c r="I141" t="n">
         <v>0</v>
       </c>
-      <c r="J141" t="inlineStr"/>
+      <c r="J141" t="n">
+        <v>0</v>
+      </c>
       <c r="K141" t="inlineStr"/>
-      <c r="L141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M141" t="n">
+      <c r="L141" t="inlineStr"/>
+      <c r="M141" t="inlineStr"/>
+      <c r="N141" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5830,22 +6249,21 @@
         <v>9642.334500000001</v>
       </c>
       <c r="G142" t="n">
+        <v>164.46</v>
+      </c>
+      <c r="H142" t="n">
         <v>166.7916666666665</v>
       </c>
-      <c r="H142" t="n">
-        <v>0</v>
-      </c>
       <c r="I142" t="n">
         <v>0</v>
       </c>
-      <c r="J142" t="inlineStr"/>
+      <c r="J142" t="n">
+        <v>0</v>
+      </c>
       <c r="K142" t="inlineStr"/>
-      <c r="L142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M142" t="n">
+      <c r="L142" t="inlineStr"/>
+      <c r="M142" t="inlineStr"/>
+      <c r="N142" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5869,22 +6287,21 @@
         <v>538.0442</v>
       </c>
       <c r="G143" t="n">
+        <v>164.0666666666667</v>
+      </c>
+      <c r="H143" t="n">
         <v>166.7366666666665</v>
       </c>
-      <c r="H143" t="n">
-        <v>0</v>
-      </c>
       <c r="I143" t="n">
         <v>0</v>
       </c>
-      <c r="J143" t="inlineStr"/>
+      <c r="J143" t="n">
+        <v>0</v>
+      </c>
       <c r="K143" t="inlineStr"/>
-      <c r="L143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M143" t="n">
+      <c r="L143" t="inlineStr"/>
+      <c r="M143" t="inlineStr"/>
+      <c r="N143" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5908,22 +6325,21 @@
         <v>627.8883</v>
       </c>
       <c r="G144" t="n">
+        <v>163.98</v>
+      </c>
+      <c r="H144" t="n">
         <v>166.7116666666665</v>
       </c>
-      <c r="H144" t="n">
-        <v>0</v>
-      </c>
       <c r="I144" t="n">
         <v>0</v>
       </c>
-      <c r="J144" t="inlineStr"/>
+      <c r="J144" t="n">
+        <v>0</v>
+      </c>
       <c r="K144" t="inlineStr"/>
-      <c r="L144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M144" t="n">
+      <c r="L144" t="inlineStr"/>
+      <c r="M144" t="inlineStr"/>
+      <c r="N144" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5947,22 +6363,21 @@
         <v>16.9547</v>
       </c>
       <c r="G145" t="n">
+        <v>164</v>
+      </c>
+      <c r="H145" t="n">
         <v>166.6749999999998</v>
       </c>
-      <c r="H145" t="n">
-        <v>0</v>
-      </c>
       <c r="I145" t="n">
         <v>0</v>
       </c>
-      <c r="J145" t="inlineStr"/>
+      <c r="J145" t="n">
+        <v>0</v>
+      </c>
       <c r="K145" t="inlineStr"/>
-      <c r="L145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M145" t="n">
+      <c r="L145" t="inlineStr"/>
+      <c r="M145" t="inlineStr"/>
+      <c r="N145" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5986,22 +6401,21 @@
         <v>5.1142</v>
       </c>
       <c r="G146" t="n">
+        <v>163.92</v>
+      </c>
+      <c r="H146" t="n">
         <v>166.6216666666665</v>
       </c>
-      <c r="H146" t="n">
-        <v>0</v>
-      </c>
       <c r="I146" t="n">
         <v>0</v>
       </c>
-      <c r="J146" t="inlineStr"/>
+      <c r="J146" t="n">
+        <v>0</v>
+      </c>
       <c r="K146" t="inlineStr"/>
-      <c r="L146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M146" t="n">
+      <c r="L146" t="inlineStr"/>
+      <c r="M146" t="inlineStr"/>
+      <c r="N146" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6025,22 +6439,21 @@
         <v>1556.4344</v>
       </c>
       <c r="G147" t="n">
+        <v>163.66</v>
+      </c>
+      <c r="H147" t="n">
         <v>166.5566666666665</v>
       </c>
-      <c r="H147" t="n">
-        <v>0</v>
-      </c>
       <c r="I147" t="n">
         <v>0</v>
       </c>
-      <c r="J147" t="inlineStr"/>
+      <c r="J147" t="n">
+        <v>0</v>
+      </c>
       <c r="K147" t="inlineStr"/>
-      <c r="L147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M147" t="n">
+      <c r="L147" t="inlineStr"/>
+      <c r="M147" t="inlineStr"/>
+      <c r="N147" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6064,22 +6477,21 @@
         <v>5.1423</v>
       </c>
       <c r="G148" t="n">
+        <v>163.52</v>
+      </c>
+      <c r="H148" t="n">
         <v>166.5049999999998</v>
       </c>
-      <c r="H148" t="n">
-        <v>0</v>
-      </c>
       <c r="I148" t="n">
         <v>0</v>
       </c>
-      <c r="J148" t="inlineStr"/>
+      <c r="J148" t="n">
+        <v>0</v>
+      </c>
       <c r="K148" t="inlineStr"/>
-      <c r="L148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M148" t="n">
+      <c r="L148" t="inlineStr"/>
+      <c r="M148" t="inlineStr"/>
+      <c r="N148" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6103,22 +6515,21 @@
         <v>17400.5444</v>
       </c>
       <c r="G149" t="n">
+        <v>163.12</v>
+      </c>
+      <c r="H149" t="n">
         <v>166.3733333333332</v>
       </c>
-      <c r="H149" t="n">
-        <v>0</v>
-      </c>
       <c r="I149" t="n">
         <v>0</v>
       </c>
-      <c r="J149" t="inlineStr"/>
+      <c r="J149" t="n">
+        <v>0</v>
+      </c>
       <c r="K149" t="inlineStr"/>
-      <c r="L149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M149" t="n">
+      <c r="L149" t="inlineStr"/>
+      <c r="M149" t="inlineStr"/>
+      <c r="N149" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6142,22 +6553,21 @@
         <v>744.675</v>
       </c>
       <c r="G150" t="n">
+        <v>163.12</v>
+      </c>
+      <c r="H150" t="n">
         <v>166.3999999999998</v>
       </c>
-      <c r="H150" t="n">
-        <v>0</v>
-      </c>
       <c r="I150" t="n">
         <v>0</v>
       </c>
-      <c r="J150" t="inlineStr"/>
+      <c r="J150" t="n">
+        <v>0</v>
+      </c>
       <c r="K150" t="inlineStr"/>
-      <c r="L150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M150" t="n">
+      <c r="L150" t="inlineStr"/>
+      <c r="M150" t="inlineStr"/>
+      <c r="N150" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6181,22 +6591,21 @@
         <v>463.9934</v>
       </c>
       <c r="G151" t="n">
+        <v>163.0933333333334</v>
+      </c>
+      <c r="H151" t="n">
         <v>166.3766666666665</v>
       </c>
-      <c r="H151" t="n">
-        <v>0</v>
-      </c>
       <c r="I151" t="n">
         <v>0</v>
       </c>
-      <c r="J151" t="inlineStr"/>
+      <c r="J151" t="n">
+        <v>0</v>
+      </c>
       <c r="K151" t="inlineStr"/>
-      <c r="L151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M151" t="n">
+      <c r="L151" t="inlineStr"/>
+      <c r="M151" t="inlineStr"/>
+      <c r="N151" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6220,22 +6629,21 @@
         <v>871.9023999999999</v>
       </c>
       <c r="G152" t="n">
+        <v>162.98</v>
+      </c>
+      <c r="H152" t="n">
         <v>166.2999999999998</v>
       </c>
-      <c r="H152" t="n">
-        <v>0</v>
-      </c>
       <c r="I152" t="n">
         <v>0</v>
       </c>
-      <c r="J152" t="inlineStr"/>
+      <c r="J152" t="n">
+        <v>0</v>
+      </c>
       <c r="K152" t="inlineStr"/>
-      <c r="L152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M152" t="n">
+      <c r="L152" t="inlineStr"/>
+      <c r="M152" t="inlineStr"/>
+      <c r="N152" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6259,22 +6667,21 @@
         <v>208.7834</v>
       </c>
       <c r="G153" t="n">
+        <v>162.9666666666667</v>
+      </c>
+      <c r="H153" t="n">
         <v>166.2233333333332</v>
       </c>
-      <c r="H153" t="n">
-        <v>0</v>
-      </c>
       <c r="I153" t="n">
         <v>0</v>
       </c>
-      <c r="J153" t="inlineStr"/>
+      <c r="J153" t="n">
+        <v>0</v>
+      </c>
       <c r="K153" t="inlineStr"/>
-      <c r="L153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M153" t="n">
+      <c r="L153" t="inlineStr"/>
+      <c r="M153" t="inlineStr"/>
+      <c r="N153" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6298,22 +6705,21 @@
         <v>1401.3438</v>
       </c>
       <c r="G154" t="n">
+        <v>162.7533333333334</v>
+      </c>
+      <c r="H154" t="n">
         <v>166.1266666666665</v>
       </c>
-      <c r="H154" t="n">
-        <v>0</v>
-      </c>
       <c r="I154" t="n">
         <v>0</v>
       </c>
-      <c r="J154" t="inlineStr"/>
+      <c r="J154" t="n">
+        <v>0</v>
+      </c>
       <c r="K154" t="inlineStr"/>
-      <c r="L154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M154" t="n">
+      <c r="L154" t="inlineStr"/>
+      <c r="M154" t="inlineStr"/>
+      <c r="N154" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6337,22 +6743,21 @@
         <v>6.8027</v>
       </c>
       <c r="G155" t="n">
+        <v>162.4266666666667</v>
+      </c>
+      <c r="H155" t="n">
         <v>166.0266666666665</v>
       </c>
-      <c r="H155" t="n">
-        <v>0</v>
-      </c>
       <c r="I155" t="n">
         <v>0</v>
       </c>
-      <c r="J155" t="inlineStr"/>
+      <c r="J155" t="n">
+        <v>0</v>
+      </c>
       <c r="K155" t="inlineStr"/>
-      <c r="L155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M155" t="n">
+      <c r="L155" t="inlineStr"/>
+      <c r="M155" t="inlineStr"/>
+      <c r="N155" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6376,22 +6781,21 @@
         <v>12.86157666</v>
       </c>
       <c r="G156" t="n">
+        <v>162.2333333333334</v>
+      </c>
+      <c r="H156" t="n">
         <v>165.9616666666665</v>
       </c>
-      <c r="H156" t="n">
-        <v>0</v>
-      </c>
       <c r="I156" t="n">
         <v>0</v>
       </c>
-      <c r="J156" t="inlineStr"/>
+      <c r="J156" t="n">
+        <v>0</v>
+      </c>
       <c r="K156" t="inlineStr"/>
-      <c r="L156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M156" t="n">
+      <c r="L156" t="inlineStr"/>
+      <c r="M156" t="inlineStr"/>
+      <c r="N156" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6415,22 +6819,21 @@
         <v>231</v>
       </c>
       <c r="G157" t="n">
+        <v>162.16</v>
+      </c>
+      <c r="H157" t="n">
         <v>165.9016666666665</v>
       </c>
-      <c r="H157" t="n">
-        <v>0</v>
-      </c>
       <c r="I157" t="n">
         <v>0</v>
       </c>
-      <c r="J157" t="inlineStr"/>
+      <c r="J157" t="n">
+        <v>0</v>
+      </c>
       <c r="K157" t="inlineStr"/>
-      <c r="L157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M157" t="n">
+      <c r="L157" t="inlineStr"/>
+      <c r="M157" t="inlineStr"/>
+      <c r="N157" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6454,22 +6857,21 @@
         <v>231.469</v>
       </c>
       <c r="G158" t="n">
+        <v>161.8933333333334</v>
+      </c>
+      <c r="H158" t="n">
         <v>165.7866666666665</v>
       </c>
-      <c r="H158" t="n">
-        <v>0</v>
-      </c>
       <c r="I158" t="n">
         <v>0</v>
       </c>
-      <c r="J158" t="inlineStr"/>
+      <c r="J158" t="n">
+        <v>0</v>
+      </c>
       <c r="K158" t="inlineStr"/>
-      <c r="L158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M158" t="n">
+      <c r="L158" t="inlineStr"/>
+      <c r="M158" t="inlineStr"/>
+      <c r="N158" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6493,22 +6895,21 @@
         <v>5.5312</v>
       </c>
       <c r="G159" t="n">
+        <v>161.7066666666667</v>
+      </c>
+      <c r="H159" t="n">
         <v>165.7033333333332</v>
       </c>
-      <c r="H159" t="n">
-        <v>0</v>
-      </c>
       <c r="I159" t="n">
         <v>0</v>
       </c>
-      <c r="J159" t="inlineStr"/>
+      <c r="J159" t="n">
+        <v>0</v>
+      </c>
       <c r="K159" t="inlineStr"/>
-      <c r="L159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M159" t="n">
+      <c r="L159" t="inlineStr"/>
+      <c r="M159" t="inlineStr"/>
+      <c r="N159" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6532,22 +6933,21 @@
         <v>345.1347</v>
       </c>
       <c r="G160" t="n">
+        <v>161.4533333333333</v>
+      </c>
+      <c r="H160" t="n">
         <v>165.5866666666665</v>
       </c>
-      <c r="H160" t="n">
-        <v>0</v>
-      </c>
       <c r="I160" t="n">
         <v>0</v>
       </c>
-      <c r="J160" t="inlineStr"/>
+      <c r="J160" t="n">
+        <v>0</v>
+      </c>
       <c r="K160" t="inlineStr"/>
-      <c r="L160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M160" t="n">
+      <c r="L160" t="inlineStr"/>
+      <c r="M160" t="inlineStr"/>
+      <c r="N160" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6571,22 +6971,21 @@
         <v>248.1735</v>
       </c>
       <c r="G161" t="n">
+        <v>161.1933333333333</v>
+      </c>
+      <c r="H161" t="n">
         <v>165.4849999999998</v>
       </c>
-      <c r="H161" t="n">
-        <v>0</v>
-      </c>
       <c r="I161" t="n">
         <v>0</v>
       </c>
-      <c r="J161" t="inlineStr"/>
+      <c r="J161" t="n">
+        <v>0</v>
+      </c>
       <c r="K161" t="inlineStr"/>
-      <c r="L161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M161" t="n">
+      <c r="L161" t="inlineStr"/>
+      <c r="M161" t="inlineStr"/>
+      <c r="N161" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6610,22 +7009,21 @@
         <v>2978.893</v>
       </c>
       <c r="G162" t="n">
+        <v>161.1133333333333</v>
+      </c>
+      <c r="H162" t="n">
         <v>165.3899999999998</v>
       </c>
-      <c r="H162" t="n">
-        <v>0</v>
-      </c>
       <c r="I162" t="n">
         <v>0</v>
       </c>
-      <c r="J162" t="inlineStr"/>
+      <c r="J162" t="n">
+        <v>0</v>
+      </c>
       <c r="K162" t="inlineStr"/>
-      <c r="L162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M162" t="n">
+      <c r="L162" t="inlineStr"/>
+      <c r="M162" t="inlineStr"/>
+      <c r="N162" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6649,22 +7047,21 @@
         <v>20.5185</v>
       </c>
       <c r="G163" t="n">
+        <v>160.9133333333334</v>
+      </c>
+      <c r="H163" t="n">
         <v>165.2966666666665</v>
       </c>
-      <c r="H163" t="n">
-        <v>0</v>
-      </c>
       <c r="I163" t="n">
         <v>0</v>
       </c>
-      <c r="J163" t="inlineStr"/>
+      <c r="J163" t="n">
+        <v>0</v>
+      </c>
       <c r="K163" t="inlineStr"/>
-      <c r="L163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M163" t="n">
+      <c r="L163" t="inlineStr"/>
+      <c r="M163" t="inlineStr"/>
+      <c r="N163" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6688,22 +7085,21 @@
         <v>299.1303</v>
       </c>
       <c r="G164" t="n">
+        <v>160.9666666666667</v>
+      </c>
+      <c r="H164" t="n">
         <v>165.1933333333332</v>
       </c>
-      <c r="H164" t="n">
-        <v>0</v>
-      </c>
       <c r="I164" t="n">
         <v>0</v>
       </c>
-      <c r="J164" t="inlineStr"/>
+      <c r="J164" t="n">
+        <v>0</v>
+      </c>
       <c r="K164" t="inlineStr"/>
-      <c r="L164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M164" t="n">
+      <c r="L164" t="inlineStr"/>
+      <c r="M164" t="inlineStr"/>
+      <c r="N164" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6727,22 +7123,21 @@
         <v>2635.8502</v>
       </c>
       <c r="G165" t="n">
+        <v>160.4533333333334</v>
+      </c>
+      <c r="H165" t="n">
         <v>165.0583333333331</v>
       </c>
-      <c r="H165" t="n">
-        <v>0</v>
-      </c>
       <c r="I165" t="n">
         <v>0</v>
       </c>
-      <c r="J165" t="inlineStr"/>
+      <c r="J165" t="n">
+        <v>0</v>
+      </c>
       <c r="K165" t="inlineStr"/>
-      <c r="L165" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M165" t="n">
+      <c r="L165" t="inlineStr"/>
+      <c r="M165" t="inlineStr"/>
+      <c r="N165" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6766,22 +7161,21 @@
         <v>14524.955</v>
       </c>
       <c r="G166" t="n">
+        <v>160.14</v>
+      </c>
+      <c r="H166" t="n">
         <v>164.9233333333331</v>
       </c>
-      <c r="H166" t="n">
-        <v>0</v>
-      </c>
       <c r="I166" t="n">
         <v>0</v>
       </c>
-      <c r="J166" t="inlineStr"/>
+      <c r="J166" t="n">
+        <v>0</v>
+      </c>
       <c r="K166" t="inlineStr"/>
-      <c r="L166" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M166" t="n">
+      <c r="L166" t="inlineStr"/>
+      <c r="M166" t="inlineStr"/>
+      <c r="N166" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6805,22 +7199,21 @@
         <v>205</v>
       </c>
       <c r="G167" t="n">
+        <v>159.9466666666667</v>
+      </c>
+      <c r="H167" t="n">
         <v>164.7966666666665</v>
       </c>
-      <c r="H167" t="n">
-        <v>0</v>
-      </c>
       <c r="I167" t="n">
         <v>0</v>
       </c>
-      <c r="J167" t="inlineStr"/>
+      <c r="J167" t="n">
+        <v>0</v>
+      </c>
       <c r="K167" t="inlineStr"/>
-      <c r="L167" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M167" t="n">
+      <c r="L167" t="inlineStr"/>
+      <c r="M167" t="inlineStr"/>
+      <c r="N167" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6844,22 +7237,21 @@
         <v>13.2112</v>
       </c>
       <c r="G168" t="n">
+        <v>159.7666666666667</v>
+      </c>
+      <c r="H168" t="n">
         <v>164.6733333333331</v>
       </c>
-      <c r="H168" t="n">
-        <v>0</v>
-      </c>
       <c r="I168" t="n">
         <v>0</v>
       </c>
-      <c r="J168" t="inlineStr"/>
+      <c r="J168" t="n">
+        <v>0</v>
+      </c>
       <c r="K168" t="inlineStr"/>
-      <c r="L168" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M168" t="n">
+      <c r="L168" t="inlineStr"/>
+      <c r="M168" t="inlineStr"/>
+      <c r="N168" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6883,22 +7275,21 @@
         <v>2107.2327</v>
       </c>
       <c r="G169" t="n">
+        <v>159.7933333333334</v>
+      </c>
+      <c r="H169" t="n">
         <v>164.5366666666665</v>
       </c>
-      <c r="H169" t="n">
-        <v>0</v>
-      </c>
       <c r="I169" t="n">
         <v>0</v>
       </c>
-      <c r="J169" t="inlineStr"/>
+      <c r="J169" t="n">
+        <v>0</v>
+      </c>
       <c r="K169" t="inlineStr"/>
-      <c r="L169" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M169" t="n">
+      <c r="L169" t="inlineStr"/>
+      <c r="M169" t="inlineStr"/>
+      <c r="N169" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6922,22 +7313,21 @@
         <v>212.7047</v>
       </c>
       <c r="G170" t="n">
+        <v>159.8333333333334</v>
+      </c>
+      <c r="H170" t="n">
         <v>164.3999999999998</v>
       </c>
-      <c r="H170" t="n">
-        <v>0</v>
-      </c>
       <c r="I170" t="n">
         <v>0</v>
       </c>
-      <c r="J170" t="inlineStr"/>
+      <c r="J170" t="n">
+        <v>0</v>
+      </c>
       <c r="K170" t="inlineStr"/>
-      <c r="L170" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M170" t="n">
+      <c r="L170" t="inlineStr"/>
+      <c r="M170" t="inlineStr"/>
+      <c r="N170" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6961,22 +7351,21 @@
         <v>9.607699999999999</v>
       </c>
       <c r="G171" t="n">
+        <v>159.8333333333334</v>
+      </c>
+      <c r="H171" t="n">
         <v>164.2883333333332</v>
       </c>
-      <c r="H171" t="n">
-        <v>0</v>
-      </c>
       <c r="I171" t="n">
         <v>0</v>
       </c>
-      <c r="J171" t="inlineStr"/>
+      <c r="J171" t="n">
+        <v>0</v>
+      </c>
       <c r="K171" t="inlineStr"/>
-      <c r="L171" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M171" t="n">
+      <c r="L171" t="inlineStr"/>
+      <c r="M171" t="inlineStr"/>
+      <c r="N171" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7000,22 +7389,21 @@
         <v>432.9063</v>
       </c>
       <c r="G172" t="n">
+        <v>159.92</v>
+      </c>
+      <c r="H172" t="n">
         <v>164.1633333333332</v>
       </c>
-      <c r="H172" t="n">
-        <v>0</v>
-      </c>
       <c r="I172" t="n">
         <v>0</v>
       </c>
-      <c r="J172" t="inlineStr"/>
+      <c r="J172" t="n">
+        <v>0</v>
+      </c>
       <c r="K172" t="inlineStr"/>
-      <c r="L172" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M172" t="n">
+      <c r="L172" t="inlineStr"/>
+      <c r="M172" t="inlineStr"/>
+      <c r="N172" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7039,22 +7427,21 @@
         <v>27.9111</v>
       </c>
       <c r="G173" t="n">
+        <v>160.0066666666667</v>
+      </c>
+      <c r="H173" t="n">
         <v>164.0549999999999</v>
       </c>
-      <c r="H173" t="n">
-        <v>0</v>
-      </c>
       <c r="I173" t="n">
         <v>0</v>
       </c>
-      <c r="J173" t="inlineStr"/>
+      <c r="J173" t="n">
+        <v>0</v>
+      </c>
       <c r="K173" t="inlineStr"/>
-      <c r="L173" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M173" t="n">
+      <c r="L173" t="inlineStr"/>
+      <c r="M173" t="inlineStr"/>
+      <c r="N173" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7078,22 +7465,21 @@
         <v>37</v>
       </c>
       <c r="G174" t="n">
+        <v>160.0266666666667</v>
+      </c>
+      <c r="H174" t="n">
         <v>163.9333333333332</v>
       </c>
-      <c r="H174" t="n">
-        <v>0</v>
-      </c>
       <c r="I174" t="n">
         <v>0</v>
       </c>
-      <c r="J174" t="inlineStr"/>
+      <c r="J174" t="n">
+        <v>0</v>
+      </c>
       <c r="K174" t="inlineStr"/>
-      <c r="L174" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M174" t="n">
+      <c r="L174" t="inlineStr"/>
+      <c r="M174" t="inlineStr"/>
+      <c r="N174" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7117,22 +7503,21 @@
         <v>1678.5502</v>
       </c>
       <c r="G175" t="n">
+        <v>160.2866666666667</v>
+      </c>
+      <c r="H175" t="n">
         <v>163.8516666666665</v>
       </c>
-      <c r="H175" t="n">
-        <v>0</v>
-      </c>
       <c r="I175" t="n">
         <v>0</v>
       </c>
-      <c r="J175" t="inlineStr"/>
+      <c r="J175" t="n">
+        <v>0</v>
+      </c>
       <c r="K175" t="inlineStr"/>
-      <c r="L175" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M175" t="n">
+      <c r="L175" t="inlineStr"/>
+      <c r="M175" t="inlineStr"/>
+      <c r="N175" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7156,22 +7541,21 @@
         <v>10680</v>
       </c>
       <c r="G176" t="n">
+        <v>160.5533333333334</v>
+      </c>
+      <c r="H176" t="n">
         <v>163.7783333333332</v>
       </c>
-      <c r="H176" t="n">
-        <v>0</v>
-      </c>
       <c r="I176" t="n">
         <v>0</v>
       </c>
-      <c r="J176" t="inlineStr"/>
+      <c r="J176" t="n">
+        <v>0</v>
+      </c>
       <c r="K176" t="inlineStr"/>
-      <c r="L176" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M176" t="n">
+      <c r="L176" t="inlineStr"/>
+      <c r="M176" t="inlineStr"/>
+      <c r="N176" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7195,22 +7579,21 @@
         <v>20</v>
       </c>
       <c r="G177" t="n">
+        <v>160.8466666666667</v>
+      </c>
+      <c r="H177" t="n">
         <v>163.7166666666665</v>
       </c>
-      <c r="H177" t="n">
-        <v>0</v>
-      </c>
       <c r="I177" t="n">
         <v>0</v>
       </c>
-      <c r="J177" t="inlineStr"/>
+      <c r="J177" t="n">
+        <v>0</v>
+      </c>
       <c r="K177" t="inlineStr"/>
-      <c r="L177" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M177" t="n">
+      <c r="L177" t="inlineStr"/>
+      <c r="M177" t="inlineStr"/>
+      <c r="N177" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7234,22 +7617,21 @@
         <v>72.24250000000001</v>
       </c>
       <c r="G178" t="n">
+        <v>161.1333333333334</v>
+      </c>
+      <c r="H178" t="n">
         <v>163.5849999999999</v>
       </c>
-      <c r="H178" t="n">
-        <v>0</v>
-      </c>
       <c r="I178" t="n">
         <v>0</v>
       </c>
-      <c r="J178" t="inlineStr"/>
+      <c r="J178" t="n">
+        <v>0</v>
+      </c>
       <c r="K178" t="inlineStr"/>
-      <c r="L178" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M178" t="n">
+      <c r="L178" t="inlineStr"/>
+      <c r="M178" t="inlineStr"/>
+      <c r="N178" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7273,22 +7655,21 @@
         <v>223.595</v>
       </c>
       <c r="G179" t="n">
+        <v>161.4266666666667</v>
+      </c>
+      <c r="H179" t="n">
         <v>163.4216666666665</v>
       </c>
-      <c r="H179" t="n">
-        <v>0</v>
-      </c>
       <c r="I179" t="n">
         <v>0</v>
       </c>
-      <c r="J179" t="inlineStr"/>
+      <c r="J179" t="n">
+        <v>0</v>
+      </c>
       <c r="K179" t="inlineStr"/>
-      <c r="L179" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M179" t="n">
+      <c r="L179" t="inlineStr"/>
+      <c r="M179" t="inlineStr"/>
+      <c r="N179" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7312,22 +7693,21 @@
         <v>118.1123</v>
       </c>
       <c r="G180" t="n">
+        <v>161.7866666666667</v>
+      </c>
+      <c r="H180" t="n">
         <v>163.2916666666665</v>
       </c>
-      <c r="H180" t="n">
-        <v>0</v>
-      </c>
       <c r="I180" t="n">
         <v>0</v>
       </c>
-      <c r="J180" t="inlineStr"/>
+      <c r="J180" t="n">
+        <v>0</v>
+      </c>
       <c r="K180" t="inlineStr"/>
-      <c r="L180" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M180" t="n">
+      <c r="L180" t="inlineStr"/>
+      <c r="M180" t="inlineStr"/>
+      <c r="N180" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7351,22 +7731,21 @@
         <v>14.9289</v>
       </c>
       <c r="G181" t="n">
+        <v>162.1466666666667</v>
+      </c>
+      <c r="H181" t="n">
         <v>163.1166666666665</v>
       </c>
-      <c r="H181" t="n">
-        <v>0</v>
-      </c>
       <c r="I181" t="n">
         <v>0</v>
       </c>
-      <c r="J181" t="inlineStr"/>
+      <c r="J181" t="n">
+        <v>0</v>
+      </c>
       <c r="K181" t="inlineStr"/>
-      <c r="L181" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M181" t="n">
+      <c r="L181" t="inlineStr"/>
+      <c r="M181" t="inlineStr"/>
+      <c r="N181" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7390,22 +7769,21 @@
         <v>412.9214</v>
       </c>
       <c r="G182" t="n">
+        <v>162.3866666666667</v>
+      </c>
+      <c r="H182" t="n">
         <v>162.9166666666665</v>
       </c>
-      <c r="H182" t="n">
-        <v>0</v>
-      </c>
       <c r="I182" t="n">
         <v>0</v>
       </c>
-      <c r="J182" t="inlineStr"/>
+      <c r="J182" t="n">
+        <v>0</v>
+      </c>
       <c r="K182" t="inlineStr"/>
-      <c r="L182" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M182" t="n">
+      <c r="L182" t="inlineStr"/>
+      <c r="M182" t="inlineStr"/>
+      <c r="N182" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7429,22 +7807,21 @@
         <v>1587.1184</v>
       </c>
       <c r="G183" t="n">
+        <v>162.78</v>
+      </c>
+      <c r="H183" t="n">
         <v>162.8416666666665</v>
       </c>
-      <c r="H183" t="n">
-        <v>0</v>
-      </c>
       <c r="I183" t="n">
         <v>0</v>
       </c>
-      <c r="J183" t="inlineStr"/>
+      <c r="J183" t="n">
+        <v>0</v>
+      </c>
       <c r="K183" t="inlineStr"/>
-      <c r="L183" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M183" t="n">
+      <c r="L183" t="inlineStr"/>
+      <c r="M183" t="inlineStr"/>
+      <c r="N183" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7468,22 +7845,21 @@
         <v>7493.7835</v>
       </c>
       <c r="G184" t="n">
+        <v>163.2666666666667</v>
+      </c>
+      <c r="H184" t="n">
         <v>162.8533333333332</v>
       </c>
-      <c r="H184" t="n">
-        <v>0</v>
-      </c>
       <c r="I184" t="n">
         <v>0</v>
       </c>
-      <c r="J184" t="inlineStr"/>
+      <c r="J184" t="n">
+        <v>0</v>
+      </c>
       <c r="K184" t="inlineStr"/>
-      <c r="L184" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M184" t="n">
+      <c r="L184" t="inlineStr"/>
+      <c r="M184" t="inlineStr"/>
+      <c r="N184" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7507,22 +7883,21 @@
         <v>6917.22</v>
       </c>
       <c r="G185" t="n">
+        <v>163.7533333333334</v>
+      </c>
+      <c r="H185" t="n">
         <v>162.8516666666665</v>
       </c>
-      <c r="H185" t="n">
-        <v>0</v>
-      </c>
       <c r="I185" t="n">
         <v>0</v>
       </c>
-      <c r="J185" t="inlineStr"/>
+      <c r="J185" t="n">
+        <v>0</v>
+      </c>
       <c r="K185" t="inlineStr"/>
-      <c r="L185" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M185" t="n">
+      <c r="L185" t="inlineStr"/>
+      <c r="M185" t="inlineStr"/>
+      <c r="N185" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7546,22 +7921,21 @@
         <v>471.9385</v>
       </c>
       <c r="G186" t="n">
+        <v>164.0733333333334</v>
+      </c>
+      <c r="H186" t="n">
         <v>162.7999999999998</v>
       </c>
-      <c r="H186" t="n">
-        <v>0</v>
-      </c>
       <c r="I186" t="n">
         <v>0</v>
       </c>
-      <c r="J186" t="inlineStr"/>
+      <c r="J186" t="n">
+        <v>0</v>
+      </c>
       <c r="K186" t="inlineStr"/>
-      <c r="L186" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M186" t="n">
+      <c r="L186" t="inlineStr"/>
+      <c r="M186" t="inlineStr"/>
+      <c r="N186" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7585,22 +7959,21 @@
         <v>437.3088</v>
       </c>
       <c r="G187" t="n">
+        <v>164.3800000000001</v>
+      </c>
+      <c r="H187" t="n">
         <v>162.7299999999998</v>
       </c>
-      <c r="H187" t="n">
-        <v>0</v>
-      </c>
       <c r="I187" t="n">
         <v>0</v>
       </c>
-      <c r="J187" t="inlineStr"/>
+      <c r="J187" t="n">
+        <v>0</v>
+      </c>
       <c r="K187" t="inlineStr"/>
-      <c r="L187" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M187" t="n">
+      <c r="L187" t="inlineStr"/>
+      <c r="M187" t="inlineStr"/>
+      <c r="N187" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7624,22 +7997,21 @@
         <v>653.0862</v>
       </c>
       <c r="G188" t="n">
+        <v>164.6866666666668</v>
+      </c>
+      <c r="H188" t="n">
         <v>162.6633333333331</v>
       </c>
-      <c r="H188" t="n">
-        <v>0</v>
-      </c>
       <c r="I188" t="n">
         <v>0</v>
       </c>
-      <c r="J188" t="inlineStr"/>
+      <c r="J188" t="n">
+        <v>0</v>
+      </c>
       <c r="K188" t="inlineStr"/>
-      <c r="L188" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M188" t="n">
+      <c r="L188" t="inlineStr"/>
+      <c r="M188" t="inlineStr"/>
+      <c r="N188" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7663,22 +8035,21 @@
         <v>40.8392</v>
       </c>
       <c r="G189" t="n">
+        <v>164.9866666666667</v>
+      </c>
+      <c r="H189" t="n">
         <v>162.6749999999998</v>
       </c>
-      <c r="H189" t="n">
-        <v>0</v>
-      </c>
       <c r="I189" t="n">
         <v>0</v>
       </c>
-      <c r="J189" t="inlineStr"/>
+      <c r="J189" t="n">
+        <v>0</v>
+      </c>
       <c r="K189" t="inlineStr"/>
-      <c r="L189" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M189" t="n">
+      <c r="L189" t="inlineStr"/>
+      <c r="M189" t="inlineStr"/>
+      <c r="N189" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7702,22 +8073,21 @@
         <v>37.5277</v>
       </c>
       <c r="G190" t="n">
+        <v>165.1066666666667</v>
+      </c>
+      <c r="H190" t="n">
         <v>162.7116666666665</v>
       </c>
-      <c r="H190" t="n">
-        <v>0</v>
-      </c>
       <c r="I190" t="n">
         <v>0</v>
       </c>
-      <c r="J190" t="inlineStr"/>
+      <c r="J190" t="n">
+        <v>0</v>
+      </c>
       <c r="K190" t="inlineStr"/>
-      <c r="L190" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M190" t="n">
+      <c r="L190" t="inlineStr"/>
+      <c r="M190" t="inlineStr"/>
+      <c r="N190" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7741,22 +8111,21 @@
         <v>438.3055</v>
       </c>
       <c r="G191" t="n">
+        <v>165.2333333333334</v>
+      </c>
+      <c r="H191" t="n">
         <v>162.7249999999998</v>
       </c>
-      <c r="H191" t="n">
-        <v>0</v>
-      </c>
       <c r="I191" t="n">
         <v>0</v>
       </c>
-      <c r="J191" t="inlineStr"/>
+      <c r="J191" t="n">
+        <v>0</v>
+      </c>
       <c r="K191" t="inlineStr"/>
-      <c r="L191" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M191" t="n">
+      <c r="L191" t="inlineStr"/>
+      <c r="M191" t="inlineStr"/>
+      <c r="N191" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7780,22 +8149,21 @@
         <v>112.0318</v>
       </c>
       <c r="G192" t="n">
+        <v>165.3333333333334</v>
+      </c>
+      <c r="H192" t="n">
         <v>162.7383333333331</v>
       </c>
-      <c r="H192" t="n">
-        <v>0</v>
-      </c>
       <c r="I192" t="n">
         <v>0</v>
       </c>
-      <c r="J192" t="inlineStr"/>
+      <c r="J192" t="n">
+        <v>0</v>
+      </c>
       <c r="K192" t="inlineStr"/>
-      <c r="L192" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M192" t="n">
+      <c r="L192" t="inlineStr"/>
+      <c r="M192" t="inlineStr"/>
+      <c r="N192" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7819,22 +8187,21 @@
         <v>383.178</v>
       </c>
       <c r="G193" t="n">
+        <v>165.4400000000001</v>
+      </c>
+      <c r="H193" t="n">
         <v>162.7516666666664</v>
       </c>
-      <c r="H193" t="n">
-        <v>0</v>
-      </c>
       <c r="I193" t="n">
         <v>0</v>
       </c>
-      <c r="J193" t="inlineStr"/>
+      <c r="J193" t="n">
+        <v>0</v>
+      </c>
       <c r="K193" t="inlineStr"/>
-      <c r="L193" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M193" t="n">
+      <c r="L193" t="inlineStr"/>
+      <c r="M193" t="inlineStr"/>
+      <c r="N193" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7858,22 +8225,21 @@
         <v>125.3742</v>
       </c>
       <c r="G194" t="n">
+        <v>165.5466666666668</v>
+      </c>
+      <c r="H194" t="n">
         <v>162.7649999999998</v>
       </c>
-      <c r="H194" t="n">
-        <v>0</v>
-      </c>
       <c r="I194" t="n">
         <v>0</v>
       </c>
-      <c r="J194" t="inlineStr"/>
+      <c r="J194" t="n">
+        <v>0</v>
+      </c>
       <c r="K194" t="inlineStr"/>
-      <c r="L194" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M194" t="n">
+      <c r="L194" t="inlineStr"/>
+      <c r="M194" t="inlineStr"/>
+      <c r="N194" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7897,22 +8263,21 @@
         <v>501.7349</v>
       </c>
       <c r="G195" t="n">
+        <v>165.5933333333334</v>
+      </c>
+      <c r="H195" t="n">
         <v>162.7383333333331</v>
       </c>
-      <c r="H195" t="n">
-        <v>0</v>
-      </c>
       <c r="I195" t="n">
         <v>0</v>
       </c>
-      <c r="J195" t="inlineStr"/>
+      <c r="J195" t="n">
+        <v>0</v>
+      </c>
       <c r="K195" t="inlineStr"/>
-      <c r="L195" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M195" t="n">
+      <c r="L195" t="inlineStr"/>
+      <c r="M195" t="inlineStr"/>
+      <c r="N195" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7936,22 +8301,21 @@
         <v>357.2951</v>
       </c>
       <c r="G196" t="n">
+        <v>165.6866666666668</v>
+      </c>
+      <c r="H196" t="n">
         <v>162.7666666666664</v>
       </c>
-      <c r="H196" t="n">
-        <v>0</v>
-      </c>
       <c r="I196" t="n">
         <v>0</v>
       </c>
-      <c r="J196" t="inlineStr"/>
+      <c r="J196" t="n">
+        <v>0</v>
+      </c>
       <c r="K196" t="inlineStr"/>
-      <c r="L196" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M196" t="n">
+      <c r="L196" t="inlineStr"/>
+      <c r="M196" t="inlineStr"/>
+      <c r="N196" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7975,22 +8339,21 @@
         <v>252.6144</v>
       </c>
       <c r="G197" t="n">
+        <v>165.8800000000001</v>
+      </c>
+      <c r="H197" t="n">
         <v>162.7983333333331</v>
       </c>
-      <c r="H197" t="n">
-        <v>0</v>
-      </c>
       <c r="I197" t="n">
         <v>0</v>
       </c>
-      <c r="J197" t="inlineStr"/>
+      <c r="J197" t="n">
+        <v>0</v>
+      </c>
       <c r="K197" t="inlineStr"/>
-      <c r="L197" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M197" t="n">
+      <c r="L197" t="inlineStr"/>
+      <c r="M197" t="inlineStr"/>
+      <c r="N197" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8014,22 +8377,21 @@
         <v>13.8791</v>
       </c>
       <c r="G198" t="n">
+        <v>165.9000000000001</v>
+      </c>
+      <c r="H198" t="n">
         <v>162.8533333333331</v>
       </c>
-      <c r="H198" t="n">
-        <v>0</v>
-      </c>
       <c r="I198" t="n">
         <v>0</v>
       </c>
-      <c r="J198" t="inlineStr"/>
+      <c r="J198" t="n">
+        <v>0</v>
+      </c>
       <c r="K198" t="inlineStr"/>
-      <c r="L198" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M198" t="n">
+      <c r="L198" t="inlineStr"/>
+      <c r="M198" t="inlineStr"/>
+      <c r="N198" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8053,22 +8415,21 @@
         <v>459.891</v>
       </c>
       <c r="G199" t="n">
+        <v>165.8200000000001</v>
+      </c>
+      <c r="H199" t="n">
         <v>162.9083333333331</v>
       </c>
-      <c r="H199" t="n">
-        <v>0</v>
-      </c>
       <c r="I199" t="n">
         <v>0</v>
       </c>
-      <c r="J199" t="inlineStr"/>
+      <c r="J199" t="n">
+        <v>0</v>
+      </c>
       <c r="K199" t="inlineStr"/>
-      <c r="L199" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M199" t="n">
+      <c r="L199" t="inlineStr"/>
+      <c r="M199" t="inlineStr"/>
+      <c r="N199" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8092,22 +8453,21 @@
         <v>24.9119</v>
       </c>
       <c r="G200" t="n">
+        <v>165.7400000000001</v>
+      </c>
+      <c r="H200" t="n">
         <v>162.9383333333331</v>
       </c>
-      <c r="H200" t="n">
-        <v>0</v>
-      </c>
       <c r="I200" t="n">
         <v>0</v>
       </c>
-      <c r="J200" t="inlineStr"/>
+      <c r="J200" t="n">
+        <v>0</v>
+      </c>
       <c r="K200" t="inlineStr"/>
-      <c r="L200" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M200" t="n">
+      <c r="L200" t="inlineStr"/>
+      <c r="M200" t="inlineStr"/>
+      <c r="N200" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8131,22 +8491,21 @@
         <v>325.0867</v>
       </c>
       <c r="G201" t="n">
+        <v>165.6933333333334</v>
+      </c>
+      <c r="H201" t="n">
         <v>162.9583333333331</v>
       </c>
-      <c r="H201" t="n">
-        <v>0</v>
-      </c>
       <c r="I201" t="n">
         <v>0</v>
       </c>
-      <c r="J201" t="inlineStr"/>
+      <c r="J201" t="n">
+        <v>0</v>
+      </c>
       <c r="K201" t="inlineStr"/>
-      <c r="L201" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M201" t="n">
+      <c r="L201" t="inlineStr"/>
+      <c r="M201" t="inlineStr"/>
+      <c r="N201" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8170,22 +8529,21 @@
         <v>94.3875</v>
       </c>
       <c r="G202" t="n">
+        <v>165.6733333333333</v>
+      </c>
+      <c r="H202" t="n">
         <v>163.0333333333331</v>
       </c>
-      <c r="H202" t="n">
-        <v>0</v>
-      </c>
       <c r="I202" t="n">
         <v>0</v>
       </c>
-      <c r="J202" t="inlineStr"/>
+      <c r="J202" t="n">
+        <v>0</v>
+      </c>
       <c r="K202" t="inlineStr"/>
-      <c r="L202" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M202" t="n">
+      <c r="L202" t="inlineStr"/>
+      <c r="M202" t="inlineStr"/>
+      <c r="N202" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8209,22 +8567,21 @@
         <v>41.6058</v>
       </c>
       <c r="G203" t="n">
+        <v>165.64</v>
+      </c>
+      <c r="H203" t="n">
         <v>163.0566666666664</v>
       </c>
-      <c r="H203" t="n">
-        <v>0</v>
-      </c>
       <c r="I203" t="n">
         <v>0</v>
       </c>
-      <c r="J203" t="inlineStr"/>
+      <c r="J203" t="n">
+        <v>0</v>
+      </c>
       <c r="K203" t="inlineStr"/>
-      <c r="L203" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M203" t="n">
+      <c r="L203" t="inlineStr"/>
+      <c r="M203" t="inlineStr"/>
+      <c r="N203" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8248,22 +8605,21 @@
         <v>128.391</v>
       </c>
       <c r="G204" t="n">
+        <v>165.4533333333333</v>
+      </c>
+      <c r="H204" t="n">
         <v>163.0433333333331</v>
       </c>
-      <c r="H204" t="n">
-        <v>0</v>
-      </c>
       <c r="I204" t="n">
         <v>0</v>
       </c>
-      <c r="J204" t="inlineStr"/>
+      <c r="J204" t="n">
+        <v>0</v>
+      </c>
       <c r="K204" t="inlineStr"/>
-      <c r="L204" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M204" t="n">
+      <c r="L204" t="inlineStr"/>
+      <c r="M204" t="inlineStr"/>
+      <c r="N204" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8287,22 +8643,21 @@
         <v>420.4848</v>
       </c>
       <c r="G205" t="n">
+        <v>165.2733333333334</v>
+      </c>
+      <c r="H205" t="n">
         <v>163.0299999999998</v>
       </c>
-      <c r="H205" t="n">
-        <v>0</v>
-      </c>
       <c r="I205" t="n">
         <v>0</v>
       </c>
-      <c r="J205" t="inlineStr"/>
+      <c r="J205" t="n">
+        <v>0</v>
+      </c>
       <c r="K205" t="inlineStr"/>
-      <c r="L205" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M205" t="n">
+      <c r="L205" t="inlineStr"/>
+      <c r="M205" t="inlineStr"/>
+      <c r="N205" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8326,22 +8681,21 @@
         <v>35989.9834</v>
       </c>
       <c r="G206" t="n">
+        <v>164.9066666666667</v>
+      </c>
+      <c r="H206" t="n">
         <v>162.9716666666665</v>
       </c>
-      <c r="H206" t="n">
-        <v>0</v>
-      </c>
       <c r="I206" t="n">
         <v>0</v>
       </c>
-      <c r="J206" t="inlineStr"/>
+      <c r="J206" t="n">
+        <v>0</v>
+      </c>
       <c r="K206" t="inlineStr"/>
-      <c r="L206" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M206" t="n">
+      <c r="L206" t="inlineStr"/>
+      <c r="M206" t="inlineStr"/>
+      <c r="N206" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8365,22 +8719,21 @@
         <v>35010.004</v>
       </c>
       <c r="G207" t="n">
+        <v>164.52</v>
+      </c>
+      <c r="H207" t="n">
         <v>162.9533333333331</v>
       </c>
-      <c r="H207" t="n">
-        <v>0</v>
-      </c>
       <c r="I207" t="n">
         <v>0</v>
       </c>
-      <c r="J207" t="inlineStr"/>
+      <c r="J207" t="n">
+        <v>0</v>
+      </c>
       <c r="K207" t="inlineStr"/>
-      <c r="L207" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M207" t="n">
+      <c r="L207" t="inlineStr"/>
+      <c r="M207" t="inlineStr"/>
+      <c r="N207" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8404,22 +8757,21 @@
         <v>7147.3677</v>
       </c>
       <c r="G208" t="n">
+        <v>164.1333333333333</v>
+      </c>
+      <c r="H208" t="n">
         <v>162.9049999999998</v>
       </c>
-      <c r="H208" t="n">
-        <v>0</v>
-      </c>
       <c r="I208" t="n">
         <v>0</v>
       </c>
-      <c r="J208" t="inlineStr"/>
+      <c r="J208" t="n">
+        <v>0</v>
+      </c>
       <c r="K208" t="inlineStr"/>
-      <c r="L208" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M208" t="n">
+      <c r="L208" t="inlineStr"/>
+      <c r="M208" t="inlineStr"/>
+      <c r="N208" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8443,22 +8795,21 @@
         <v>32.1459</v>
       </c>
       <c r="G209" t="n">
+        <v>163.7466666666666</v>
+      </c>
+      <c r="H209" t="n">
         <v>162.9216666666665</v>
       </c>
-      <c r="H209" t="n">
-        <v>0</v>
-      </c>
       <c r="I209" t="n">
         <v>0</v>
       </c>
-      <c r="J209" t="inlineStr"/>
+      <c r="J209" t="n">
+        <v>0</v>
+      </c>
       <c r="K209" t="inlineStr"/>
-      <c r="L209" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M209" t="n">
+      <c r="L209" t="inlineStr"/>
+      <c r="M209" t="inlineStr"/>
+      <c r="N209" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8482,22 +8833,21 @@
         <v>755.542</v>
       </c>
       <c r="G210" t="n">
+        <v>163.38</v>
+      </c>
+      <c r="H210" t="n">
         <v>162.8033333333331</v>
       </c>
-      <c r="H210" t="n">
-        <v>0</v>
-      </c>
       <c r="I210" t="n">
         <v>0</v>
       </c>
-      <c r="J210" t="inlineStr"/>
+      <c r="J210" t="n">
+        <v>0</v>
+      </c>
       <c r="K210" t="inlineStr"/>
-      <c r="L210" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M210" t="n">
+      <c r="L210" t="inlineStr"/>
+      <c r="M210" t="inlineStr"/>
+      <c r="N210" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8521,22 +8871,21 @@
         <v>9.644</v>
       </c>
       <c r="G211" t="n">
+        <v>163.0133333333333</v>
+      </c>
+      <c r="H211" t="n">
         <v>162.7466666666665</v>
       </c>
-      <c r="H211" t="n">
-        <v>0</v>
-      </c>
       <c r="I211" t="n">
         <v>0</v>
       </c>
-      <c r="J211" t="inlineStr"/>
+      <c r="J211" t="n">
+        <v>0</v>
+      </c>
       <c r="K211" t="inlineStr"/>
-      <c r="L211" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M211" t="n">
+      <c r="L211" t="inlineStr"/>
+      <c r="M211" t="inlineStr"/>
+      <c r="N211" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8560,22 +8909,21 @@
         <v>362.8263</v>
       </c>
       <c r="G212" t="n">
+        <v>162.4666666666666</v>
+      </c>
+      <c r="H212" t="n">
         <v>162.6699999999998</v>
       </c>
-      <c r="H212" t="n">
-        <v>0</v>
-      </c>
       <c r="I212" t="n">
         <v>0</v>
       </c>
-      <c r="J212" t="inlineStr"/>
+      <c r="J212" t="n">
+        <v>0</v>
+      </c>
       <c r="K212" t="inlineStr"/>
-      <c r="L212" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M212" t="n">
+      <c r="L212" t="inlineStr"/>
+      <c r="M212" t="inlineStr"/>
+      <c r="N212" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8599,22 +8947,21 @@
         <v>379.6434</v>
       </c>
       <c r="G213" t="n">
+        <v>162.0933333333333</v>
+      </c>
+      <c r="H213" t="n">
         <v>162.6349999999998</v>
       </c>
-      <c r="H213" t="n">
-        <v>0</v>
-      </c>
       <c r="I213" t="n">
         <v>0</v>
       </c>
-      <c r="J213" t="inlineStr"/>
+      <c r="J213" t="n">
+        <v>0</v>
+      </c>
       <c r="K213" t="inlineStr"/>
-      <c r="L213" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M213" t="n">
+      <c r="L213" t="inlineStr"/>
+      <c r="M213" t="inlineStr"/>
+      <c r="N213" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8638,22 +8985,21 @@
         <v>130.6761</v>
       </c>
       <c r="G214" t="n">
+        <v>161.7333333333333</v>
+      </c>
+      <c r="H214" t="n">
         <v>162.6533333333332</v>
       </c>
-      <c r="H214" t="n">
-        <v>0</v>
-      </c>
       <c r="I214" t="n">
         <v>0</v>
       </c>
-      <c r="J214" t="inlineStr"/>
+      <c r="J214" t="n">
+        <v>0</v>
+      </c>
       <c r="K214" t="inlineStr"/>
-      <c r="L214" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M214" t="n">
+      <c r="L214" t="inlineStr"/>
+      <c r="M214" t="inlineStr"/>
+      <c r="N214" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8677,22 +9023,21 @@
         <v>461.7401</v>
       </c>
       <c r="G215" t="n">
+        <v>161.3533333333333</v>
+      </c>
+      <c r="H215" t="n">
         <v>162.6699999999998</v>
       </c>
-      <c r="H215" t="n">
-        <v>0</v>
-      </c>
       <c r="I215" t="n">
         <v>0</v>
       </c>
-      <c r="J215" t="inlineStr"/>
+      <c r="J215" t="n">
+        <v>0</v>
+      </c>
       <c r="K215" t="inlineStr"/>
-      <c r="L215" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M215" t="n">
+      <c r="L215" t="inlineStr"/>
+      <c r="M215" t="inlineStr"/>
+      <c r="N215" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8716,22 +9061,21 @@
         <v>647.395</v>
       </c>
       <c r="G216" t="n">
+        <v>160.9</v>
+      </c>
+      <c r="H216" t="n">
         <v>162.6249999999998</v>
       </c>
-      <c r="H216" t="n">
-        <v>0</v>
-      </c>
       <c r="I216" t="n">
         <v>0</v>
       </c>
-      <c r="J216" t="inlineStr"/>
+      <c r="J216" t="n">
+        <v>0</v>
+      </c>
       <c r="K216" t="inlineStr"/>
-      <c r="L216" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M216" t="n">
+      <c r="L216" t="inlineStr"/>
+      <c r="M216" t="inlineStr"/>
+      <c r="N216" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8755,22 +9099,21 @@
         <v>250</v>
       </c>
       <c r="G217" t="n">
+        <v>160.5733333333333</v>
+      </c>
+      <c r="H217" t="n">
         <v>162.6366666666665</v>
       </c>
-      <c r="H217" t="n">
-        <v>0</v>
-      </c>
       <c r="I217" t="n">
         <v>0</v>
       </c>
-      <c r="J217" t="inlineStr"/>
+      <c r="J217" t="n">
+        <v>0</v>
+      </c>
       <c r="K217" t="inlineStr"/>
-      <c r="L217" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M217" t="n">
+      <c r="L217" t="inlineStr"/>
+      <c r="M217" t="inlineStr"/>
+      <c r="N217" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8794,22 +9137,21 @@
         <v>586.0593</v>
       </c>
       <c r="G218" t="n">
+        <v>160.36</v>
+      </c>
+      <c r="H218" t="n">
         <v>162.6733333333332</v>
       </c>
-      <c r="H218" t="n">
-        <v>0</v>
-      </c>
       <c r="I218" t="n">
         <v>0</v>
       </c>
-      <c r="J218" t="inlineStr"/>
+      <c r="J218" t="n">
+        <v>0</v>
+      </c>
       <c r="K218" t="inlineStr"/>
-      <c r="L218" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M218" t="n">
+      <c r="L218" t="inlineStr"/>
+      <c r="M218" t="inlineStr"/>
+      <c r="N218" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8833,22 +9175,21 @@
         <v>2488.8676</v>
       </c>
       <c r="G219" t="n">
+        <v>160.7266666666666</v>
+      </c>
+      <c r="H219" t="n">
         <v>162.7983333333332</v>
       </c>
-      <c r="H219" t="n">
-        <v>0</v>
-      </c>
       <c r="I219" t="n">
         <v>0</v>
       </c>
-      <c r="J219" t="inlineStr"/>
+      <c r="J219" t="n">
+        <v>0</v>
+      </c>
       <c r="K219" t="inlineStr"/>
-      <c r="L219" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M219" t="n">
+      <c r="L219" t="inlineStr"/>
+      <c r="M219" t="inlineStr"/>
+      <c r="N219" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8872,22 +9213,21 @@
         <v>44.4605</v>
       </c>
       <c r="G220" t="n">
+        <v>161.06</v>
+      </c>
+      <c r="H220" t="n">
         <v>162.9316666666665</v>
       </c>
-      <c r="H220" t="n">
-        <v>0</v>
-      </c>
       <c r="I220" t="n">
         <v>0</v>
       </c>
-      <c r="J220" t="inlineStr"/>
+      <c r="J220" t="n">
+        <v>0</v>
+      </c>
       <c r="K220" t="inlineStr"/>
-      <c r="L220" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M220" t="n">
+      <c r="L220" t="inlineStr"/>
+      <c r="M220" t="inlineStr"/>
+      <c r="N220" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8911,22 +9251,21 @@
         <v>199.999</v>
       </c>
       <c r="G221" t="n">
+        <v>161.3133333333333</v>
+      </c>
+      <c r="H221" t="n">
         <v>163.0016666666665</v>
       </c>
-      <c r="H221" t="n">
-        <v>0</v>
-      </c>
       <c r="I221" t="n">
         <v>0</v>
       </c>
-      <c r="J221" t="inlineStr"/>
+      <c r="J221" t="n">
+        <v>0</v>
+      </c>
       <c r="K221" t="inlineStr"/>
-      <c r="L221" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M221" t="n">
+      <c r="L221" t="inlineStr"/>
+      <c r="M221" t="inlineStr"/>
+      <c r="N221" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8950,22 +9289,21 @@
         <v>5.7967</v>
       </c>
       <c r="G222" t="n">
+        <v>161.6066666666666</v>
+      </c>
+      <c r="H222" t="n">
         <v>163.0766666666665</v>
       </c>
-      <c r="H222" t="n">
-        <v>0</v>
-      </c>
       <c r="I222" t="n">
         <v>0</v>
       </c>
-      <c r="J222" t="inlineStr"/>
+      <c r="J222" t="n">
+        <v>0</v>
+      </c>
       <c r="K222" t="inlineStr"/>
-      <c r="L222" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M222" t="n">
+      <c r="L222" t="inlineStr"/>
+      <c r="M222" t="inlineStr"/>
+      <c r="N222" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8989,22 +9327,21 @@
         <v>2374.6694</v>
       </c>
       <c r="G223" t="n">
+        <v>161.9266666666666</v>
+      </c>
+      <c r="H223" t="n">
         <v>163.1583333333332</v>
       </c>
-      <c r="H223" t="n">
-        <v>0</v>
-      </c>
       <c r="I223" t="n">
         <v>0</v>
       </c>
-      <c r="J223" t="inlineStr"/>
+      <c r="J223" t="n">
+        <v>0</v>
+      </c>
       <c r="K223" t="inlineStr"/>
-      <c r="L223" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M223" t="n">
+      <c r="L223" t="inlineStr"/>
+      <c r="M223" t="inlineStr"/>
+      <c r="N223" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9028,22 +9365,21 @@
         <v>5.2152</v>
       </c>
       <c r="G224" t="n">
+        <v>162.24</v>
+      </c>
+      <c r="H224" t="n">
         <v>163.2399999999999</v>
       </c>
-      <c r="H224" t="n">
-        <v>0</v>
-      </c>
       <c r="I224" t="n">
         <v>0</v>
       </c>
-      <c r="J224" t="inlineStr"/>
+      <c r="J224" t="n">
+        <v>0</v>
+      </c>
       <c r="K224" t="inlineStr"/>
-      <c r="L224" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M224" t="n">
+      <c r="L224" t="inlineStr"/>
+      <c r="M224" t="inlineStr"/>
+      <c r="N224" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9067,22 +9403,21 @@
         <v>1750</v>
       </c>
       <c r="G225" t="n">
+        <v>162.56</v>
+      </c>
+      <c r="H225" t="n">
         <v>163.3299999999999</v>
       </c>
-      <c r="H225" t="n">
-        <v>0</v>
-      </c>
       <c r="I225" t="n">
         <v>0</v>
       </c>
-      <c r="J225" t="inlineStr"/>
+      <c r="J225" t="n">
+        <v>0</v>
+      </c>
       <c r="K225" t="inlineStr"/>
-      <c r="L225" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M225" t="n">
+      <c r="L225" t="inlineStr"/>
+      <c r="M225" t="inlineStr"/>
+      <c r="N225" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9106,22 +9441,21 @@
         <v>30</v>
       </c>
       <c r="G226" t="n">
+        <v>162.8333333333333</v>
+      </c>
+      <c r="H226" t="n">
         <v>163.4199999999999</v>
       </c>
-      <c r="H226" t="n">
-        <v>0</v>
-      </c>
       <c r="I226" t="n">
         <v>0</v>
       </c>
-      <c r="J226" t="inlineStr"/>
+      <c r="J226" t="n">
+        <v>0</v>
+      </c>
       <c r="K226" t="inlineStr"/>
-      <c r="L226" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M226" t="n">
+      <c r="L226" t="inlineStr"/>
+      <c r="M226" t="inlineStr"/>
+      <c r="N226" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9145,22 +9479,21 @@
         <v>194</v>
       </c>
       <c r="G227" t="n">
+        <v>163.2066666666667</v>
+      </c>
+      <c r="H227" t="n">
         <v>163.4849999999998</v>
       </c>
-      <c r="H227" t="n">
-        <v>0</v>
-      </c>
       <c r="I227" t="n">
         <v>0</v>
       </c>
-      <c r="J227" t="inlineStr"/>
+      <c r="J227" t="n">
+        <v>0</v>
+      </c>
       <c r="K227" t="inlineStr"/>
-      <c r="L227" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M227" t="n">
+      <c r="L227" t="inlineStr"/>
+      <c r="M227" t="inlineStr"/>
+      <c r="N227" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9184,22 +9517,21 @@
         <v>4.7432</v>
       </c>
       <c r="G228" t="n">
+        <v>163.4733333333334</v>
+      </c>
+      <c r="H228" t="n">
         <v>163.5616666666665</v>
       </c>
-      <c r="H228" t="n">
-        <v>0</v>
-      </c>
       <c r="I228" t="n">
         <v>0</v>
       </c>
-      <c r="J228" t="inlineStr"/>
+      <c r="J228" t="n">
+        <v>0</v>
+      </c>
       <c r="K228" t="inlineStr"/>
-      <c r="L228" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M228" t="n">
+      <c r="L228" t="inlineStr"/>
+      <c r="M228" t="inlineStr"/>
+      <c r="N228" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9223,22 +9555,21 @@
         <v>198.373</v>
       </c>
       <c r="G229" t="n">
+        <v>163.62</v>
+      </c>
+      <c r="H229" t="n">
         <v>163.6099999999998</v>
       </c>
-      <c r="H229" t="n">
-        <v>0</v>
-      </c>
       <c r="I229" t="n">
         <v>0</v>
       </c>
-      <c r="J229" t="inlineStr"/>
+      <c r="J229" t="n">
+        <v>0</v>
+      </c>
       <c r="K229" t="inlineStr"/>
-      <c r="L229" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M229" t="n">
+      <c r="L229" t="inlineStr"/>
+      <c r="M229" t="inlineStr"/>
+      <c r="N229" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9262,22 +9593,21 @@
         <v>10.6047</v>
       </c>
       <c r="G230" t="n">
+        <v>163.9</v>
+      </c>
+      <c r="H230" t="n">
         <v>163.6866666666665</v>
       </c>
-      <c r="H230" t="n">
-        <v>0</v>
-      </c>
       <c r="I230" t="n">
         <v>0</v>
       </c>
-      <c r="J230" t="inlineStr"/>
+      <c r="J230" t="n">
+        <v>0</v>
+      </c>
       <c r="K230" t="inlineStr"/>
-      <c r="L230" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M230" t="n">
+      <c r="L230" t="inlineStr"/>
+      <c r="M230" t="inlineStr"/>
+      <c r="N230" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9301,22 +9631,21 @@
         <v>314.5953</v>
       </c>
       <c r="G231" t="n">
+        <v>164.2933333333334</v>
+      </c>
+      <c r="H231" t="n">
         <v>163.7399999999998</v>
       </c>
-      <c r="H231" t="n">
-        <v>0</v>
-      </c>
       <c r="I231" t="n">
         <v>0</v>
       </c>
-      <c r="J231" t="inlineStr"/>
+      <c r="J231" t="n">
+        <v>0</v>
+      </c>
       <c r="K231" t="inlineStr"/>
-      <c r="L231" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M231" t="n">
+      <c r="L231" t="inlineStr"/>
+      <c r="M231" t="inlineStr"/>
+      <c r="N231" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9340,22 +9669,21 @@
         <v>1388.8328</v>
       </c>
       <c r="G232" t="n">
+        <v>164.54</v>
+      </c>
+      <c r="H232" t="n">
         <v>163.7916666666665</v>
       </c>
-      <c r="H232" t="n">
-        <v>0</v>
-      </c>
       <c r="I232" t="n">
         <v>0</v>
       </c>
-      <c r="J232" t="inlineStr"/>
+      <c r="J232" t="n">
+        <v>0</v>
+      </c>
       <c r="K232" t="inlineStr"/>
-      <c r="L232" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M232" t="n">
+      <c r="L232" t="inlineStr"/>
+      <c r="M232" t="inlineStr"/>
+      <c r="N232" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9379,22 +9707,21 @@
         <v>1977.2706</v>
       </c>
       <c r="G233" t="n">
+        <v>164.68</v>
+      </c>
+      <c r="H233" t="n">
         <v>163.8416666666665</v>
       </c>
-      <c r="H233" t="n">
-        <v>0</v>
-      </c>
       <c r="I233" t="n">
         <v>0</v>
       </c>
-      <c r="J233" t="inlineStr"/>
+      <c r="J233" t="n">
+        <v>0</v>
+      </c>
       <c r="K233" t="inlineStr"/>
-      <c r="L233" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M233" t="n">
+      <c r="L233" t="inlineStr"/>
+      <c r="M233" t="inlineStr"/>
+      <c r="N233" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9418,22 +9745,21 @@
         <v>771.03</v>
       </c>
       <c r="G234" t="n">
+        <v>164.4000000000001</v>
+      </c>
+      <c r="H234" t="n">
         <v>163.8916666666665</v>
       </c>
-      <c r="H234" t="n">
-        <v>0</v>
-      </c>
       <c r="I234" t="n">
         <v>0</v>
       </c>
-      <c r="J234" t="inlineStr"/>
+      <c r="J234" t="n">
+        <v>0</v>
+      </c>
       <c r="K234" t="inlineStr"/>
-      <c r="L234" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M234" t="n">
+      <c r="L234" t="inlineStr"/>
+      <c r="M234" t="inlineStr"/>
+      <c r="N234" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9457,22 +9783,21 @@
         <v>58.4433</v>
       </c>
       <c r="G235" t="n">
+        <v>164.1533333333334</v>
+      </c>
+      <c r="H235" t="n">
         <v>163.8983333333331</v>
       </c>
-      <c r="H235" t="n">
-        <v>0</v>
-      </c>
       <c r="I235" t="n">
         <v>0</v>
       </c>
-      <c r="J235" t="inlineStr"/>
+      <c r="J235" t="n">
+        <v>0</v>
+      </c>
       <c r="K235" t="inlineStr"/>
-      <c r="L235" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M235" t="n">
+      <c r="L235" t="inlineStr"/>
+      <c r="M235" t="inlineStr"/>
+      <c r="N235" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9496,22 +9821,21 @@
         <v>125</v>
       </c>
       <c r="G236" t="n">
+        <v>164.1666666666668</v>
+      </c>
+      <c r="H236" t="n">
         <v>163.9049999999998</v>
       </c>
-      <c r="H236" t="n">
-        <v>0</v>
-      </c>
       <c r="I236" t="n">
         <v>0</v>
       </c>
-      <c r="J236" t="inlineStr"/>
+      <c r="J236" t="n">
+        <v>0</v>
+      </c>
       <c r="K236" t="inlineStr"/>
-      <c r="L236" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M236" t="n">
+      <c r="L236" t="inlineStr"/>
+      <c r="M236" t="inlineStr"/>
+      <c r="N236" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9535,22 +9859,21 @@
         <v>28.0351</v>
       </c>
       <c r="G237" t="n">
+        <v>164.1600000000001</v>
+      </c>
+      <c r="H237" t="n">
         <v>163.9049999999998</v>
       </c>
-      <c r="H237" t="n">
-        <v>0</v>
-      </c>
       <c r="I237" t="n">
         <v>0</v>
       </c>
-      <c r="J237" t="inlineStr"/>
+      <c r="J237" t="n">
+        <v>0</v>
+      </c>
       <c r="K237" t="inlineStr"/>
-      <c r="L237" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M237" t="n">
+      <c r="L237" t="inlineStr"/>
+      <c r="M237" t="inlineStr"/>
+      <c r="N237" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9574,22 +9897,21 @@
         <v>14.3076</v>
       </c>
       <c r="G238" t="n">
+        <v>164.1266666666668</v>
+      </c>
+      <c r="H238" t="n">
         <v>163.9066666666664</v>
       </c>
-      <c r="H238" t="n">
-        <v>0</v>
-      </c>
       <c r="I238" t="n">
         <v>0</v>
       </c>
-      <c r="J238" t="inlineStr"/>
+      <c r="J238" t="n">
+        <v>0</v>
+      </c>
       <c r="K238" t="inlineStr"/>
-      <c r="L238" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M238" t="n">
+      <c r="L238" t="inlineStr"/>
+      <c r="M238" t="inlineStr"/>
+      <c r="N238" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9613,22 +9935,21 @@
         <v>11378.8554</v>
       </c>
       <c r="G239" t="n">
+        <v>164.2000000000001</v>
+      </c>
+      <c r="H239" t="n">
         <v>163.9333333333331</v>
       </c>
-      <c r="H239" t="n">
-        <v>0</v>
-      </c>
       <c r="I239" t="n">
         <v>0</v>
       </c>
-      <c r="J239" t="inlineStr"/>
+      <c r="J239" t="n">
+        <v>0</v>
+      </c>
       <c r="K239" t="inlineStr"/>
-      <c r="L239" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M239" t="n">
+      <c r="L239" t="inlineStr"/>
+      <c r="M239" t="inlineStr"/>
+      <c r="N239" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9652,22 +9973,21 @@
         <v>549.1091</v>
       </c>
       <c r="G240" t="n">
+        <v>164.3000000000001</v>
+      </c>
+      <c r="H240" t="n">
         <v>163.9583333333331</v>
       </c>
-      <c r="H240" t="n">
-        <v>0</v>
-      </c>
       <c r="I240" t="n">
         <v>0</v>
       </c>
-      <c r="J240" t="inlineStr"/>
+      <c r="J240" t="n">
+        <v>0</v>
+      </c>
       <c r="K240" t="inlineStr"/>
-      <c r="L240" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M240" t="n">
+      <c r="L240" t="inlineStr"/>
+      <c r="M240" t="inlineStr"/>
+      <c r="N240" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9691,22 +10011,21 @@
         <v>2037.2704</v>
       </c>
       <c r="G241" t="n">
+        <v>164.4000000000001</v>
+      </c>
+      <c r="H241" t="n">
         <v>163.9833333333331</v>
       </c>
-      <c r="H241" t="n">
-        <v>0</v>
-      </c>
       <c r="I241" t="n">
         <v>0</v>
       </c>
-      <c r="J241" t="inlineStr"/>
+      <c r="J241" t="n">
+        <v>0</v>
+      </c>
       <c r="K241" t="inlineStr"/>
-      <c r="L241" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M241" t="n">
+      <c r="L241" t="inlineStr"/>
+      <c r="M241" t="inlineStr"/>
+      <c r="N241" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9730,22 +10049,21 @@
         <v>38704.8126</v>
       </c>
       <c r="G242" t="n">
+        <v>164.3733333333334</v>
+      </c>
+      <c r="H242" t="n">
         <v>163.9816666666664</v>
       </c>
-      <c r="H242" t="n">
-        <v>0</v>
-      </c>
       <c r="I242" t="n">
         <v>0</v>
       </c>
-      <c r="J242" t="inlineStr"/>
+      <c r="J242" t="n">
+        <v>0</v>
+      </c>
       <c r="K242" t="inlineStr"/>
-      <c r="L242" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M242" t="n">
+      <c r="L242" t="inlineStr"/>
+      <c r="M242" t="inlineStr"/>
+      <c r="N242" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9769,22 +10087,21 @@
         <v>27.762</v>
       </c>
       <c r="G243" t="n">
+        <v>164.5733333333334</v>
+      </c>
+      <c r="H243" t="n">
         <v>164.0099999999998</v>
       </c>
-      <c r="H243" t="n">
-        <v>0</v>
-      </c>
       <c r="I243" t="n">
         <v>0</v>
       </c>
-      <c r="J243" t="inlineStr"/>
+      <c r="J243" t="n">
+        <v>0</v>
+      </c>
       <c r="K243" t="inlineStr"/>
-      <c r="L243" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M243" t="n">
+      <c r="L243" t="inlineStr"/>
+      <c r="M243" t="inlineStr"/>
+      <c r="N243" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9808,22 +10125,21 @@
         <v>109.0606</v>
       </c>
       <c r="G244" t="n">
+        <v>164.7400000000001</v>
+      </c>
+      <c r="H244" t="n">
         <v>163.9783333333331</v>
       </c>
-      <c r="H244" t="n">
-        <v>0</v>
-      </c>
       <c r="I244" t="n">
         <v>0</v>
       </c>
-      <c r="J244" t="inlineStr"/>
+      <c r="J244" t="n">
+        <v>0</v>
+      </c>
       <c r="K244" t="inlineStr"/>
-      <c r="L244" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M244" t="n">
+      <c r="L244" t="inlineStr"/>
+      <c r="M244" t="inlineStr"/>
+      <c r="N244" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9847,22 +10163,21 @@
         <v>85.40900000000001</v>
       </c>
       <c r="G245" t="n">
+        <v>164.9200000000001</v>
+      </c>
+      <c r="H245" t="n">
         <v>163.9783333333331</v>
       </c>
-      <c r="H245" t="n">
-        <v>0</v>
-      </c>
       <c r="I245" t="n">
         <v>0</v>
       </c>
-      <c r="J245" t="inlineStr"/>
+      <c r="J245" t="n">
+        <v>0</v>
+      </c>
       <c r="K245" t="inlineStr"/>
-      <c r="L245" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M245" t="n">
+      <c r="L245" t="inlineStr"/>
+      <c r="M245" t="inlineStr"/>
+      <c r="N245" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9886,22 +10201,21 @@
         <v>96.4556</v>
       </c>
       <c r="G246" t="n">
+        <v>165.0866666666668</v>
+      </c>
+      <c r="H246" t="n">
         <v>163.9933333333331</v>
       </c>
-      <c r="H246" t="n">
-        <v>0</v>
-      </c>
       <c r="I246" t="n">
         <v>0</v>
       </c>
-      <c r="J246" t="inlineStr"/>
+      <c r="J246" t="n">
+        <v>0</v>
+      </c>
       <c r="K246" t="inlineStr"/>
-      <c r="L246" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M246" t="n">
+      <c r="L246" t="inlineStr"/>
+      <c r="M246" t="inlineStr"/>
+      <c r="N246" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9925,22 +10239,21 @@
         <v>15.7187</v>
       </c>
       <c r="G247" t="n">
+        <v>165.2400000000001</v>
+      </c>
+      <c r="H247" t="n">
         <v>164.0066666666665</v>
       </c>
-      <c r="H247" t="n">
-        <v>0</v>
-      </c>
       <c r="I247" t="n">
         <v>0</v>
       </c>
-      <c r="J247" t="inlineStr"/>
+      <c r="J247" t="n">
+        <v>0</v>
+      </c>
       <c r="K247" t="inlineStr"/>
-      <c r="L247" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M247" t="n">
+      <c r="L247" t="inlineStr"/>
+      <c r="M247" t="inlineStr"/>
+      <c r="N247" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9964,22 +10277,21 @@
         <v>276.4554</v>
       </c>
       <c r="G248" t="n">
+        <v>165.3933333333334</v>
+      </c>
+      <c r="H248" t="n">
         <v>164.0183333333331</v>
       </c>
-      <c r="H248" t="n">
-        <v>0</v>
-      </c>
       <c r="I248" t="n">
         <v>0</v>
       </c>
-      <c r="J248" t="inlineStr"/>
+      <c r="J248" t="n">
+        <v>0</v>
+      </c>
       <c r="K248" t="inlineStr"/>
-      <c r="L248" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M248" t="n">
+      <c r="L248" t="inlineStr"/>
+      <c r="M248" t="inlineStr"/>
+      <c r="N248" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10003,22 +10315,21 @@
         <v>102.4528</v>
       </c>
       <c r="G249" t="n">
+        <v>165.5733333333334</v>
+      </c>
+      <c r="H249" t="n">
         <v>164.0383333333331</v>
       </c>
-      <c r="H249" t="n">
-        <v>0</v>
-      </c>
       <c r="I249" t="n">
         <v>0</v>
       </c>
-      <c r="J249" t="inlineStr"/>
+      <c r="J249" t="n">
+        <v>0</v>
+      </c>
       <c r="K249" t="inlineStr"/>
-      <c r="L249" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M249" t="n">
+      <c r="L249" t="inlineStr"/>
+      <c r="M249" t="inlineStr"/>
+      <c r="N249" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10042,22 +10353,21 @@
         <v>13543.091</v>
       </c>
       <c r="G250" t="n">
+        <v>165.6266666666667</v>
+      </c>
+      <c r="H250" t="n">
         <v>164.0283333333331</v>
       </c>
-      <c r="H250" t="n">
-        <v>0</v>
-      </c>
       <c r="I250" t="n">
         <v>0</v>
       </c>
-      <c r="J250" t="inlineStr"/>
+      <c r="J250" t="n">
+        <v>0</v>
+      </c>
       <c r="K250" t="inlineStr"/>
-      <c r="L250" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M250" t="n">
+      <c r="L250" t="inlineStr"/>
+      <c r="M250" t="inlineStr"/>
+      <c r="N250" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10081,22 +10391,21 @@
         <v>443.2936</v>
       </c>
       <c r="G251" t="n">
+        <v>165.68</v>
+      </c>
+      <c r="H251" t="n">
         <v>164.0166666666665</v>
       </c>
-      <c r="H251" t="n">
-        <v>0</v>
-      </c>
       <c r="I251" t="n">
         <v>0</v>
       </c>
-      <c r="J251" t="inlineStr"/>
+      <c r="J251" t="n">
+        <v>0</v>
+      </c>
       <c r="K251" t="inlineStr"/>
-      <c r="L251" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M251" t="n">
+      <c r="L251" t="inlineStr"/>
+      <c r="M251" t="inlineStr"/>
+      <c r="N251" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10120,22 +10429,21 @@
         <v>38.4368</v>
       </c>
       <c r="G252" t="n">
+        <v>165.7933333333334</v>
+      </c>
+      <c r="H252" t="n">
         <v>164.0199999999998</v>
       </c>
-      <c r="H252" t="n">
-        <v>0</v>
-      </c>
       <c r="I252" t="n">
         <v>0</v>
       </c>
-      <c r="J252" t="inlineStr"/>
+      <c r="J252" t="n">
+        <v>0</v>
+      </c>
       <c r="K252" t="inlineStr"/>
-      <c r="L252" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M252" t="n">
+      <c r="L252" t="inlineStr"/>
+      <c r="M252" t="inlineStr"/>
+      <c r="N252" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10159,22 +10467,21 @@
         <v>397.0959</v>
       </c>
       <c r="G253" t="n">
+        <v>165.9466666666667</v>
+      </c>
+      <c r="H253" t="n">
         <v>164.0333333333332</v>
       </c>
-      <c r="H253" t="n">
-        <v>0</v>
-      </c>
       <c r="I253" t="n">
         <v>0</v>
       </c>
-      <c r="J253" t="inlineStr"/>
+      <c r="J253" t="n">
+        <v>0</v>
+      </c>
       <c r="K253" t="inlineStr"/>
-      <c r="L253" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M253" t="n">
+      <c r="L253" t="inlineStr"/>
+      <c r="M253" t="inlineStr"/>
+      <c r="N253" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10198,22 +10505,21 @@
         <v>30.3799</v>
       </c>
       <c r="G254" t="n">
+        <v>165.96</v>
+      </c>
+      <c r="H254" t="n">
         <v>164.0366666666665</v>
       </c>
-      <c r="H254" t="n">
-        <v>0</v>
-      </c>
       <c r="I254" t="n">
         <v>0</v>
       </c>
-      <c r="J254" t="inlineStr"/>
+      <c r="J254" t="n">
+        <v>0</v>
+      </c>
       <c r="K254" t="inlineStr"/>
-      <c r="L254" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M254" t="n">
+      <c r="L254" t="inlineStr"/>
+      <c r="M254" t="inlineStr"/>
+      <c r="N254" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10237,22 +10543,21 @@
         <v>4927.1808</v>
       </c>
       <c r="G255" t="n">
+        <v>166.0133333333333</v>
+      </c>
+      <c r="H255" t="n">
         <v>164.0633333333332</v>
       </c>
-      <c r="H255" t="n">
-        <v>0</v>
-      </c>
       <c r="I255" t="n">
         <v>0</v>
       </c>
-      <c r="J255" t="inlineStr"/>
+      <c r="J255" t="n">
+        <v>0</v>
+      </c>
       <c r="K255" t="inlineStr"/>
-      <c r="L255" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M255" t="n">
+      <c r="L255" t="inlineStr"/>
+      <c r="M255" t="inlineStr"/>
+      <c r="N255" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10276,22 +10581,21 @@
         <v>2479.5527</v>
       </c>
       <c r="G256" t="n">
+        <v>165.9666666666666</v>
+      </c>
+      <c r="H256" t="n">
         <v>164.0533333333332</v>
       </c>
-      <c r="H256" t="n">
-        <v>0</v>
-      </c>
       <c r="I256" t="n">
         <v>0</v>
       </c>
-      <c r="J256" t="inlineStr"/>
+      <c r="J256" t="n">
+        <v>0</v>
+      </c>
       <c r="K256" t="inlineStr"/>
-      <c r="L256" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M256" t="n">
+      <c r="L256" t="inlineStr"/>
+      <c r="M256" t="inlineStr"/>
+      <c r="N256" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10315,22 +10619,21 @@
         <v>55.1406</v>
       </c>
       <c r="G257" t="n">
+        <v>166.1133333333333</v>
+      </c>
+      <c r="H257" t="n">
         <v>164.0399999999999</v>
       </c>
-      <c r="H257" t="n">
-        <v>0</v>
-      </c>
       <c r="I257" t="n">
         <v>0</v>
       </c>
-      <c r="J257" t="inlineStr"/>
+      <c r="J257" t="n">
+        <v>0</v>
+      </c>
       <c r="K257" t="inlineStr"/>
-      <c r="L257" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M257" t="n">
+      <c r="L257" t="inlineStr"/>
+      <c r="M257" t="inlineStr"/>
+      <c r="N257" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10354,22 +10657,21 @@
         <v>232.4137</v>
       </c>
       <c r="G258" t="n">
+        <v>165.98</v>
+      </c>
+      <c r="H258" t="n">
         <v>164.0299999999999</v>
       </c>
-      <c r="H258" t="n">
-        <v>0</v>
-      </c>
       <c r="I258" t="n">
         <v>0</v>
       </c>
-      <c r="J258" t="inlineStr"/>
+      <c r="J258" t="n">
+        <v>0</v>
+      </c>
       <c r="K258" t="inlineStr"/>
-      <c r="L258" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M258" t="n">
+      <c r="L258" t="inlineStr"/>
+      <c r="M258" t="inlineStr"/>
+      <c r="N258" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10393,22 +10695,21 @@
         <v>98.3916</v>
       </c>
       <c r="G259" t="n">
+        <v>166.1066666666666</v>
+      </c>
+      <c r="H259" t="n">
         <v>164.0499999999999</v>
       </c>
-      <c r="H259" t="n">
-        <v>0</v>
-      </c>
       <c r="I259" t="n">
         <v>0</v>
       </c>
-      <c r="J259" t="inlineStr"/>
+      <c r="J259" t="n">
+        <v>0</v>
+      </c>
       <c r="K259" t="inlineStr"/>
-      <c r="L259" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M259" t="n">
+      <c r="L259" t="inlineStr"/>
+      <c r="M259" t="inlineStr"/>
+      <c r="N259" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10432,22 +10733,21 @@
         <v>61.7143</v>
       </c>
       <c r="G260" t="n">
+        <v>166.1133333333333</v>
+      </c>
+      <c r="H260" t="n">
         <v>164.0716666666665</v>
       </c>
-      <c r="H260" t="n">
-        <v>0</v>
-      </c>
       <c r="I260" t="n">
         <v>0</v>
       </c>
-      <c r="J260" t="inlineStr"/>
+      <c r="J260" t="n">
+        <v>0</v>
+      </c>
       <c r="K260" t="inlineStr"/>
-      <c r="L260" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M260" t="n">
+      <c r="L260" t="inlineStr"/>
+      <c r="M260" t="inlineStr"/>
+      <c r="N260" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10471,22 +10771,21 @@
         <v>7086.2845</v>
       </c>
       <c r="G261" t="n">
+        <v>166.0066666666666</v>
+      </c>
+      <c r="H261" t="n">
         <v>164.0716666666665</v>
       </c>
-      <c r="H261" t="n">
-        <v>0</v>
-      </c>
       <c r="I261" t="n">
         <v>0</v>
       </c>
-      <c r="J261" t="inlineStr"/>
+      <c r="J261" t="n">
+        <v>0</v>
+      </c>
       <c r="K261" t="inlineStr"/>
-      <c r="L261" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M261" t="n">
+      <c r="L261" t="inlineStr"/>
+      <c r="M261" t="inlineStr"/>
+      <c r="N261" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10510,22 +10809,21 @@
         <v>12.6004</v>
       </c>
       <c r="G262" t="n">
+        <v>165.9933333333333</v>
+      </c>
+      <c r="H262" t="n">
         <v>164.0866666666665</v>
       </c>
-      <c r="H262" t="n">
-        <v>0</v>
-      </c>
       <c r="I262" t="n">
         <v>0</v>
       </c>
-      <c r="J262" t="inlineStr"/>
+      <c r="J262" t="n">
+        <v>0</v>
+      </c>
       <c r="K262" t="inlineStr"/>
-      <c r="L262" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M262" t="n">
+      <c r="L262" t="inlineStr"/>
+      <c r="M262" t="inlineStr"/>
+      <c r="N262" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10549,22 +10847,21 @@
         <v>5</v>
       </c>
       <c r="G263" t="n">
+        <v>165.98</v>
+      </c>
+      <c r="H263" t="n">
         <v>164.1033333333332</v>
       </c>
-      <c r="H263" t="n">
-        <v>0</v>
-      </c>
       <c r="I263" t="n">
         <v>0</v>
       </c>
-      <c r="J263" t="inlineStr"/>
+      <c r="J263" t="n">
+        <v>0</v>
+      </c>
       <c r="K263" t="inlineStr"/>
-      <c r="L263" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M263" t="n">
+      <c r="L263" t="inlineStr"/>
+      <c r="M263" t="inlineStr"/>
+      <c r="N263" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10588,22 +10885,21 @@
         <v>18.9103</v>
       </c>
       <c r="G264" t="n">
+        <v>165.98</v>
+      </c>
+      <c r="H264" t="n">
         <v>164.1699999999999</v>
       </c>
-      <c r="H264" t="n">
-        <v>0</v>
-      </c>
       <c r="I264" t="n">
         <v>0</v>
       </c>
-      <c r="J264" t="inlineStr"/>
+      <c r="J264" t="n">
+        <v>0</v>
+      </c>
       <c r="K264" t="inlineStr"/>
-      <c r="L264" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M264" t="n">
+      <c r="L264" t="inlineStr"/>
+      <c r="M264" t="inlineStr"/>
+      <c r="N264" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10627,22 +10923,21 @@
         <v>9.5344</v>
       </c>
       <c r="G265" t="n">
+        <v>166.1066666666666</v>
+      </c>
+      <c r="H265" t="n">
         <v>164.2366666666665</v>
       </c>
-      <c r="H265" t="n">
-        <v>0</v>
-      </c>
       <c r="I265" t="n">
         <v>0</v>
       </c>
-      <c r="J265" t="inlineStr"/>
+      <c r="J265" t="n">
+        <v>0</v>
+      </c>
       <c r="K265" t="inlineStr"/>
-      <c r="L265" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M265" t="n">
+      <c r="L265" t="inlineStr"/>
+      <c r="M265" t="inlineStr"/>
+      <c r="N265" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10666,22 +10961,21 @@
         <v>201.151</v>
       </c>
       <c r="G266" t="n">
+        <v>166.1333333333333</v>
+      </c>
+      <c r="H266" t="n">
         <v>164.3233333333332</v>
       </c>
-      <c r="H266" t="n">
-        <v>0</v>
-      </c>
       <c r="I266" t="n">
         <v>0</v>
       </c>
-      <c r="J266" t="inlineStr"/>
+      <c r="J266" t="n">
+        <v>0</v>
+      </c>
       <c r="K266" t="inlineStr"/>
-      <c r="L266" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M266" t="n">
+      <c r="L266" t="inlineStr"/>
+      <c r="M266" t="inlineStr"/>
+      <c r="N266" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10705,22 +10999,21 @@
         <v>505.1832</v>
       </c>
       <c r="G267" t="n">
+        <v>166.2</v>
+      </c>
+      <c r="H267" t="n">
         <v>164.4399999999999</v>
       </c>
-      <c r="H267" t="n">
-        <v>0</v>
-      </c>
       <c r="I267" t="n">
         <v>0</v>
       </c>
-      <c r="J267" t="inlineStr"/>
+      <c r="J267" t="n">
+        <v>0</v>
+      </c>
       <c r="K267" t="inlineStr"/>
-      <c r="L267" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M267" t="n">
+      <c r="L267" t="inlineStr"/>
+      <c r="M267" t="inlineStr"/>
+      <c r="N267" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10744,22 +11037,21 @@
         <v>4306.1075</v>
       </c>
       <c r="G268" t="n">
+        <v>166.2733333333333</v>
+      </c>
+      <c r="H268" t="n">
         <v>164.5683333333332</v>
       </c>
-      <c r="H268" t="n">
-        <v>0</v>
-      </c>
       <c r="I268" t="n">
         <v>0</v>
       </c>
-      <c r="J268" t="inlineStr"/>
+      <c r="J268" t="n">
+        <v>0</v>
+      </c>
       <c r="K268" t="inlineStr"/>
-      <c r="L268" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M268" t="n">
+      <c r="L268" t="inlineStr"/>
+      <c r="M268" t="inlineStr"/>
+      <c r="N268" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10783,22 +11075,21 @@
         <v>20.8015</v>
       </c>
       <c r="G269" t="n">
+        <v>166.34</v>
+      </c>
+      <c r="H269" t="n">
         <v>164.6849999999999</v>
       </c>
-      <c r="H269" t="n">
-        <v>0</v>
-      </c>
       <c r="I269" t="n">
         <v>0</v>
       </c>
-      <c r="J269" t="inlineStr"/>
+      <c r="J269" t="n">
+        <v>0</v>
+      </c>
       <c r="K269" t="inlineStr"/>
-      <c r="L269" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M269" t="n">
+      <c r="L269" t="inlineStr"/>
+      <c r="M269" t="inlineStr"/>
+      <c r="N269" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10822,22 +11113,21 @@
         <v>34.8971</v>
       </c>
       <c r="G270" t="n">
+        <v>166.4133333333333</v>
+      </c>
+      <c r="H270" t="n">
         <v>164.8216666666666</v>
       </c>
-      <c r="H270" t="n">
-        <v>0</v>
-      </c>
       <c r="I270" t="n">
         <v>0</v>
       </c>
-      <c r="J270" t="inlineStr"/>
+      <c r="J270" t="n">
+        <v>0</v>
+      </c>
       <c r="K270" t="inlineStr"/>
-      <c r="L270" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M270" t="n">
+      <c r="L270" t="inlineStr"/>
+      <c r="M270" t="inlineStr"/>
+      <c r="N270" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10861,22 +11151,21 @@
         <v>250.3304</v>
       </c>
       <c r="G271" t="n">
+        <v>166.5866666666666</v>
+      </c>
+      <c r="H271" t="n">
         <v>164.9466666666666</v>
       </c>
-      <c r="H271" t="n">
-        <v>0</v>
-      </c>
       <c r="I271" t="n">
         <v>0</v>
       </c>
-      <c r="J271" t="inlineStr"/>
+      <c r="J271" t="n">
+        <v>0</v>
+      </c>
       <c r="K271" t="inlineStr"/>
-      <c r="L271" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M271" t="n">
+      <c r="L271" t="inlineStr"/>
+      <c r="M271" t="inlineStr"/>
+      <c r="N271" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10900,22 +11189,21 @@
         <v>295.1871</v>
       </c>
       <c r="G272" t="n">
+        <v>166.7599999999999</v>
+      </c>
+      <c r="H272" t="n">
         <v>165.1133333333332</v>
       </c>
-      <c r="H272" t="n">
-        <v>0</v>
-      </c>
       <c r="I272" t="n">
         <v>0</v>
       </c>
-      <c r="J272" t="inlineStr"/>
+      <c r="J272" t="n">
+        <v>0</v>
+      </c>
       <c r="K272" t="inlineStr"/>
-      <c r="L272" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M272" t="n">
+      <c r="L272" t="inlineStr"/>
+      <c r="M272" t="inlineStr"/>
+      <c r="N272" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10939,22 +11227,21 @@
         <v>7066.445</v>
       </c>
       <c r="G273" t="n">
+        <v>166.9466666666666</v>
+      </c>
+      <c r="H273" t="n">
         <v>165.2433333333332</v>
       </c>
-      <c r="H273" t="n">
-        <v>0</v>
-      </c>
       <c r="I273" t="n">
         <v>0</v>
       </c>
-      <c r="J273" t="inlineStr"/>
+      <c r="J273" t="n">
+        <v>0</v>
+      </c>
       <c r="K273" t="inlineStr"/>
-      <c r="L273" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M273" t="n">
+      <c r="L273" t="inlineStr"/>
+      <c r="M273" t="inlineStr"/>
+      <c r="N273" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10978,22 +11265,21 @@
         <v>211.4015</v>
       </c>
       <c r="G274" t="n">
+        <v>166.9066666666666</v>
+      </c>
+      <c r="H274" t="n">
         <v>165.3433333333332</v>
       </c>
-      <c r="H274" t="n">
-        <v>0</v>
-      </c>
       <c r="I274" t="n">
         <v>0</v>
       </c>
-      <c r="J274" t="inlineStr"/>
+      <c r="J274" t="n">
+        <v>0</v>
+      </c>
       <c r="K274" t="inlineStr"/>
-      <c r="L274" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M274" t="n">
+      <c r="L274" t="inlineStr"/>
+      <c r="M274" t="inlineStr"/>
+      <c r="N274" t="n">
         <v>1</v>
       </c>
     </row>
@@ -11017,22 +11303,21 @@
         <v>166.1889</v>
       </c>
       <c r="G275" t="n">
+        <v>166.9733333333333</v>
+      </c>
+      <c r="H275" t="n">
         <v>165.4766666666665</v>
       </c>
-      <c r="H275" t="n">
-        <v>0</v>
-      </c>
       <c r="I275" t="n">
         <v>0</v>
       </c>
-      <c r="J275" t="inlineStr"/>
+      <c r="J275" t="n">
+        <v>0</v>
+      </c>
       <c r="K275" t="inlineStr"/>
-      <c r="L275" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M275" t="n">
+      <c r="L275" t="inlineStr"/>
+      <c r="M275" t="inlineStr"/>
+      <c r="N275" t="n">
         <v>1</v>
       </c>
     </row>
@@ -11056,22 +11341,21 @@
         <v>392.5079</v>
       </c>
       <c r="G276" t="n">
+        <v>167.1933333333333</v>
+      </c>
+      <c r="H276" t="n">
         <v>165.6449999999999</v>
       </c>
-      <c r="H276" t="n">
-        <v>0</v>
-      </c>
       <c r="I276" t="n">
         <v>0</v>
       </c>
-      <c r="J276" t="inlineStr"/>
+      <c r="J276" t="n">
+        <v>0</v>
+      </c>
       <c r="K276" t="inlineStr"/>
-      <c r="L276" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M276" t="n">
+      <c r="L276" t="inlineStr"/>
+      <c r="M276" t="inlineStr"/>
+      <c r="N276" t="n">
         <v>1</v>
       </c>
     </row>
@@ -11095,22 +11379,21 @@
         <v>370.7429</v>
       </c>
       <c r="G277" t="n">
+        <v>167.3333333333333</v>
+      </c>
+      <c r="H277" t="n">
         <v>165.7766666666666</v>
       </c>
-      <c r="H277" t="n">
-        <v>0</v>
-      </c>
       <c r="I277" t="n">
         <v>0</v>
       </c>
-      <c r="J277" t="inlineStr"/>
+      <c r="J277" t="n">
+        <v>0</v>
+      </c>
       <c r="K277" t="inlineStr"/>
-      <c r="L277" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M277" t="n">
+      <c r="L277" t="inlineStr"/>
+      <c r="M277" t="inlineStr"/>
+      <c r="N277" t="n">
         <v>1</v>
       </c>
     </row>
@@ -11134,22 +11417,21 @@
         <v>418.3789</v>
       </c>
       <c r="G278" t="n">
+        <v>167.44</v>
+      </c>
+      <c r="H278" t="n">
         <v>165.8733333333332</v>
       </c>
-      <c r="H278" t="n">
-        <v>0</v>
-      </c>
       <c r="I278" t="n">
         <v>0</v>
       </c>
-      <c r="J278" t="inlineStr"/>
+      <c r="J278" t="n">
+        <v>0</v>
+      </c>
       <c r="K278" t="inlineStr"/>
-      <c r="L278" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M278" t="n">
+      <c r="L278" t="inlineStr"/>
+      <c r="M278" t="inlineStr"/>
+      <c r="N278" t="n">
         <v>1</v>
       </c>
     </row>
@@ -11173,22 +11455,21 @@
         <v>375.6673</v>
       </c>
       <c r="G279" t="n">
+        <v>167.5066666666666</v>
+      </c>
+      <c r="H279" t="n">
         <v>165.8649999999999</v>
       </c>
-      <c r="H279" t="n">
-        <v>0</v>
-      </c>
       <c r="I279" t="n">
         <v>0</v>
       </c>
-      <c r="J279" t="inlineStr"/>
+      <c r="J279" t="n">
+        <v>0</v>
+      </c>
       <c r="K279" t="inlineStr"/>
-      <c r="L279" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M279" t="n">
+      <c r="L279" t="inlineStr"/>
+      <c r="M279" t="inlineStr"/>
+      <c r="N279" t="n">
         <v>1</v>
       </c>
     </row>
@@ -11212,22 +11493,21 @@
         <v>627.7767</v>
       </c>
       <c r="G280" t="n">
+        <v>167.5733333333333</v>
+      </c>
+      <c r="H280" t="n">
         <v>165.8649999999999</v>
       </c>
-      <c r="H280" t="n">
-        <v>0</v>
-      </c>
       <c r="I280" t="n">
         <v>0</v>
       </c>
-      <c r="J280" t="inlineStr"/>
+      <c r="J280" t="n">
+        <v>0</v>
+      </c>
       <c r="K280" t="inlineStr"/>
-      <c r="L280" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M280" t="n">
+      <c r="L280" t="inlineStr"/>
+      <c r="M280" t="inlineStr"/>
+      <c r="N280" t="n">
         <v>1</v>
       </c>
     </row>
@@ -11251,22 +11531,21 @@
         <v>160.057</v>
       </c>
       <c r="G281" t="n">
+        <v>167.6066666666666</v>
+      </c>
+      <c r="H281" t="n">
         <v>165.8966666666665</v>
       </c>
-      <c r="H281" t="n">
-        <v>0</v>
-      </c>
       <c r="I281" t="n">
         <v>0</v>
       </c>
-      <c r="J281" t="inlineStr"/>
+      <c r="J281" t="n">
+        <v>0</v>
+      </c>
       <c r="K281" t="inlineStr"/>
-      <c r="L281" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M281" t="n">
+      <c r="L281" t="inlineStr"/>
+      <c r="M281" t="inlineStr"/>
+      <c r="N281" t="n">
         <v>1</v>
       </c>
     </row>
@@ -11290,22 +11569,21 @@
         <v>5.8523</v>
       </c>
       <c r="G282" t="n">
+        <v>167.6066666666666</v>
+      </c>
+      <c r="H282" t="n">
         <v>165.9399999999999</v>
       </c>
-      <c r="H282" t="n">
-        <v>0</v>
-      </c>
       <c r="I282" t="n">
         <v>0</v>
       </c>
-      <c r="J282" t="inlineStr"/>
+      <c r="J282" t="n">
+        <v>0</v>
+      </c>
       <c r="K282" t="inlineStr"/>
-      <c r="L282" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M282" t="n">
+      <c r="L282" t="inlineStr"/>
+      <c r="M282" t="inlineStr"/>
+      <c r="N282" t="n">
         <v>1</v>
       </c>
     </row>
@@ -11329,22 +11607,21 @@
         <v>65</v>
       </c>
       <c r="G283" t="n">
+        <v>167.4666666666666</v>
+      </c>
+      <c r="H283" t="n">
         <v>165.9533333333332</v>
       </c>
-      <c r="H283" t="n">
-        <v>0</v>
-      </c>
       <c r="I283" t="n">
         <v>0</v>
       </c>
-      <c r="J283" t="inlineStr"/>
+      <c r="J283" t="n">
+        <v>0</v>
+      </c>
       <c r="K283" t="inlineStr"/>
-      <c r="L283" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M283" t="n">
+      <c r="L283" t="inlineStr"/>
+      <c r="M283" t="inlineStr"/>
+      <c r="N283" t="n">
         <v>1</v>
       </c>
     </row>
@@ -11368,22 +11645,21 @@
         <v>3520</v>
       </c>
       <c r="G284" t="n">
+        <v>167.3666666666666</v>
+      </c>
+      <c r="H284" t="n">
         <v>165.9666666666666</v>
       </c>
-      <c r="H284" t="n">
-        <v>0</v>
-      </c>
       <c r="I284" t="n">
         <v>0</v>
       </c>
-      <c r="J284" t="inlineStr"/>
+      <c r="J284" t="n">
+        <v>0</v>
+      </c>
       <c r="K284" t="inlineStr"/>
-      <c r="L284" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M284" t="n">
+      <c r="L284" t="inlineStr"/>
+      <c r="M284" t="inlineStr"/>
+      <c r="N284" t="n">
         <v>1</v>
       </c>
     </row>
@@ -11407,22 +11683,21 @@
         <v>259.9694</v>
       </c>
       <c r="G285" t="n">
+        <v>167.32</v>
+      </c>
+      <c r="H285" t="n">
         <v>166.0116666666666</v>
       </c>
-      <c r="H285" t="n">
-        <v>0</v>
-      </c>
       <c r="I285" t="n">
         <v>0</v>
       </c>
-      <c r="J285" t="inlineStr"/>
+      <c r="J285" t="n">
+        <v>0</v>
+      </c>
       <c r="K285" t="inlineStr"/>
-      <c r="L285" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M285" t="n">
+      <c r="L285" t="inlineStr"/>
+      <c r="M285" t="inlineStr"/>
+      <c r="N285" t="n">
         <v>1</v>
       </c>
     </row>
@@ -11446,22 +11721,21 @@
         <v>104.2279</v>
       </c>
       <c r="G286" t="n">
+        <v>167.32</v>
+      </c>
+      <c r="H286" t="n">
         <v>166.0683333333332</v>
       </c>
-      <c r="H286" t="n">
-        <v>0</v>
-      </c>
       <c r="I286" t="n">
         <v>0</v>
       </c>
-      <c r="J286" t="inlineStr"/>
+      <c r="J286" t="n">
+        <v>0</v>
+      </c>
       <c r="K286" t="inlineStr"/>
-      <c r="L286" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M286" t="n">
+      <c r="L286" t="inlineStr"/>
+      <c r="M286" t="inlineStr"/>
+      <c r="N286" t="n">
         <v>1</v>
       </c>
     </row>
@@ -11485,22 +11759,21 @@
         <v>306.5651</v>
       </c>
       <c r="G287" t="n">
+        <v>167.32</v>
+      </c>
+      <c r="H287" t="n">
         <v>166.1416666666666</v>
       </c>
-      <c r="H287" t="n">
-        <v>0</v>
-      </c>
       <c r="I287" t="n">
         <v>0</v>
       </c>
-      <c r="J287" t="inlineStr"/>
+      <c r="J287" t="n">
+        <v>0</v>
+      </c>
       <c r="K287" t="inlineStr"/>
-      <c r="L287" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M287" t="n">
+      <c r="L287" t="inlineStr"/>
+      <c r="M287" t="inlineStr"/>
+      <c r="N287" t="n">
         <v>1</v>
       </c>
     </row>
@@ -11524,22 +11797,21 @@
         <v>52.0094</v>
       </c>
       <c r="G288" t="n">
+        <v>167.28</v>
+      </c>
+      <c r="H288" t="n">
         <v>166.1949999999999</v>
       </c>
-      <c r="H288" t="n">
-        <v>0</v>
-      </c>
       <c r="I288" t="n">
         <v>0</v>
       </c>
-      <c r="J288" t="inlineStr"/>
+      <c r="J288" t="n">
+        <v>0</v>
+      </c>
       <c r="K288" t="inlineStr"/>
-      <c r="L288" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M288" t="n">
+      <c r="L288" t="inlineStr"/>
+      <c r="M288" t="inlineStr"/>
+      <c r="N288" t="n">
         <v>1</v>
       </c>
     </row>
@@ -11563,22 +11835,21 @@
         <v>334.1666</v>
       </c>
       <c r="G289" t="n">
+        <v>167.3533333333333</v>
+      </c>
+      <c r="H289" t="n">
         <v>166.2766666666666</v>
       </c>
-      <c r="H289" t="n">
-        <v>0</v>
-      </c>
       <c r="I289" t="n">
         <v>0</v>
       </c>
-      <c r="J289" t="inlineStr"/>
+      <c r="J289" t="n">
+        <v>0</v>
+      </c>
       <c r="K289" t="inlineStr"/>
-      <c r="L289" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M289" t="n">
+      <c r="L289" t="inlineStr"/>
+      <c r="M289" t="inlineStr"/>
+      <c r="N289" t="n">
         <v>1</v>
       </c>
     </row>
@@ -11602,22 +11873,21 @@
         <v>8078.4704</v>
       </c>
       <c r="G290" t="n">
+        <v>167.1866666666666</v>
+      </c>
+      <c r="H290" t="n">
         <v>166.2983333333332</v>
       </c>
-      <c r="H290" t="n">
-        <v>0</v>
-      </c>
       <c r="I290" t="n">
         <v>0</v>
       </c>
-      <c r="J290" t="inlineStr"/>
+      <c r="J290" t="n">
+        <v>0</v>
+      </c>
       <c r="K290" t="inlineStr"/>
-      <c r="L290" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M290" t="n">
+      <c r="L290" t="inlineStr"/>
+      <c r="M290" t="inlineStr"/>
+      <c r="N290" t="n">
         <v>1</v>
       </c>
     </row>
@@ -11641,22 +11911,21 @@
         <v>9.303900000000001</v>
       </c>
       <c r="G291" t="n">
+        <v>167.1133333333333</v>
+      </c>
+      <c r="H291" t="n">
         <v>166.3499999999999</v>
       </c>
-      <c r="H291" t="n">
-        <v>0</v>
-      </c>
       <c r="I291" t="n">
         <v>0</v>
       </c>
-      <c r="J291" t="inlineStr"/>
+      <c r="J291" t="n">
+        <v>0</v>
+      </c>
       <c r="K291" t="inlineStr"/>
-      <c r="L291" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M291" t="n">
+      <c r="L291" t="inlineStr"/>
+      <c r="M291" t="inlineStr"/>
+      <c r="N291" t="n">
         <v>1</v>
       </c>
     </row>
@@ -11680,22 +11949,21 @@
         <v>38.2371</v>
       </c>
       <c r="G292" t="n">
+        <v>166.8866666666667</v>
+      </c>
+      <c r="H292" t="n">
         <v>166.3633333333333</v>
       </c>
-      <c r="H292" t="n">
-        <v>0</v>
-      </c>
       <c r="I292" t="n">
         <v>0</v>
       </c>
-      <c r="J292" t="inlineStr"/>
+      <c r="J292" t="n">
+        <v>0</v>
+      </c>
       <c r="K292" t="inlineStr"/>
-      <c r="L292" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M292" t="n">
+      <c r="L292" t="inlineStr"/>
+      <c r="M292" t="inlineStr"/>
+      <c r="N292" t="n">
         <v>1</v>
       </c>
     </row>
@@ -11719,22 +11987,21 @@
         <v>39.1197</v>
       </c>
       <c r="G293" t="n">
+        <v>166.82</v>
+      </c>
+      <c r="H293" t="n">
         <v>166.4083333333333</v>
       </c>
-      <c r="H293" t="n">
-        <v>0</v>
-      </c>
       <c r="I293" t="n">
         <v>0</v>
       </c>
-      <c r="J293" t="inlineStr"/>
+      <c r="J293" t="n">
+        <v>0</v>
+      </c>
       <c r="K293" t="inlineStr"/>
-      <c r="L293" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M293" t="n">
+      <c r="L293" t="inlineStr"/>
+      <c r="M293" t="inlineStr"/>
+      <c r="N293" t="n">
         <v>1</v>
       </c>
     </row>
@@ -11758,22 +12025,21 @@
         <v>2735.4171</v>
       </c>
       <c r="G294" t="n">
+        <v>166.62</v>
+      </c>
+      <c r="H294" t="n">
         <v>166.42</v>
       </c>
-      <c r="H294" t="n">
-        <v>0</v>
-      </c>
       <c r="I294" t="n">
         <v>0</v>
       </c>
-      <c r="J294" t="inlineStr"/>
+      <c r="J294" t="n">
+        <v>0</v>
+      </c>
       <c r="K294" t="inlineStr"/>
-      <c r="L294" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M294" t="n">
+      <c r="L294" t="inlineStr"/>
+      <c r="M294" t="inlineStr"/>
+      <c r="N294" t="n">
         <v>1</v>
       </c>
     </row>
@@ -11797,22 +12063,21 @@
         <v>4.6602</v>
       </c>
       <c r="G295" t="n">
+        <v>166.5533333333333</v>
+      </c>
+      <c r="H295" t="n">
         <v>166.465</v>
       </c>
-      <c r="H295" t="n">
-        <v>0</v>
-      </c>
       <c r="I295" t="n">
         <v>0</v>
       </c>
-      <c r="J295" t="inlineStr"/>
+      <c r="J295" t="n">
+        <v>0</v>
+      </c>
       <c r="K295" t="inlineStr"/>
-      <c r="L295" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M295" t="n">
+      <c r="L295" t="inlineStr"/>
+      <c r="M295" t="inlineStr"/>
+      <c r="N295" t="n">
         <v>1</v>
       </c>
     </row>
@@ -11836,22 +12101,21 @@
         <v>249.3969</v>
       </c>
       <c r="G296" t="n">
+        <v>166.4866666666667</v>
+      </c>
+      <c r="H296" t="n">
         <v>166.4766666666666</v>
       </c>
-      <c r="H296" t="n">
-        <v>0</v>
-      </c>
       <c r="I296" t="n">
         <v>0</v>
       </c>
-      <c r="J296" t="inlineStr"/>
+      <c r="J296" t="n">
+        <v>0</v>
+      </c>
       <c r="K296" t="inlineStr"/>
-      <c r="L296" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M296" t="n">
+      <c r="L296" t="inlineStr"/>
+      <c r="M296" t="inlineStr"/>
+      <c r="N296" t="n">
         <v>1</v>
       </c>
     </row>
@@ -11875,22 +12139,21 @@
         <v>4.7054</v>
       </c>
       <c r="G297" t="n">
+        <v>166.42</v>
+      </c>
+      <c r="H297" t="n">
         <v>166.505</v>
       </c>
-      <c r="H297" t="n">
-        <v>0</v>
-      </c>
       <c r="I297" t="n">
         <v>0</v>
       </c>
-      <c r="J297" t="inlineStr"/>
+      <c r="J297" t="n">
+        <v>0</v>
+      </c>
       <c r="K297" t="inlineStr"/>
-      <c r="L297" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M297" t="n">
+      <c r="L297" t="inlineStr"/>
+      <c r="M297" t="inlineStr"/>
+      <c r="N297" t="n">
         <v>1</v>
       </c>
     </row>
@@ -11914,22 +12177,21 @@
         <v>39.1197</v>
       </c>
       <c r="G298" t="n">
+        <v>166.3666666666667</v>
+      </c>
+      <c r="H298" t="n">
         <v>166.5133333333333</v>
       </c>
-      <c r="H298" t="n">
-        <v>0</v>
-      </c>
       <c r="I298" t="n">
         <v>0</v>
       </c>
-      <c r="J298" t="inlineStr"/>
+      <c r="J298" t="n">
+        <v>0</v>
+      </c>
       <c r="K298" t="inlineStr"/>
-      <c r="L298" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M298" t="n">
+      <c r="L298" t="inlineStr"/>
+      <c r="M298" t="inlineStr"/>
+      <c r="N298" t="n">
         <v>1</v>
       </c>
     </row>
@@ -11953,22 +12215,401 @@
         <v>18.3042</v>
       </c>
       <c r="G299" t="n">
+        <v>166.32</v>
+      </c>
+      <c r="H299" t="n">
         <v>166.4966666666666</v>
       </c>
-      <c r="H299" t="n">
-        <v>0</v>
-      </c>
       <c r="I299" t="n">
         <v>0</v>
       </c>
-      <c r="J299" t="inlineStr"/>
+      <c r="J299" t="n">
+        <v>0</v>
+      </c>
       <c r="K299" t="inlineStr"/>
-      <c r="L299" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M299" t="n">
+      <c r="L299" t="inlineStr"/>
+      <c r="M299" t="inlineStr"/>
+      <c r="N299" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" s="1" t="n">
+        <v>298</v>
+      </c>
+      <c r="B300" t="n">
+        <v>164.8</v>
+      </c>
+      <c r="C300" t="n">
+        <v>164.2</v>
+      </c>
+      <c r="D300" t="n">
+        <v>164.8</v>
+      </c>
+      <c r="E300" t="n">
+        <v>164.2</v>
+      </c>
+      <c r="F300" t="n">
+        <v>1730.4287</v>
+      </c>
+      <c r="G300" t="n">
+        <v>166.1333333333333</v>
+      </c>
+      <c r="H300" t="n">
+        <v>166.47</v>
+      </c>
+      <c r="I300" t="n">
+        <v>0</v>
+      </c>
+      <c r="J300" t="n">
+        <v>0</v>
+      </c>
+      <c r="K300" t="inlineStr"/>
+      <c r="L300" t="inlineStr"/>
+      <c r="M300" t="inlineStr"/>
+      <c r="N300" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" s="1" t="n">
+        <v>299</v>
+      </c>
+      <c r="B301" t="n">
+        <v>163.7</v>
+      </c>
+      <c r="C301" t="n">
+        <v>164</v>
+      </c>
+      <c r="D301" t="n">
+        <v>164</v>
+      </c>
+      <c r="E301" t="n">
+        <v>163.7</v>
+      </c>
+      <c r="F301" t="n">
+        <v>1925.9296</v>
+      </c>
+      <c r="G301" t="n">
+        <v>165.8866666666667</v>
+      </c>
+      <c r="H301" t="n">
+        <v>166.44</v>
+      </c>
+      <c r="I301" t="n">
+        <v>0</v>
+      </c>
+      <c r="J301" t="n">
+        <v>0</v>
+      </c>
+      <c r="K301" t="inlineStr"/>
+      <c r="L301" t="inlineStr"/>
+      <c r="M301" t="inlineStr"/>
+      <c r="N301" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" s="1" t="n">
+        <v>300</v>
+      </c>
+      <c r="B302" t="n">
+        <v>163.8</v>
+      </c>
+      <c r="C302" t="n">
+        <v>163</v>
+      </c>
+      <c r="D302" t="n">
+        <v>163.8</v>
+      </c>
+      <c r="E302" t="n">
+        <v>162.9</v>
+      </c>
+      <c r="F302" t="n">
+        <v>23118.9798</v>
+      </c>
+      <c r="G302" t="n">
+        <v>165.5733333333334</v>
+      </c>
+      <c r="H302" t="n">
+        <v>166.4416666666667</v>
+      </c>
+      <c r="I302" t="n">
+        <v>0</v>
+      </c>
+      <c r="J302" t="n">
+        <v>0</v>
+      </c>
+      <c r="K302" t="inlineStr"/>
+      <c r="L302" t="inlineStr"/>
+      <c r="M302" t="inlineStr"/>
+      <c r="N302" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" s="1" t="n">
+        <v>301</v>
+      </c>
+      <c r="B303" t="n">
+        <v>163</v>
+      </c>
+      <c r="C303" t="n">
+        <v>166.8</v>
+      </c>
+      <c r="D303" t="n">
+        <v>166.8</v>
+      </c>
+      <c r="E303" t="n">
+        <v>163</v>
+      </c>
+      <c r="F303" t="n">
+        <v>4823.1979</v>
+      </c>
+      <c r="G303" t="n">
+        <v>165.5333333333334</v>
+      </c>
+      <c r="H303" t="n">
+        <v>166.435</v>
+      </c>
+      <c r="I303" t="n">
+        <v>0</v>
+      </c>
+      <c r="J303" t="n">
+        <v>0</v>
+      </c>
+      <c r="K303" t="inlineStr"/>
+      <c r="L303" t="inlineStr"/>
+      <c r="M303" t="inlineStr"/>
+      <c r="N303" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" s="1" t="n">
+        <v>302</v>
+      </c>
+      <c r="B304" t="n">
+        <v>164</v>
+      </c>
+      <c r="C304" t="n">
+        <v>164</v>
+      </c>
+      <c r="D304" t="n">
+        <v>164</v>
+      </c>
+      <c r="E304" t="n">
+        <v>164</v>
+      </c>
+      <c r="F304" t="n">
+        <v>2503.0821</v>
+      </c>
+      <c r="G304" t="n">
+        <v>165.3066666666667</v>
+      </c>
+      <c r="H304" t="n">
+        <v>166.4183333333334</v>
+      </c>
+      <c r="I304" t="n">
+        <v>0</v>
+      </c>
+      <c r="J304" t="n">
+        <v>0</v>
+      </c>
+      <c r="K304" t="inlineStr"/>
+      <c r="L304" t="inlineStr"/>
+      <c r="M304" t="inlineStr"/>
+      <c r="N304" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" s="1" t="n">
+        <v>303</v>
+      </c>
+      <c r="B305" t="n">
+        <v>163.5</v>
+      </c>
+      <c r="C305" t="n">
+        <v>163.5</v>
+      </c>
+      <c r="D305" t="n">
+        <v>163.5</v>
+      </c>
+      <c r="E305" t="n">
+        <v>163.5</v>
+      </c>
+      <c r="F305" t="n">
+        <v>2506.752</v>
+      </c>
+      <c r="G305" t="n">
+        <v>165.1733333333333</v>
+      </c>
+      <c r="H305" t="n">
+        <v>166.3616666666667</v>
+      </c>
+      <c r="I305" t="n">
+        <v>0</v>
+      </c>
+      <c r="J305" t="n">
+        <v>0</v>
+      </c>
+      <c r="K305" t="inlineStr"/>
+      <c r="L305" t="inlineStr"/>
+      <c r="M305" t="inlineStr"/>
+      <c r="N305" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" s="1" t="n">
+        <v>304</v>
+      </c>
+      <c r="B306" t="n">
+        <v>163.5</v>
+      </c>
+      <c r="C306" t="n">
+        <v>162.9</v>
+      </c>
+      <c r="D306" t="n">
+        <v>163.5</v>
+      </c>
+      <c r="E306" t="n">
+        <v>162.9</v>
+      </c>
+      <c r="F306" t="n">
+        <v>10049.5725</v>
+      </c>
+      <c r="G306" t="n">
+        <v>164.8733333333334</v>
+      </c>
+      <c r="H306" t="n">
+        <v>166.2966666666667</v>
+      </c>
+      <c r="I306" t="n">
+        <v>0</v>
+      </c>
+      <c r="J306" t="n">
+        <v>0</v>
+      </c>
+      <c r="K306" t="inlineStr"/>
+      <c r="L306" t="inlineStr"/>
+      <c r="M306" t="inlineStr"/>
+      <c r="N306" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" s="1" t="n">
+        <v>305</v>
+      </c>
+      <c r="B307" t="n">
+        <v>162.9</v>
+      </c>
+      <c r="C307" t="n">
+        <v>162.9</v>
+      </c>
+      <c r="D307" t="n">
+        <v>162.9</v>
+      </c>
+      <c r="E307" t="n">
+        <v>162.9</v>
+      </c>
+      <c r="F307" t="n">
+        <v>7.4169</v>
+      </c>
+      <c r="G307" t="n">
+        <v>164.7266666666667</v>
+      </c>
+      <c r="H307" t="n">
+        <v>166.235</v>
+      </c>
+      <c r="I307" t="n">
+        <v>0</v>
+      </c>
+      <c r="J307" t="n">
+        <v>0</v>
+      </c>
+      <c r="K307" t="inlineStr"/>
+      <c r="L307" t="inlineStr"/>
+      <c r="M307" t="inlineStr"/>
+      <c r="N307" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" s="1" t="n">
+        <v>306</v>
+      </c>
+      <c r="B308" t="n">
+        <v>162.9</v>
+      </c>
+      <c r="C308" t="n">
+        <v>162.8</v>
+      </c>
+      <c r="D308" t="n">
+        <v>162.9</v>
+      </c>
+      <c r="E308" t="n">
+        <v>162.8</v>
+      </c>
+      <c r="F308" t="n">
+        <v>2577.563</v>
+      </c>
+      <c r="G308" t="n">
+        <v>164.4466666666667</v>
+      </c>
+      <c r="H308" t="n">
+        <v>166.1716666666667</v>
+      </c>
+      <c r="I308" t="n">
+        <v>0</v>
+      </c>
+      <c r="J308" t="n">
+        <v>0</v>
+      </c>
+      <c r="K308" t="inlineStr"/>
+      <c r="L308" t="inlineStr"/>
+      <c r="M308" t="inlineStr"/>
+      <c r="N308" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" s="1" t="n">
+        <v>307</v>
+      </c>
+      <c r="B309" t="n">
+        <v>162.8</v>
+      </c>
+      <c r="C309" t="n">
+        <v>162.8</v>
+      </c>
+      <c r="D309" t="n">
+        <v>162.8</v>
+      </c>
+      <c r="E309" t="n">
+        <v>162.8</v>
+      </c>
+      <c r="F309" t="n">
+        <v>2332.4297</v>
+      </c>
+      <c r="G309" t="n">
+        <v>164.3000000000001</v>
+      </c>
+      <c r="H309" t="n">
+        <v>166.1016666666666</v>
+      </c>
+      <c r="I309" t="n">
+        <v>0</v>
+      </c>
+      <c r="J309" t="n">
+        <v>0</v>
+      </c>
+      <c r="K309" t="inlineStr"/>
+      <c r="L309" t="inlineStr"/>
+      <c r="M309" t="inlineStr"/>
+      <c r="N309" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2020-01-16 BackTest STEEM.xlsx
+++ b/BackTest/2020-01-16 BackTest STEEM.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>63501.97921734998</v>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>63501.97921734998</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I3" t="n">
         <v>152.5</v>
@@ -521,7 +521,7 @@
         <v>53351.92291734998</v>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I4" t="n">
         <v>152.5</v>
@@ -562,7 +562,7 @@
         <v>53641.83791734998</v>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I5" t="n">
         <v>150.4</v>
@@ -603,7 +603,7 @@
         <v>53873.90691734998</v>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I6" t="n">
         <v>151.4</v>
@@ -644,7 +644,7 @@
         <v>53873.90691734998</v>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I7" t="n">
         <v>153</v>
@@ -685,7 +685,7 @@
         <v>46373.90691734998</v>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I8" t="n">
         <v>153</v>
@@ -726,7 +726,7 @@
         <v>47636.32061734998</v>
       </c>
       <c r="H9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I9" t="n">
         <v>151.8</v>
@@ -767,7 +767,7 @@
         <v>53962.44871734998</v>
       </c>
       <c r="H10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I10" t="n">
         <v>152.2</v>
@@ -808,7 +808,7 @@
         <v>51714.44871734998</v>
       </c>
       <c r="H11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I11" t="n">
         <v>154.1</v>
@@ -849,7 +849,7 @@
         <v>51714.44871734998</v>
       </c>
       <c r="H12" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I12" t="n">
         <v>152.2</v>
@@ -890,7 +890,7 @@
         <v>54058.00651734998</v>
       </c>
       <c r="H13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I13" t="n">
         <v>152.2</v>
@@ -931,7 +931,7 @@
         <v>54064.60471734998</v>
       </c>
       <c r="H14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I14" t="n">
         <v>152.7</v>
@@ -972,7 +972,7 @@
         <v>53823.18571734998</v>
       </c>
       <c r="H15" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I15" t="n">
         <v>153</v>
@@ -1013,7 +1013,7 @@
         <v>53823.18571734998</v>
       </c>
       <c r="H16" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I16" t="n">
         <v>152.2</v>
@@ -1054,7 +1054,7 @@
         <v>53773.87981734998</v>
       </c>
       <c r="H17" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I17" t="n">
         <v>152.2</v>
@@ -1095,7 +1095,7 @@
         <v>54077.88731734998</v>
       </c>
       <c r="H18" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I18" t="n">
         <v>152</v>
@@ -1136,7 +1136,7 @@
         <v>54077.88731734998</v>
       </c>
       <c r="H19" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I19" t="n">
         <v>153.9</v>
@@ -1177,7 +1177,7 @@
         <v>54077.88731734998</v>
       </c>
       <c r="H20" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I20" t="n">
         <v>153.9</v>
@@ -1218,7 +1218,7 @@
         <v>51391.50821734998</v>
       </c>
       <c r="H21" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I21" t="n">
         <v>153.9</v>
@@ -1259,7 +1259,7 @@
         <v>51521.50821734998</v>
       </c>
       <c r="H22" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I22" t="n">
         <v>152.1</v>
@@ -1300,9 +1300,11 @@
         <v>45911.11781734998</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
-      </c>
-      <c r="I23" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I23" t="n">
+        <v>154</v>
+      </c>
       <c r="J23" t="n">
         <v>152.5</v>
       </c>
@@ -1339,9 +1341,11 @@
         <v>47459.04126768998</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
-      </c>
-      <c r="I24" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I24" t="n">
+        <v>152.2</v>
+      </c>
       <c r="J24" t="n">
         <v>152.5</v>
       </c>
@@ -1378,9 +1382,11 @@
         <v>47459.04126768998</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
-      </c>
-      <c r="I25" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I25" t="n">
+        <v>154.1</v>
+      </c>
       <c r="J25" t="n">
         <v>152.5</v>
       </c>
@@ -1417,9 +1423,11 @@
         <v>59402.90326768998</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
-      </c>
-      <c r="I26" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I26" t="n">
+        <v>154.1</v>
+      </c>
       <c r="J26" t="n">
         <v>152.5</v>
       </c>
@@ -1456,7 +1464,7 @@
         <v>59402.90326768998</v>
       </c>
       <c r="H27" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I27" t="n">
         <v>155</v>
@@ -1497,9 +1505,11 @@
         <v>59301.70756768998</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
-      </c>
-      <c r="I28" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I28" t="n">
+        <v>155</v>
+      </c>
       <c r="J28" t="n">
         <v>152.5</v>
       </c>
@@ -1536,7 +1546,7 @@
         <v>64947.86336768998</v>
       </c>
       <c r="H29" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I29" t="n">
         <v>153.2</v>
@@ -1577,9 +1587,11 @@
         <v>64428.78036768999</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
-      </c>
-      <c r="I30" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I30" t="n">
+        <v>154.8</v>
+      </c>
       <c r="J30" t="n">
         <v>152.5</v>
       </c>
@@ -1616,9 +1628,11 @@
         <v>64428.78036768999</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
-      </c>
-      <c r="I31" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I31" t="n">
+        <v>152</v>
+      </c>
       <c r="J31" t="n">
         <v>152.5</v>
       </c>
@@ -1655,7 +1669,7 @@
         <v>64428.78036768999</v>
       </c>
       <c r="H32" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I32" t="n">
         <v>152</v>
@@ -1696,7 +1710,7 @@
         <v>64428.78036768999</v>
       </c>
       <c r="H33" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I33" t="n">
         <v>152</v>
@@ -1737,7 +1751,7 @@
         <v>89687.44926768998</v>
       </c>
       <c r="H34" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I34" t="n">
         <v>152</v>
@@ -1778,7 +1792,7 @@
         <v>90148.33666768999</v>
       </c>
       <c r="H35" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I35" t="n">
         <v>153.9</v>
@@ -1819,9 +1833,11 @@
         <v>92506.56986768999</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
-      </c>
-      <c r="I36" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I36" t="n">
+        <v>154</v>
+      </c>
       <c r="J36" t="n">
         <v>152.5</v>
       </c>
@@ -2443,9 +2459,11 @@
         <v>92477.65736768999</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
-      </c>
-      <c r="I52" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I52" t="n">
+        <v>156.9</v>
+      </c>
       <c r="J52" t="n">
         <v>152.5</v>
       </c>
@@ -2677,7 +2695,7 @@
         <v>122303.69316769</v>
       </c>
       <c r="H58" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="n">
@@ -2833,7 +2851,7 @@
         <v>127599.03286769</v>
       </c>
       <c r="H62" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="n">
@@ -2872,7 +2890,7 @@
         <v>142243.36256769</v>
       </c>
       <c r="H63" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="n">
@@ -3262,7 +3280,7 @@
         <v>321447.0903671199</v>
       </c>
       <c r="H73" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="n">
@@ -3301,7 +3319,7 @@
         <v>347905.4910671199</v>
       </c>
       <c r="H74" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="n">
@@ -3340,7 +3358,7 @@
         <v>347905.4910671199</v>
       </c>
       <c r="H75" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="n">
@@ -3379,7 +3397,7 @@
         <v>353648.7122671199</v>
       </c>
       <c r="H76" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="n">
@@ -3418,7 +3436,7 @@
         <v>349392.2746671199</v>
       </c>
       <c r="H77" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="n">
@@ -3457,7 +3475,7 @@
         <v>325134.1793671199</v>
       </c>
       <c r="H78" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="n">
@@ -3496,7 +3514,7 @@
         <v>325134.1793671199</v>
       </c>
       <c r="H79" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="n">
@@ -3574,7 +3592,7 @@
         <v>325134.1793671199</v>
       </c>
       <c r="H81" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="n">
@@ -3613,7 +3631,7 @@
         <v>329813.0460671199</v>
       </c>
       <c r="H82" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="n">
@@ -3652,7 +3670,7 @@
         <v>329657.0460671199</v>
       </c>
       <c r="H83" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="n">
@@ -3964,7 +3982,7 @@
         <v>351422.3140552399</v>
       </c>
       <c r="H91" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="n">
@@ -4783,7 +4801,7 @@
         <v>366966.1799292698</v>
       </c>
       <c r="H112" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="n">
@@ -4791,13 +4809,15 @@
       </c>
       <c r="K112" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
       <c r="L112" t="n">
-        <v>1</v>
-      </c>
-      <c r="M112" t="inlineStr"/>
+        <v>1.070409836065574</v>
+      </c>
+      <c r="M112" t="n">
+        <v>1.00327868852459</v>
+      </c>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4822,17 +4842,11 @@
         <v>396848.6150292698</v>
       </c>
       <c r="H113" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I113" t="inlineStr"/>
-      <c r="J113" t="n">
-        <v>152.5</v>
-      </c>
-      <c r="K113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J113" t="inlineStr"/>
+      <c r="K113" t="inlineStr"/>
       <c r="L113" t="n">
         <v>1</v>
       </c>
@@ -4861,17 +4875,11 @@
         <v>396848.6150292698</v>
       </c>
       <c r="H114" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I114" t="inlineStr"/>
-      <c r="J114" t="n">
-        <v>152.5</v>
-      </c>
-      <c r="K114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J114" t="inlineStr"/>
+      <c r="K114" t="inlineStr"/>
       <c r="L114" t="n">
         <v>1</v>
       </c>
@@ -4900,17 +4908,11 @@
         <v>399198.7710292698</v>
       </c>
       <c r="H115" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I115" t="inlineStr"/>
-      <c r="J115" t="n">
-        <v>152.5</v>
-      </c>
-      <c r="K115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J115" t="inlineStr"/>
+      <c r="K115" t="inlineStr"/>
       <c r="L115" t="n">
         <v>1</v>
       </c>
@@ -4939,17 +4941,11 @@
         <v>399198.7710292698</v>
       </c>
       <c r="H116" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I116" t="inlineStr"/>
-      <c r="J116" t="n">
-        <v>152.5</v>
-      </c>
-      <c r="K116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J116" t="inlineStr"/>
+      <c r="K116" t="inlineStr"/>
       <c r="L116" t="n">
         <v>1</v>
       </c>
@@ -4981,14 +4977,8 @@
         <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
-      <c r="J117" t="n">
-        <v>152.5</v>
-      </c>
-      <c r="K117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="inlineStr"/>
       <c r="L117" t="n">
         <v>1</v>
       </c>
@@ -5017,17 +5007,11 @@
         <v>377446.8681292699</v>
       </c>
       <c r="H118" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I118" t="inlineStr"/>
-      <c r="J118" t="n">
-        <v>152.5</v>
-      </c>
-      <c r="K118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="inlineStr"/>
       <c r="L118" t="n">
         <v>1</v>
       </c>
@@ -5056,17 +5040,11 @@
         <v>375689.2744292698</v>
       </c>
       <c r="H119" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I119" t="inlineStr"/>
-      <c r="J119" t="n">
-        <v>152.5</v>
-      </c>
-      <c r="K119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J119" t="inlineStr"/>
+      <c r="K119" t="inlineStr"/>
       <c r="L119" t="n">
         <v>1</v>
       </c>
@@ -5095,17 +5073,11 @@
         <v>378106.6464292698</v>
       </c>
       <c r="H120" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I120" t="inlineStr"/>
-      <c r="J120" t="n">
-        <v>152.5</v>
-      </c>
-      <c r="K120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J120" t="inlineStr"/>
+      <c r="K120" t="inlineStr"/>
       <c r="L120" t="n">
         <v>1</v>
       </c>
@@ -5137,14 +5109,8 @@
         <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
-      <c r="J121" t="n">
-        <v>152.5</v>
-      </c>
-      <c r="K121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J121" t="inlineStr"/>
+      <c r="K121" t="inlineStr"/>
       <c r="L121" t="n">
         <v>1</v>
       </c>
@@ -5173,17 +5139,11 @@
         <v>363619.3192292698</v>
       </c>
       <c r="H122" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I122" t="inlineStr"/>
-      <c r="J122" t="n">
-        <v>152.5</v>
-      </c>
-      <c r="K122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J122" t="inlineStr"/>
+      <c r="K122" t="inlineStr"/>
       <c r="L122" t="n">
         <v>1</v>
       </c>
@@ -5212,17 +5172,11 @@
         <v>350890.2306407798</v>
       </c>
       <c r="H123" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I123" t="inlineStr"/>
-      <c r="J123" t="n">
-        <v>152.5</v>
-      </c>
-      <c r="K123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J123" t="inlineStr"/>
+      <c r="K123" t="inlineStr"/>
       <c r="L123" t="n">
         <v>1</v>
       </c>
@@ -5251,17 +5205,11 @@
         <v>351770.2306407798</v>
       </c>
       <c r="H124" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I124" t="inlineStr"/>
-      <c r="J124" t="n">
-        <v>152.5</v>
-      </c>
-      <c r="K124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J124" t="inlineStr"/>
+      <c r="K124" t="inlineStr"/>
       <c r="L124" t="n">
         <v>1</v>
       </c>
@@ -5290,17 +5238,11 @@
         <v>351379.6406407798</v>
       </c>
       <c r="H125" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I125" t="inlineStr"/>
-      <c r="J125" t="n">
-        <v>152.5</v>
-      </c>
-      <c r="K125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J125" t="inlineStr"/>
+      <c r="K125" t="inlineStr"/>
       <c r="L125" t="n">
         <v>1</v>
       </c>
@@ -5329,17 +5271,11 @@
         <v>354831.0686407798</v>
       </c>
       <c r="H126" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I126" t="inlineStr"/>
-      <c r="J126" t="n">
-        <v>152.5</v>
-      </c>
-      <c r="K126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J126" t="inlineStr"/>
+      <c r="K126" t="inlineStr"/>
       <c r="L126" t="n">
         <v>1</v>
       </c>
@@ -5371,14 +5307,8 @@
         <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
-      <c r="J127" t="n">
-        <v>152.5</v>
-      </c>
-      <c r="K127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J127" t="inlineStr"/>
+      <c r="K127" t="inlineStr"/>
       <c r="L127" t="n">
         <v>1</v>
       </c>
@@ -5410,14 +5340,8 @@
         <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
-      <c r="J128" t="n">
-        <v>152.5</v>
-      </c>
-      <c r="K128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J128" t="inlineStr"/>
+      <c r="K128" t="inlineStr"/>
       <c r="L128" t="n">
         <v>1</v>
       </c>
@@ -5449,14 +5373,8 @@
         <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
-      <c r="J129" t="n">
-        <v>152.5</v>
-      </c>
-      <c r="K129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J129" t="inlineStr"/>
+      <c r="K129" t="inlineStr"/>
       <c r="L129" t="n">
         <v>1</v>
       </c>
@@ -5488,14 +5406,8 @@
         <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
-      <c r="J130" t="n">
-        <v>152.5</v>
-      </c>
-      <c r="K130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J130" t="inlineStr"/>
+      <c r="K130" t="inlineStr"/>
       <c r="L130" t="n">
         <v>1</v>
       </c>
@@ -5527,14 +5439,8 @@
         <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
-      <c r="J131" t="n">
-        <v>152.5</v>
-      </c>
-      <c r="K131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J131" t="inlineStr"/>
+      <c r="K131" t="inlineStr"/>
       <c r="L131" t="n">
         <v>1</v>
       </c>
@@ -5566,14 +5472,8 @@
         <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
-      <c r="J132" t="n">
-        <v>152.5</v>
-      </c>
-      <c r="K132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J132" t="inlineStr"/>
+      <c r="K132" t="inlineStr"/>
       <c r="L132" t="n">
         <v>1</v>
       </c>
@@ -5605,14 +5505,8 @@
         <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
-      <c r="J133" t="n">
-        <v>152.5</v>
-      </c>
-      <c r="K133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J133" t="inlineStr"/>
+      <c r="K133" t="inlineStr"/>
       <c r="L133" t="n">
         <v>1</v>
       </c>
@@ -5644,14 +5538,8 @@
         <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
-      <c r="J134" t="n">
-        <v>152.5</v>
-      </c>
-      <c r="K134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J134" t="inlineStr"/>
+      <c r="K134" t="inlineStr"/>
       <c r="L134" t="n">
         <v>1</v>
       </c>
@@ -5683,14 +5571,8 @@
         <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
-      <c r="J135" t="n">
-        <v>152.5</v>
-      </c>
-      <c r="K135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J135" t="inlineStr"/>
+      <c r="K135" t="inlineStr"/>
       <c r="L135" t="n">
         <v>1</v>
       </c>
@@ -5719,17 +5601,11 @@
         <v>379696.7844407798</v>
       </c>
       <c r="H136" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I136" t="inlineStr"/>
-      <c r="J136" t="n">
-        <v>152.5</v>
-      </c>
-      <c r="K136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J136" t="inlineStr"/>
+      <c r="K136" t="inlineStr"/>
       <c r="L136" t="n">
         <v>1</v>
       </c>
@@ -5758,17 +5634,11 @@
         <v>379696.7844407798</v>
       </c>
       <c r="H137" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I137" t="inlineStr"/>
-      <c r="J137" t="n">
-        <v>152.5</v>
-      </c>
-      <c r="K137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J137" t="inlineStr"/>
+      <c r="K137" t="inlineStr"/>
       <c r="L137" t="n">
         <v>1</v>
       </c>
@@ -5797,17 +5667,11 @@
         <v>379696.7844407798</v>
       </c>
       <c r="H138" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I138" t="inlineStr"/>
-      <c r="J138" t="n">
-        <v>152.5</v>
-      </c>
-      <c r="K138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J138" t="inlineStr"/>
+      <c r="K138" t="inlineStr"/>
       <c r="L138" t="n">
         <v>1</v>
       </c>
@@ -5836,17 +5700,11 @@
         <v>379696.7844407798</v>
       </c>
       <c r="H139" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I139" t="inlineStr"/>
-      <c r="J139" t="n">
-        <v>152.5</v>
-      </c>
-      <c r="K139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J139" t="inlineStr"/>
+      <c r="K139" t="inlineStr"/>
       <c r="L139" t="n">
         <v>1</v>
       </c>
@@ -5878,14 +5736,8 @@
         <v>0</v>
       </c>
       <c r="I140" t="inlineStr"/>
-      <c r="J140" t="n">
-        <v>152.5</v>
-      </c>
-      <c r="K140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J140" t="inlineStr"/>
+      <c r="K140" t="inlineStr"/>
       <c r="L140" t="n">
         <v>1</v>
       </c>
@@ -5914,17 +5766,11 @@
         <v>378940.9028407797</v>
       </c>
       <c r="H141" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I141" t="inlineStr"/>
-      <c r="J141" t="n">
-        <v>152.5</v>
-      </c>
-      <c r="K141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J141" t="inlineStr"/>
+      <c r="K141" t="inlineStr"/>
       <c r="L141" t="n">
         <v>1</v>
       </c>
@@ -5953,17 +5799,11 @@
         <v>366573.7789407797</v>
       </c>
       <c r="H142" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I142" t="inlineStr"/>
-      <c r="J142" t="n">
-        <v>152.5</v>
-      </c>
-      <c r="K142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J142" t="inlineStr"/>
+      <c r="K142" t="inlineStr"/>
       <c r="L142" t="n">
         <v>1</v>
       </c>
@@ -5992,17 +5832,11 @@
         <v>366918.3689407798</v>
       </c>
       <c r="H143" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I143" t="inlineStr"/>
-      <c r="J143" t="n">
-        <v>152.5</v>
-      </c>
-      <c r="K143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J143" t="inlineStr"/>
+      <c r="K143" t="inlineStr"/>
       <c r="L143" t="n">
         <v>1</v>
       </c>
@@ -6031,17 +5865,11 @@
         <v>369931.7972407798</v>
       </c>
       <c r="H144" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I144" t="inlineStr"/>
-      <c r="J144" t="n">
-        <v>152.5</v>
-      </c>
-      <c r="K144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J144" t="inlineStr"/>
+      <c r="K144" t="inlineStr"/>
       <c r="L144" t="n">
         <v>1</v>
       </c>
@@ -6070,17 +5898,11 @@
         <v>369873.2101407798</v>
       </c>
       <c r="H145" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I145" t="inlineStr"/>
-      <c r="J145" t="n">
-        <v>152.5</v>
-      </c>
-      <c r="K145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J145" t="inlineStr"/>
+      <c r="K145" t="inlineStr"/>
       <c r="L145" t="n">
         <v>1</v>
       </c>
@@ -6112,14 +5934,8 @@
         <v>0</v>
       </c>
       <c r="I146" t="inlineStr"/>
-      <c r="J146" t="n">
-        <v>152.5</v>
-      </c>
-      <c r="K146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J146" t="inlineStr"/>
+      <c r="K146" t="inlineStr"/>
       <c r="L146" t="n">
         <v>1</v>
       </c>
@@ -6151,14 +5967,8 @@
         <v>0</v>
       </c>
       <c r="I147" t="inlineStr"/>
-      <c r="J147" t="n">
-        <v>152.5</v>
-      </c>
-      <c r="K147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J147" t="inlineStr"/>
+      <c r="K147" t="inlineStr"/>
       <c r="L147" t="n">
         <v>1</v>
       </c>
@@ -6190,14 +6000,8 @@
         <v>0</v>
       </c>
       <c r="I148" t="inlineStr"/>
-      <c r="J148" t="n">
-        <v>152.5</v>
-      </c>
-      <c r="K148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J148" t="inlineStr"/>
+      <c r="K148" t="inlineStr"/>
       <c r="L148" t="n">
         <v>1</v>
       </c>
@@ -6229,14 +6033,8 @@
         <v>0</v>
       </c>
       <c r="I149" t="inlineStr"/>
-      <c r="J149" t="n">
-        <v>152.5</v>
-      </c>
-      <c r="K149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J149" t="inlineStr"/>
+      <c r="K149" t="inlineStr"/>
       <c r="L149" t="n">
         <v>1</v>
       </c>
@@ -6265,17 +6063,11 @@
         <v>374153.6469894897</v>
       </c>
       <c r="H150" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I150" t="inlineStr"/>
-      <c r="J150" t="n">
-        <v>152.5</v>
-      </c>
-      <c r="K150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J150" t="inlineStr"/>
+      <c r="K150" t="inlineStr"/>
       <c r="L150" t="n">
         <v>1</v>
       </c>
@@ -6307,14 +6099,8 @@
         <v>0</v>
       </c>
       <c r="I151" t="inlineStr"/>
-      <c r="J151" t="n">
-        <v>152.5</v>
-      </c>
-      <c r="K151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J151" t="inlineStr"/>
+      <c r="K151" t="inlineStr"/>
       <c r="L151" t="n">
         <v>1</v>
       </c>
@@ -6346,14 +6132,8 @@
         <v>0</v>
       </c>
       <c r="I152" t="inlineStr"/>
-      <c r="J152" t="n">
-        <v>152.5</v>
-      </c>
-      <c r="K152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J152" t="inlineStr"/>
+      <c r="K152" t="inlineStr"/>
       <c r="L152" t="n">
         <v>1</v>
       </c>
@@ -6382,17 +6162,11 @@
         <v>374048.3382894897</v>
       </c>
       <c r="H153" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I153" t="inlineStr"/>
-      <c r="J153" t="n">
-        <v>152.5</v>
-      </c>
-      <c r="K153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J153" t="inlineStr"/>
+      <c r="K153" t="inlineStr"/>
       <c r="L153" t="n">
         <v>1</v>
       </c>
@@ -6421,17 +6195,11 @@
         <v>374048.3382894897</v>
       </c>
       <c r="H154" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I154" t="inlineStr"/>
-      <c r="J154" t="n">
-        <v>152.5</v>
-      </c>
-      <c r="K154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J154" t="inlineStr"/>
+      <c r="K154" t="inlineStr"/>
       <c r="L154" t="n">
         <v>1</v>
       </c>
@@ -6460,17 +6228,11 @@
         <v>372850.0159894897</v>
       </c>
       <c r="H155" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I155" t="inlineStr"/>
-      <c r="J155" t="n">
-        <v>152.5</v>
-      </c>
-      <c r="K155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J155" t="inlineStr"/>
+      <c r="K155" t="inlineStr"/>
       <c r="L155" t="n">
         <v>1</v>
       </c>
@@ -6499,17 +6261,11 @@
         <v>378371.3213894897</v>
       </c>
       <c r="H156" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I156" t="inlineStr"/>
-      <c r="J156" t="n">
-        <v>152.5</v>
-      </c>
-      <c r="K156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J156" t="inlineStr"/>
+      <c r="K156" t="inlineStr"/>
       <c r="L156" t="n">
         <v>1</v>
       </c>
@@ -6538,17 +6294,11 @@
         <v>368396.3213894897</v>
       </c>
       <c r="H157" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I157" t="inlineStr"/>
-      <c r="J157" t="n">
-        <v>152.5</v>
-      </c>
-      <c r="K157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J157" t="inlineStr"/>
+      <c r="K157" t="inlineStr"/>
       <c r="L157" t="n">
         <v>1</v>
       </c>
@@ -6577,17 +6327,11 @@
         <v>377474.1133894898</v>
       </c>
       <c r="H158" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I158" t="inlineStr"/>
-      <c r="J158" t="n">
-        <v>152.5</v>
-      </c>
-      <c r="K158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J158" t="inlineStr"/>
+      <c r="K158" t="inlineStr"/>
       <c r="L158" t="n">
         <v>1</v>
       </c>
@@ -6619,14 +6363,8 @@
         <v>0</v>
       </c>
       <c r="I159" t="inlineStr"/>
-      <c r="J159" t="n">
-        <v>152.5</v>
-      </c>
-      <c r="K159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J159" t="inlineStr"/>
+      <c r="K159" t="inlineStr"/>
       <c r="L159" t="n">
         <v>1</v>
       </c>
@@ -6658,14 +6396,8 @@
         <v>0</v>
       </c>
       <c r="I160" t="inlineStr"/>
-      <c r="J160" t="n">
-        <v>152.5</v>
-      </c>
-      <c r="K160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J160" t="inlineStr"/>
+      <c r="K160" t="inlineStr"/>
       <c r="L160" t="n">
         <v>1</v>
       </c>
@@ -6697,14 +6429,8 @@
         <v>0</v>
       </c>
       <c r="I161" t="inlineStr"/>
-      <c r="J161" t="n">
-        <v>152.5</v>
-      </c>
-      <c r="K161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J161" t="inlineStr"/>
+      <c r="K161" t="inlineStr"/>
       <c r="L161" t="n">
         <v>1</v>
       </c>
@@ -6736,14 +6462,8 @@
         <v>0</v>
       </c>
       <c r="I162" t="inlineStr"/>
-      <c r="J162" t="n">
-        <v>152.5</v>
-      </c>
-      <c r="K162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J162" t="inlineStr"/>
+      <c r="K162" t="inlineStr"/>
       <c r="L162" t="n">
         <v>1</v>
       </c>
@@ -6775,14 +6495,8 @@
         <v>0</v>
       </c>
       <c r="I163" t="inlineStr"/>
-      <c r="J163" t="n">
-        <v>152.5</v>
-      </c>
-      <c r="K163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J163" t="inlineStr"/>
+      <c r="K163" t="inlineStr"/>
       <c r="L163" t="n">
         <v>1</v>
       </c>
@@ -6814,14 +6528,8 @@
         <v>0</v>
       </c>
       <c r="I164" t="inlineStr"/>
-      <c r="J164" t="n">
-        <v>152.5</v>
-      </c>
-      <c r="K164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J164" t="inlineStr"/>
+      <c r="K164" t="inlineStr"/>
       <c r="L164" t="n">
         <v>1</v>
       </c>
@@ -6850,17 +6558,11 @@
         <v>379553.7201894898</v>
       </c>
       <c r="H165" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I165" t="inlineStr"/>
-      <c r="J165" t="n">
-        <v>152.5</v>
-      </c>
-      <c r="K165" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J165" t="inlineStr"/>
+      <c r="K165" t="inlineStr"/>
       <c r="L165" t="n">
         <v>1</v>
       </c>
@@ -6889,17 +6591,11 @@
         <v>379553.7201894898</v>
       </c>
       <c r="H166" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I166" t="inlineStr"/>
-      <c r="J166" t="n">
-        <v>152.5</v>
-      </c>
-      <c r="K166" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J166" t="inlineStr"/>
+      <c r="K166" t="inlineStr"/>
       <c r="L166" t="n">
         <v>1</v>
       </c>
@@ -6931,14 +6627,8 @@
         <v>0</v>
       </c>
       <c r="I167" t="inlineStr"/>
-      <c r="J167" t="n">
-        <v>152.5</v>
-      </c>
-      <c r="K167" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J167" t="inlineStr"/>
+      <c r="K167" t="inlineStr"/>
       <c r="L167" t="n">
         <v>1</v>
       </c>
@@ -6970,14 +6660,8 @@
         <v>0</v>
       </c>
       <c r="I168" t="inlineStr"/>
-      <c r="J168" t="n">
-        <v>152.5</v>
-      </c>
-      <c r="K168" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J168" t="inlineStr"/>
+      <c r="K168" t="inlineStr"/>
       <c r="L168" t="n">
         <v>1</v>
       </c>
@@ -7009,14 +6693,8 @@
         <v>0</v>
       </c>
       <c r="I169" t="inlineStr"/>
-      <c r="J169" t="n">
-        <v>152.5</v>
-      </c>
-      <c r="K169" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J169" t="inlineStr"/>
+      <c r="K169" t="inlineStr"/>
       <c r="L169" t="n">
         <v>1</v>
       </c>
@@ -7048,14 +6726,8 @@
         <v>0</v>
       </c>
       <c r="I170" t="inlineStr"/>
-      <c r="J170" t="n">
-        <v>152.5</v>
-      </c>
-      <c r="K170" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J170" t="inlineStr"/>
+      <c r="K170" t="inlineStr"/>
       <c r="L170" t="n">
         <v>1</v>
       </c>
@@ -7087,14 +6759,8 @@
         <v>0</v>
       </c>
       <c r="I171" t="inlineStr"/>
-      <c r="J171" t="n">
-        <v>152.5</v>
-      </c>
-      <c r="K171" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J171" t="inlineStr"/>
+      <c r="K171" t="inlineStr"/>
       <c r="L171" t="n">
         <v>1</v>
       </c>
@@ -7126,14 +6792,8 @@
         <v>0</v>
       </c>
       <c r="I172" t="inlineStr"/>
-      <c r="J172" t="n">
-        <v>152.5</v>
-      </c>
-      <c r="K172" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J172" t="inlineStr"/>
+      <c r="K172" t="inlineStr"/>
       <c r="L172" t="n">
         <v>1</v>
       </c>
@@ -7165,14 +6825,8 @@
         <v>0</v>
       </c>
       <c r="I173" t="inlineStr"/>
-      <c r="J173" t="n">
-        <v>152.5</v>
-      </c>
-      <c r="K173" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J173" t="inlineStr"/>
+      <c r="K173" t="inlineStr"/>
       <c r="L173" t="n">
         <v>1</v>
       </c>
@@ -7204,14 +6858,8 @@
         <v>0</v>
       </c>
       <c r="I174" t="inlineStr"/>
-      <c r="J174" t="n">
-        <v>152.5</v>
-      </c>
-      <c r="K174" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J174" t="inlineStr"/>
+      <c r="K174" t="inlineStr"/>
       <c r="L174" t="n">
         <v>1</v>
       </c>
@@ -7243,14 +6891,8 @@
         <v>0</v>
       </c>
       <c r="I175" t="inlineStr"/>
-      <c r="J175" t="n">
-        <v>152.5</v>
-      </c>
-      <c r="K175" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J175" t="inlineStr"/>
+      <c r="K175" t="inlineStr"/>
       <c r="L175" t="n">
         <v>1</v>
       </c>
@@ -7282,14 +6924,8 @@
         <v>0</v>
       </c>
       <c r="I176" t="inlineStr"/>
-      <c r="J176" t="n">
-        <v>152.5</v>
-      </c>
-      <c r="K176" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J176" t="inlineStr"/>
+      <c r="K176" t="inlineStr"/>
       <c r="L176" t="n">
         <v>1</v>
       </c>
@@ -7318,23 +6954,15 @@
         <v>349093.4019894899</v>
       </c>
       <c r="H177" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I177" t="inlineStr"/>
-      <c r="J177" t="n">
-        <v>152.5</v>
-      </c>
-      <c r="K177" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="J177" t="inlineStr"/>
+      <c r="K177" t="inlineStr"/>
       <c r="L177" t="n">
-        <v>1.135983606557377</v>
-      </c>
-      <c r="M177" t="n">
-        <v>1.00327868852459</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="M177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
@@ -7392,7 +7020,7 @@
         <v>356744.9344894898</v>
       </c>
       <c r="H179" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
@@ -7458,7 +7086,7 @@
         <v>342661.4774894898</v>
       </c>
       <c r="H181" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
@@ -7491,7 +7119,7 @@
         <v>336736.2575894898</v>
       </c>
       <c r="H182" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
@@ -7524,7 +7152,7 @@
         <v>353742.1350894898</v>
       </c>
       <c r="H183" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
@@ -7557,7 +7185,7 @@
         <v>356524.0276894898</v>
       </c>
       <c r="H184" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
@@ -7590,7 +7218,7 @@
         <v>356962.0276894898</v>
       </c>
       <c r="H185" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
@@ -7623,7 +7251,7 @@
         <v>353069.7488894898</v>
       </c>
       <c r="H186" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
@@ -7656,7 +7284,7 @@
         <v>348350.3552894898</v>
       </c>
       <c r="H187" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
@@ -7689,7 +7317,7 @@
         <v>324990.2870894898</v>
       </c>
       <c r="H188" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
@@ -7722,7 +7350,7 @@
         <v>327586.9318894898</v>
       </c>
       <c r="H189" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
@@ -7755,7 +7383,7 @@
         <v>327586.9318894898</v>
       </c>
       <c r="H190" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
@@ -7788,7 +7416,7 @@
         <v>327586.9318894898</v>
       </c>
       <c r="H191" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
@@ -7821,7 +7449,7 @@
         <v>327586.9318894898</v>
       </c>
       <c r="H192" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
@@ -7854,7 +7482,7 @@
         <v>327631.4009894898</v>
       </c>
       <c r="H193" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
@@ -7887,7 +7515,7 @@
         <v>327506.4009894898</v>
       </c>
       <c r="H194" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
@@ -7920,7 +7548,7 @@
         <v>327506.4009894898</v>
       </c>
       <c r="H195" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
@@ -7953,7 +7581,7 @@
         <v>320630.0553894898</v>
       </c>
       <c r="H196" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
@@ -7986,7 +7614,7 @@
         <v>319625.1924894898</v>
       </c>
       <c r="H197" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
@@ -8019,7 +7647,7 @@
         <v>319700.2454894898</v>
       </c>
       <c r="H198" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
@@ -8052,7 +7680,7 @@
         <v>319704.2454894898</v>
       </c>
       <c r="H199" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
@@ -8085,7 +7713,7 @@
         <v>310061.9109894898</v>
       </c>
       <c r="H200" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
@@ -8118,7 +7746,7 @@
         <v>310599.9551894898</v>
       </c>
       <c r="H201" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
@@ -8151,7 +7779,7 @@
         <v>309972.0668894898</v>
       </c>
       <c r="H202" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
@@ -8184,7 +7812,7 @@
         <v>309972.0668894898</v>
       </c>
       <c r="H203" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
@@ -8217,7 +7845,7 @@
         <v>309972.0668894898</v>
       </c>
       <c r="H204" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
@@ -8250,7 +7878,7 @@
         <v>308415.6324894898</v>
       </c>
       <c r="H205" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
@@ -13607,6 +13235,6 @@
       <c r="M367" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-16 BackTest STEEM.xlsx
+++ b/BackTest/2020-01-16 BackTest STEEM.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -972,11 +972,9 @@
         <v>53823.18571734998</v>
       </c>
       <c r="H15" t="n">
-        <v>1</v>
-      </c>
-      <c r="I15" t="n">
-        <v>153</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I15" t="inlineStr"/>
       <c r="J15" t="n">
         <v>152.5</v>
       </c>
@@ -1013,11 +1011,9 @@
         <v>53823.18571734998</v>
       </c>
       <c r="H16" t="n">
-        <v>1</v>
-      </c>
-      <c r="I16" t="n">
-        <v>152.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I16" t="inlineStr"/>
       <c r="J16" t="n">
         <v>152.5</v>
       </c>
@@ -1177,11 +1173,9 @@
         <v>54077.88731734998</v>
       </c>
       <c r="H20" t="n">
-        <v>1</v>
-      </c>
-      <c r="I20" t="n">
-        <v>153.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I20" t="inlineStr"/>
       <c r="J20" t="n">
         <v>152.5</v>
       </c>
@@ -1218,11 +1212,9 @@
         <v>51391.50821734998</v>
       </c>
       <c r="H21" t="n">
-        <v>1</v>
-      </c>
-      <c r="I21" t="n">
-        <v>153.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I21" t="inlineStr"/>
       <c r="J21" t="n">
         <v>152.5</v>
       </c>
@@ -1259,11 +1251,9 @@
         <v>51521.50821734998</v>
       </c>
       <c r="H22" t="n">
-        <v>1</v>
-      </c>
-      <c r="I22" t="n">
-        <v>152.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I22" t="inlineStr"/>
       <c r="J22" t="n">
         <v>152.5</v>
       </c>
@@ -1300,11 +1290,9 @@
         <v>45911.11781734998</v>
       </c>
       <c r="H23" t="n">
-        <v>1</v>
-      </c>
-      <c r="I23" t="n">
-        <v>154</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I23" t="inlineStr"/>
       <c r="J23" t="n">
         <v>152.5</v>
       </c>
@@ -1341,11 +1329,9 @@
         <v>47459.04126768998</v>
       </c>
       <c r="H24" t="n">
-        <v>1</v>
-      </c>
-      <c r="I24" t="n">
-        <v>152.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I24" t="inlineStr"/>
       <c r="J24" t="n">
         <v>152.5</v>
       </c>
@@ -1382,11 +1368,9 @@
         <v>47459.04126768998</v>
       </c>
       <c r="H25" t="n">
-        <v>1</v>
-      </c>
-      <c r="I25" t="n">
-        <v>154.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I25" t="inlineStr"/>
       <c r="J25" t="n">
         <v>152.5</v>
       </c>
@@ -1423,11 +1407,9 @@
         <v>59402.90326768998</v>
       </c>
       <c r="H26" t="n">
-        <v>1</v>
-      </c>
-      <c r="I26" t="n">
-        <v>154.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I26" t="inlineStr"/>
       <c r="J26" t="n">
         <v>152.5</v>
       </c>
@@ -1464,11 +1446,9 @@
         <v>59402.90326768998</v>
       </c>
       <c r="H27" t="n">
-        <v>1</v>
-      </c>
-      <c r="I27" t="n">
-        <v>155</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I27" t="inlineStr"/>
       <c r="J27" t="n">
         <v>152.5</v>
       </c>
@@ -1505,11 +1485,9 @@
         <v>59301.70756768998</v>
       </c>
       <c r="H28" t="n">
-        <v>1</v>
-      </c>
-      <c r="I28" t="n">
-        <v>155</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I28" t="inlineStr"/>
       <c r="J28" t="n">
         <v>152.5</v>
       </c>
@@ -1546,11 +1524,9 @@
         <v>64947.86336768998</v>
       </c>
       <c r="H29" t="n">
-        <v>1</v>
-      </c>
-      <c r="I29" t="n">
-        <v>153.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I29" t="inlineStr"/>
       <c r="J29" t="n">
         <v>152.5</v>
       </c>
@@ -1587,11 +1563,9 @@
         <v>64428.78036768999</v>
       </c>
       <c r="H30" t="n">
-        <v>1</v>
-      </c>
-      <c r="I30" t="n">
-        <v>154.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I30" t="inlineStr"/>
       <c r="J30" t="n">
         <v>152.5</v>
       </c>
@@ -1628,11 +1602,9 @@
         <v>64428.78036768999</v>
       </c>
       <c r="H31" t="n">
-        <v>1</v>
-      </c>
-      <c r="I31" t="n">
-        <v>152</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I31" t="inlineStr"/>
       <c r="J31" t="n">
         <v>152.5</v>
       </c>
@@ -1669,11 +1641,9 @@
         <v>64428.78036768999</v>
       </c>
       <c r="H32" t="n">
-        <v>1</v>
-      </c>
-      <c r="I32" t="n">
-        <v>152</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I32" t="inlineStr"/>
       <c r="J32" t="n">
         <v>152.5</v>
       </c>
@@ -1710,11 +1680,9 @@
         <v>64428.78036768999</v>
       </c>
       <c r="H33" t="n">
-        <v>1</v>
-      </c>
-      <c r="I33" t="n">
-        <v>152</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I33" t="inlineStr"/>
       <c r="J33" t="n">
         <v>152.5</v>
       </c>
@@ -1751,11 +1719,9 @@
         <v>89687.44926768998</v>
       </c>
       <c r="H34" t="n">
-        <v>1</v>
-      </c>
-      <c r="I34" t="n">
-        <v>152</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I34" t="inlineStr"/>
       <c r="J34" t="n">
         <v>152.5</v>
       </c>
@@ -1792,11 +1758,9 @@
         <v>90148.33666768999</v>
       </c>
       <c r="H35" t="n">
-        <v>1</v>
-      </c>
-      <c r="I35" t="n">
-        <v>153.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I35" t="inlineStr"/>
       <c r="J35" t="n">
         <v>152.5</v>
       </c>
@@ -1833,11 +1797,9 @@
         <v>92506.56986768999</v>
       </c>
       <c r="H36" t="n">
-        <v>1</v>
-      </c>
-      <c r="I36" t="n">
-        <v>154</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I36" t="inlineStr"/>
       <c r="J36" t="n">
         <v>152.5</v>
       </c>
@@ -2459,11 +2421,9 @@
         <v>92477.65736768999</v>
       </c>
       <c r="H52" t="n">
-        <v>1</v>
-      </c>
-      <c r="I52" t="n">
-        <v>156.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I52" t="inlineStr"/>
       <c r="J52" t="n">
         <v>152.5</v>
       </c>
@@ -3241,7 +3201,7 @@
         <v>327094.8858671199</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="n">
@@ -3249,13 +3209,15 @@
       </c>
       <c r="K72" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
       <c r="L72" t="n">
-        <v>1</v>
-      </c>
-      <c r="M72" t="inlineStr"/>
+        <v>1.073688524590164</v>
+      </c>
+      <c r="M72" t="n">
+        <v>1.00327868852459</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3280,17 +3242,11 @@
         <v>321447.0903671199</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I73" t="inlineStr"/>
-      <c r="J73" t="n">
-        <v>152.5</v>
-      </c>
-      <c r="K73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J73" t="inlineStr"/>
+      <c r="K73" t="inlineStr"/>
       <c r="L73" t="n">
         <v>1</v>
       </c>
@@ -3319,17 +3275,11 @@
         <v>347905.4910671199</v>
       </c>
       <c r="H74" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I74" t="inlineStr"/>
-      <c r="J74" t="n">
-        <v>152.5</v>
-      </c>
-      <c r="K74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J74" t="inlineStr"/>
+      <c r="K74" t="inlineStr"/>
       <c r="L74" t="n">
         <v>1</v>
       </c>
@@ -3361,14 +3311,8 @@
         <v>0</v>
       </c>
       <c r="I75" t="inlineStr"/>
-      <c r="J75" t="n">
-        <v>152.5</v>
-      </c>
-      <c r="K75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J75" t="inlineStr"/>
+      <c r="K75" t="inlineStr"/>
       <c r="L75" t="n">
         <v>1</v>
       </c>
@@ -3400,14 +3344,8 @@
         <v>0</v>
       </c>
       <c r="I76" t="inlineStr"/>
-      <c r="J76" t="n">
-        <v>152.5</v>
-      </c>
-      <c r="K76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J76" t="inlineStr"/>
+      <c r="K76" t="inlineStr"/>
       <c r="L76" t="n">
         <v>1</v>
       </c>
@@ -3439,14 +3377,8 @@
         <v>0</v>
       </c>
       <c r="I77" t="inlineStr"/>
-      <c r="J77" t="n">
-        <v>152.5</v>
-      </c>
-      <c r="K77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J77" t="inlineStr"/>
+      <c r="K77" t="inlineStr"/>
       <c r="L77" t="n">
         <v>1</v>
       </c>
@@ -3478,14 +3410,8 @@
         <v>0</v>
       </c>
       <c r="I78" t="inlineStr"/>
-      <c r="J78" t="n">
-        <v>152.5</v>
-      </c>
-      <c r="K78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J78" t="inlineStr"/>
+      <c r="K78" t="inlineStr"/>
       <c r="L78" t="n">
         <v>1</v>
       </c>
@@ -3514,17 +3440,11 @@
         <v>325134.1793671199</v>
       </c>
       <c r="H79" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I79" t="inlineStr"/>
-      <c r="J79" t="n">
-        <v>152.5</v>
-      </c>
-      <c r="K79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J79" t="inlineStr"/>
+      <c r="K79" t="inlineStr"/>
       <c r="L79" t="n">
         <v>1</v>
       </c>
@@ -3553,17 +3473,11 @@
         <v>325134.1793671199</v>
       </c>
       <c r="H80" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I80" t="inlineStr"/>
-      <c r="J80" t="n">
-        <v>152.5</v>
-      </c>
-      <c r="K80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J80" t="inlineStr"/>
+      <c r="K80" t="inlineStr"/>
       <c r="L80" t="n">
         <v>1</v>
       </c>
@@ -3592,17 +3506,11 @@
         <v>325134.1793671199</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I81" t="inlineStr"/>
-      <c r="J81" t="n">
-        <v>152.5</v>
-      </c>
-      <c r="K81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J81" t="inlineStr"/>
+      <c r="K81" t="inlineStr"/>
       <c r="L81" t="n">
         <v>1</v>
       </c>
@@ -3631,17 +3539,11 @@
         <v>329813.0460671199</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I82" t="inlineStr"/>
-      <c r="J82" t="n">
-        <v>152.5</v>
-      </c>
-      <c r="K82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J82" t="inlineStr"/>
+      <c r="K82" t="inlineStr"/>
       <c r="L82" t="n">
         <v>1</v>
       </c>
@@ -3670,17 +3572,11 @@
         <v>329657.0460671199</v>
       </c>
       <c r="H83" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I83" t="inlineStr"/>
-      <c r="J83" t="n">
-        <v>152.5</v>
-      </c>
-      <c r="K83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J83" t="inlineStr"/>
+      <c r="K83" t="inlineStr"/>
       <c r="L83" t="n">
         <v>1</v>
       </c>
@@ -3709,17 +3605,11 @@
         <v>330217.0450671199</v>
       </c>
       <c r="H84" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I84" t="inlineStr"/>
-      <c r="J84" t="n">
-        <v>152.5</v>
-      </c>
-      <c r="K84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J84" t="inlineStr"/>
+      <c r="K84" t="inlineStr"/>
       <c r="L84" t="n">
         <v>1</v>
       </c>
@@ -3748,17 +3638,11 @@
         <v>330217.0450671199</v>
       </c>
       <c r="H85" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I85" t="inlineStr"/>
-      <c r="J85" t="n">
-        <v>152.5</v>
-      </c>
-      <c r="K85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J85" t="inlineStr"/>
+      <c r="K85" t="inlineStr"/>
       <c r="L85" t="n">
         <v>1</v>
       </c>
@@ -3787,17 +3671,11 @@
         <v>330217.0450671199</v>
       </c>
       <c r="H86" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I86" t="inlineStr"/>
-      <c r="J86" t="n">
-        <v>152.5</v>
-      </c>
-      <c r="K86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J86" t="inlineStr"/>
+      <c r="K86" t="inlineStr"/>
       <c r="L86" t="n">
         <v>1</v>
       </c>
@@ -3826,17 +3704,11 @@
         <v>354281.6149552399</v>
       </c>
       <c r="H87" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I87" t="inlineStr"/>
-      <c r="J87" t="n">
-        <v>152.5</v>
-      </c>
-      <c r="K87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J87" t="inlineStr"/>
+      <c r="K87" t="inlineStr"/>
       <c r="L87" t="n">
         <v>1</v>
       </c>
@@ -3865,17 +3737,11 @@
         <v>351100.4920552399</v>
       </c>
       <c r="H88" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I88" t="inlineStr"/>
-      <c r="J88" t="n">
-        <v>152.5</v>
-      </c>
-      <c r="K88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J88" t="inlineStr"/>
+      <c r="K88" t="inlineStr"/>
       <c r="L88" t="n">
         <v>1</v>
       </c>
@@ -3904,17 +3770,11 @@
         <v>351100.4920552399</v>
       </c>
       <c r="H89" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I89" t="inlineStr"/>
-      <c r="J89" t="n">
-        <v>152.5</v>
-      </c>
-      <c r="K89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J89" t="inlineStr"/>
+      <c r="K89" t="inlineStr"/>
       <c r="L89" t="n">
         <v>1</v>
       </c>
@@ -3943,17 +3803,11 @@
         <v>352979.7430552399</v>
       </c>
       <c r="H90" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I90" t="inlineStr"/>
-      <c r="J90" t="n">
-        <v>152.5</v>
-      </c>
-      <c r="K90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J90" t="inlineStr"/>
+      <c r="K90" t="inlineStr"/>
       <c r="L90" t="n">
         <v>1</v>
       </c>
@@ -3982,17 +3836,11 @@
         <v>351422.3140552399</v>
       </c>
       <c r="H91" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I91" t="inlineStr"/>
-      <c r="J91" t="n">
-        <v>152.5</v>
-      </c>
-      <c r="K91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J91" t="inlineStr"/>
+      <c r="K91" t="inlineStr"/>
       <c r="L91" t="n">
         <v>1</v>
       </c>
@@ -4021,17 +3869,11 @@
         <v>351422.3140552399</v>
       </c>
       <c r="H92" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I92" t="inlineStr"/>
-      <c r="J92" t="n">
-        <v>152.5</v>
-      </c>
-      <c r="K92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J92" t="inlineStr"/>
+      <c r="K92" t="inlineStr"/>
       <c r="L92" t="n">
         <v>1</v>
       </c>
@@ -4060,17 +3902,11 @@
         <v>356809.7422552399</v>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I93" t="inlineStr"/>
-      <c r="J93" t="n">
-        <v>152.5</v>
-      </c>
-      <c r="K93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J93" t="inlineStr"/>
+      <c r="K93" t="inlineStr"/>
       <c r="L93" t="n">
         <v>1</v>
       </c>
@@ -4102,14 +3938,8 @@
         <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
-      <c r="J94" t="n">
-        <v>152.5</v>
-      </c>
-      <c r="K94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J94" t="inlineStr"/>
+      <c r="K94" t="inlineStr"/>
       <c r="L94" t="n">
         <v>1</v>
       </c>
@@ -4138,17 +3968,11 @@
         <v>367367.6000552399</v>
       </c>
       <c r="H95" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I95" t="inlineStr"/>
-      <c r="J95" t="n">
-        <v>152.5</v>
-      </c>
-      <c r="K95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J95" t="inlineStr"/>
+      <c r="K95" t="inlineStr"/>
       <c r="L95" t="n">
         <v>1</v>
       </c>
@@ -4177,17 +4001,11 @@
         <v>367367.6000552399</v>
       </c>
       <c r="H96" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I96" t="inlineStr"/>
-      <c r="J96" t="n">
-        <v>152.5</v>
-      </c>
-      <c r="K96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J96" t="inlineStr"/>
+      <c r="K96" t="inlineStr"/>
       <c r="L96" t="n">
         <v>1</v>
       </c>
@@ -4216,17 +4034,11 @@
         <v>379966.4855292699</v>
       </c>
       <c r="H97" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I97" t="inlineStr"/>
-      <c r="J97" t="n">
-        <v>152.5</v>
-      </c>
-      <c r="K97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J97" t="inlineStr"/>
+      <c r="K97" t="inlineStr"/>
       <c r="L97" t="n">
         <v>1</v>
       </c>
@@ -4255,17 +4067,11 @@
         <v>379966.4855292699</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I98" t="inlineStr"/>
-      <c r="J98" t="n">
-        <v>152.5</v>
-      </c>
-      <c r="K98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J98" t="inlineStr"/>
+      <c r="K98" t="inlineStr"/>
       <c r="L98" t="n">
         <v>1</v>
       </c>
@@ -4294,17 +4100,11 @@
         <v>376863.7425292699</v>
       </c>
       <c r="H99" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I99" t="inlineStr"/>
-      <c r="J99" t="n">
-        <v>152.5</v>
-      </c>
-      <c r="K99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J99" t="inlineStr"/>
+      <c r="K99" t="inlineStr"/>
       <c r="L99" t="n">
         <v>1</v>
       </c>
@@ -4333,17 +4133,11 @@
         <v>370863.7425292699</v>
       </c>
       <c r="H100" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I100" t="inlineStr"/>
-      <c r="J100" t="n">
-        <v>152.5</v>
-      </c>
-      <c r="K100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J100" t="inlineStr"/>
+      <c r="K100" t="inlineStr"/>
       <c r="L100" t="n">
         <v>1</v>
       </c>
@@ -4372,17 +4166,11 @@
         <v>370863.7435292699</v>
       </c>
       <c r="H101" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I101" t="inlineStr"/>
-      <c r="J101" t="n">
-        <v>152.5</v>
-      </c>
-      <c r="K101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J101" t="inlineStr"/>
+      <c r="K101" t="inlineStr"/>
       <c r="L101" t="n">
         <v>1</v>
       </c>
@@ -4411,17 +4199,11 @@
         <v>383443.0715292699</v>
       </c>
       <c r="H102" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I102" t="inlineStr"/>
-      <c r="J102" t="n">
-        <v>152.5</v>
-      </c>
-      <c r="K102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J102" t="inlineStr"/>
+      <c r="K102" t="inlineStr"/>
       <c r="L102" t="n">
         <v>1</v>
       </c>
@@ -4450,17 +4232,11 @@
         <v>383443.0715292699</v>
       </c>
       <c r="H103" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I103" t="inlineStr"/>
-      <c r="J103" t="n">
-        <v>152.5</v>
-      </c>
-      <c r="K103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J103" t="inlineStr"/>
+      <c r="K103" t="inlineStr"/>
       <c r="L103" t="n">
         <v>1</v>
       </c>
@@ -4489,17 +4265,11 @@
         <v>376993.2821292698</v>
       </c>
       <c r="H104" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I104" t="inlineStr"/>
-      <c r="J104" t="n">
-        <v>152.5</v>
-      </c>
-      <c r="K104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J104" t="inlineStr"/>
+      <c r="K104" t="inlineStr"/>
       <c r="L104" t="n">
         <v>1</v>
       </c>
@@ -4531,14 +4301,8 @@
         <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
-      <c r="J105" t="n">
-        <v>152.5</v>
-      </c>
-      <c r="K105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J105" t="inlineStr"/>
+      <c r="K105" t="inlineStr"/>
       <c r="L105" t="n">
         <v>1</v>
       </c>
@@ -4570,14 +4334,8 @@
         <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
-      <c r="J106" t="n">
-        <v>152.5</v>
-      </c>
-      <c r="K106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J106" t="inlineStr"/>
+      <c r="K106" t="inlineStr"/>
       <c r="L106" t="n">
         <v>1</v>
       </c>
@@ -4609,14 +4367,8 @@
         <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
-      <c r="J107" t="n">
-        <v>152.5</v>
-      </c>
-      <c r="K107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J107" t="inlineStr"/>
+      <c r="K107" t="inlineStr"/>
       <c r="L107" t="n">
         <v>1</v>
       </c>
@@ -4648,14 +4400,8 @@
         <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
-      <c r="J108" t="n">
-        <v>152.5</v>
-      </c>
-      <c r="K108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J108" t="inlineStr"/>
+      <c r="K108" t="inlineStr"/>
       <c r="L108" t="n">
         <v>1</v>
       </c>
@@ -4687,14 +4433,8 @@
         <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
-      <c r="J109" t="n">
-        <v>152.5</v>
-      </c>
-      <c r="K109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J109" t="inlineStr"/>
+      <c r="K109" t="inlineStr"/>
       <c r="L109" t="n">
         <v>1</v>
       </c>
@@ -4726,14 +4466,8 @@
         <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
-      <c r="J110" t="n">
-        <v>152.5</v>
-      </c>
-      <c r="K110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J110" t="inlineStr"/>
+      <c r="K110" t="inlineStr"/>
       <c r="L110" t="n">
         <v>1</v>
       </c>
@@ -4762,17 +4496,11 @@
         <v>366966.1799292698</v>
       </c>
       <c r="H111" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I111" t="inlineStr"/>
-      <c r="J111" t="n">
-        <v>152.5</v>
-      </c>
-      <c r="K111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J111" t="inlineStr"/>
+      <c r="K111" t="inlineStr"/>
       <c r="L111" t="n">
         <v>1</v>
       </c>
@@ -4804,20 +4532,12 @@
         <v>2</v>
       </c>
       <c r="I112" t="inlineStr"/>
-      <c r="J112" t="n">
-        <v>152.5</v>
-      </c>
-      <c r="K112" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="J112" t="inlineStr"/>
+      <c r="K112" t="inlineStr"/>
       <c r="L112" t="n">
-        <v>1.070409836065574</v>
-      </c>
-      <c r="M112" t="n">
-        <v>1.00327868852459</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="M112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4842,7 +4562,7 @@
         <v>396848.6150292698</v>
       </c>
       <c r="H113" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
@@ -4875,7 +4595,7 @@
         <v>396848.6150292698</v>
       </c>
       <c r="H114" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
@@ -4908,7 +4628,7 @@
         <v>399198.7710292698</v>
       </c>
       <c r="H115" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
@@ -4941,7 +4661,7 @@
         <v>399198.7710292698</v>
       </c>
       <c r="H116" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
@@ -5007,7 +4727,7 @@
         <v>377446.8681292699</v>
       </c>
       <c r="H118" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
@@ -5040,7 +4760,7 @@
         <v>375689.2744292698</v>
       </c>
       <c r="H119" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
@@ -5073,7 +4793,7 @@
         <v>378106.6464292698</v>
       </c>
       <c r="H120" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
@@ -5139,7 +4859,7 @@
         <v>363619.3192292698</v>
       </c>
       <c r="H122" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
@@ -5172,7 +4892,7 @@
         <v>350890.2306407798</v>
       </c>
       <c r="H123" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
@@ -5205,7 +4925,7 @@
         <v>351770.2306407798</v>
       </c>
       <c r="H124" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
@@ -5238,7 +4958,7 @@
         <v>351379.6406407798</v>
       </c>
       <c r="H125" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
@@ -5271,7 +4991,7 @@
         <v>354831.0686407798</v>
       </c>
       <c r="H126" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
@@ -5601,7 +5321,7 @@
         <v>379696.7844407798</v>
       </c>
       <c r="H136" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
@@ -5634,7 +5354,7 @@
         <v>379696.7844407798</v>
       </c>
       <c r="H137" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
@@ -5667,7 +5387,7 @@
         <v>379696.7844407798</v>
       </c>
       <c r="H138" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
@@ -5700,7 +5420,7 @@
         <v>379696.7844407798</v>
       </c>
       <c r="H139" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
@@ -5766,7 +5486,7 @@
         <v>378940.9028407797</v>
       </c>
       <c r="H141" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
@@ -5799,7 +5519,7 @@
         <v>366573.7789407797</v>
       </c>
       <c r="H142" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
@@ -5832,7 +5552,7 @@
         <v>366918.3689407798</v>
       </c>
       <c r="H143" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
@@ -5865,7 +5585,7 @@
         <v>369931.7972407798</v>
       </c>
       <c r="H144" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
@@ -5898,7 +5618,7 @@
         <v>369873.2101407798</v>
       </c>
       <c r="H145" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
@@ -6063,7 +5783,7 @@
         <v>374153.6469894897</v>
       </c>
       <c r="H150" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
@@ -6162,7 +5882,7 @@
         <v>374048.3382894897</v>
       </c>
       <c r="H153" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
@@ -6195,7 +5915,7 @@
         <v>374048.3382894897</v>
       </c>
       <c r="H154" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
@@ -6228,7 +5948,7 @@
         <v>372850.0159894897</v>
       </c>
       <c r="H155" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
@@ -6261,7 +5981,7 @@
         <v>378371.3213894897</v>
       </c>
       <c r="H156" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
@@ -6294,7 +6014,7 @@
         <v>368396.3213894897</v>
       </c>
       <c r="H157" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
@@ -6327,7 +6047,7 @@
         <v>377474.1133894898</v>
       </c>
       <c r="H158" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
@@ -6558,7 +6278,7 @@
         <v>379553.7201894898</v>
       </c>
       <c r="H165" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
@@ -6591,7 +6311,7 @@
         <v>379553.7201894898</v>
       </c>
       <c r="H166" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
@@ -7185,7 +6905,7 @@
         <v>356524.0276894898</v>
       </c>
       <c r="H184" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
@@ -7218,7 +6938,7 @@
         <v>356962.0276894898</v>
       </c>
       <c r="H185" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
@@ -7251,7 +6971,7 @@
         <v>353069.7488894898</v>
       </c>
       <c r="H186" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
@@ -7284,7 +7004,7 @@
         <v>348350.3552894898</v>
       </c>
       <c r="H187" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
@@ -7317,7 +7037,7 @@
         <v>324990.2870894898</v>
       </c>
       <c r="H188" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
@@ -7350,7 +7070,7 @@
         <v>327586.9318894898</v>
       </c>
       <c r="H189" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
@@ -7383,7 +7103,7 @@
         <v>327586.9318894898</v>
       </c>
       <c r="H190" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
@@ -7416,7 +7136,7 @@
         <v>327586.9318894898</v>
       </c>
       <c r="H191" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
@@ -7449,7 +7169,7 @@
         <v>327586.9318894898</v>
       </c>
       <c r="H192" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
@@ -7482,7 +7202,7 @@
         <v>327631.4009894898</v>
       </c>
       <c r="H193" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
@@ -7515,7 +7235,7 @@
         <v>327506.4009894898</v>
       </c>
       <c r="H194" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
@@ -7548,7 +7268,7 @@
         <v>327506.4009894898</v>
       </c>
       <c r="H195" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
@@ -7581,7 +7301,7 @@
         <v>320630.0553894898</v>
       </c>
       <c r="H196" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
@@ -7614,7 +7334,7 @@
         <v>319625.1924894898</v>
       </c>
       <c r="H197" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
@@ -7647,7 +7367,7 @@
         <v>319700.2454894898</v>
       </c>
       <c r="H198" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
@@ -7680,7 +7400,7 @@
         <v>319704.2454894898</v>
       </c>
       <c r="H199" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
@@ -7713,7 +7433,7 @@
         <v>310061.9109894898</v>
       </c>
       <c r="H200" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
@@ -7746,7 +7466,7 @@
         <v>310599.9551894898</v>
       </c>
       <c r="H201" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
@@ -7779,7 +7499,7 @@
         <v>309972.0668894898</v>
       </c>
       <c r="H202" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
@@ -7812,7 +7532,7 @@
         <v>309972.0668894898</v>
       </c>
       <c r="H203" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
@@ -7845,7 +7565,7 @@
         <v>309972.0668894898</v>
       </c>
       <c r="H204" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
@@ -7878,7 +7598,7 @@
         <v>308415.6324894898</v>
       </c>
       <c r="H205" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
@@ -13235,6 +12955,6 @@
       <c r="M367" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-16 BackTest STEEM.xlsx
+++ b/BackTest/2020-01-16 BackTest STEEM.xlsx
@@ -972,9 +972,11 @@
         <v>53823.18571734998</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
-      </c>
-      <c r="I15" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I15" t="n">
+        <v>153</v>
+      </c>
       <c r="J15" t="n">
         <v>152.5</v>
       </c>
@@ -1011,9 +1013,11 @@
         <v>53823.18571734998</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
-      </c>
-      <c r="I16" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I16" t="n">
+        <v>152.2</v>
+      </c>
       <c r="J16" t="n">
         <v>152.5</v>
       </c>
@@ -1173,9 +1177,11 @@
         <v>54077.88731734998</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
-      </c>
-      <c r="I20" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I20" t="n">
+        <v>153.9</v>
+      </c>
       <c r="J20" t="n">
         <v>152.5</v>
       </c>
@@ -1212,9 +1218,11 @@
         <v>51391.50821734998</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
-      </c>
-      <c r="I21" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I21" t="n">
+        <v>153.9</v>
+      </c>
       <c r="J21" t="n">
         <v>152.5</v>
       </c>
@@ -1251,9 +1259,11 @@
         <v>51521.50821734998</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
-      </c>
-      <c r="I22" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I22" t="n">
+        <v>152.1</v>
+      </c>
       <c r="J22" t="n">
         <v>152.5</v>
       </c>
@@ -3201,7 +3211,7 @@
         <v>327094.8858671199</v>
       </c>
       <c r="H72" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="n">
@@ -3209,15 +3219,13 @@
       </c>
       <c r="K72" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L72" t="n">
-        <v>1.073688524590164</v>
-      </c>
-      <c r="M72" t="n">
-        <v>1.00327868852459</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="M72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3242,11 +3250,17 @@
         <v>321447.0903671199</v>
       </c>
       <c r="H73" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I73" t="inlineStr"/>
-      <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
+      <c r="J73" t="n">
+        <v>152.5</v>
+      </c>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L73" t="n">
         <v>1</v>
       </c>
@@ -3275,11 +3289,17 @@
         <v>347905.4910671199</v>
       </c>
       <c r="H74" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I74" t="inlineStr"/>
-      <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
+      <c r="J74" t="n">
+        <v>152.5</v>
+      </c>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L74" t="n">
         <v>1</v>
       </c>
@@ -3311,8 +3331,14 @@
         <v>0</v>
       </c>
       <c r="I75" t="inlineStr"/>
-      <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
+      <c r="J75" t="n">
+        <v>152.5</v>
+      </c>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L75" t="n">
         <v>1</v>
       </c>
@@ -3344,8 +3370,14 @@
         <v>0</v>
       </c>
       <c r="I76" t="inlineStr"/>
-      <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
+      <c r="J76" t="n">
+        <v>152.5</v>
+      </c>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L76" t="n">
         <v>1</v>
       </c>
@@ -3377,8 +3409,14 @@
         <v>0</v>
       </c>
       <c r="I77" t="inlineStr"/>
-      <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
+      <c r="J77" t="n">
+        <v>152.5</v>
+      </c>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L77" t="n">
         <v>1</v>
       </c>
@@ -3410,8 +3448,14 @@
         <v>0</v>
       </c>
       <c r="I78" t="inlineStr"/>
-      <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
+      <c r="J78" t="n">
+        <v>152.5</v>
+      </c>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L78" t="n">
         <v>1</v>
       </c>
@@ -3440,11 +3484,17 @@
         <v>325134.1793671199</v>
       </c>
       <c r="H79" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I79" t="inlineStr"/>
-      <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
+      <c r="J79" t="n">
+        <v>152.5</v>
+      </c>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L79" t="n">
         <v>1</v>
       </c>
@@ -3473,11 +3523,17 @@
         <v>325134.1793671199</v>
       </c>
       <c r="H80" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I80" t="inlineStr"/>
-      <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
+      <c r="J80" t="n">
+        <v>152.5</v>
+      </c>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L80" t="n">
         <v>1</v>
       </c>
@@ -3506,11 +3562,17 @@
         <v>325134.1793671199</v>
       </c>
       <c r="H81" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I81" t="inlineStr"/>
-      <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
+      <c r="J81" t="n">
+        <v>152.5</v>
+      </c>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L81" t="n">
         <v>1</v>
       </c>
@@ -3539,11 +3601,17 @@
         <v>329813.0460671199</v>
       </c>
       <c r="H82" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I82" t="inlineStr"/>
-      <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
+      <c r="J82" t="n">
+        <v>152.5</v>
+      </c>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L82" t="n">
         <v>1</v>
       </c>
@@ -3572,11 +3640,17 @@
         <v>329657.0460671199</v>
       </c>
       <c r="H83" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I83" t="inlineStr"/>
-      <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
+      <c r="J83" t="n">
+        <v>152.5</v>
+      </c>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L83" t="n">
         <v>1</v>
       </c>
@@ -3605,11 +3679,17 @@
         <v>330217.0450671199</v>
       </c>
       <c r="H84" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I84" t="inlineStr"/>
-      <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
+      <c r="J84" t="n">
+        <v>152.5</v>
+      </c>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L84" t="n">
         <v>1</v>
       </c>
@@ -3638,11 +3718,17 @@
         <v>330217.0450671199</v>
       </c>
       <c r="H85" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
-      <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
+      <c r="J85" t="n">
+        <v>152.5</v>
+      </c>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L85" t="n">
         <v>1</v>
       </c>
@@ -3671,11 +3757,17 @@
         <v>330217.0450671199</v>
       </c>
       <c r="H86" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I86" t="inlineStr"/>
-      <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
+      <c r="J86" t="n">
+        <v>152.5</v>
+      </c>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L86" t="n">
         <v>1</v>
       </c>
@@ -3704,11 +3796,17 @@
         <v>354281.6149552399</v>
       </c>
       <c r="H87" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
-      <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
+      <c r="J87" t="n">
+        <v>152.5</v>
+      </c>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L87" t="n">
         <v>1</v>
       </c>
@@ -3737,11 +3835,17 @@
         <v>351100.4920552399</v>
       </c>
       <c r="H88" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
-      <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
+      <c r="J88" t="n">
+        <v>152.5</v>
+      </c>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L88" t="n">
         <v>1</v>
       </c>
@@ -3770,11 +3874,17 @@
         <v>351100.4920552399</v>
       </c>
       <c r="H89" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
-      <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
+      <c r="J89" t="n">
+        <v>152.5</v>
+      </c>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L89" t="n">
         <v>1</v>
       </c>
@@ -3803,11 +3913,17 @@
         <v>352979.7430552399</v>
       </c>
       <c r="H90" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I90" t="inlineStr"/>
-      <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
+      <c r="J90" t="n">
+        <v>152.5</v>
+      </c>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L90" t="n">
         <v>1</v>
       </c>
@@ -3836,11 +3952,17 @@
         <v>351422.3140552399</v>
       </c>
       <c r="H91" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
-      <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
+      <c r="J91" t="n">
+        <v>152.5</v>
+      </c>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L91" t="n">
         <v>1</v>
       </c>
@@ -3869,11 +3991,17 @@
         <v>351422.3140552399</v>
       </c>
       <c r="H92" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I92" t="inlineStr"/>
-      <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
+      <c r="J92" t="n">
+        <v>152.5</v>
+      </c>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L92" t="n">
         <v>1</v>
       </c>
@@ -3902,11 +4030,17 @@
         <v>356809.7422552399</v>
       </c>
       <c r="H93" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
-      <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
+      <c r="J93" t="n">
+        <v>152.5</v>
+      </c>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L93" t="n">
         <v>1</v>
       </c>
@@ -3938,8 +4072,14 @@
         <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
-      <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
+      <c r="J94" t="n">
+        <v>152.5</v>
+      </c>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L94" t="n">
         <v>1</v>
       </c>
@@ -3968,11 +4108,17 @@
         <v>367367.6000552399</v>
       </c>
       <c r="H95" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
-      <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
+      <c r="J95" t="n">
+        <v>152.5</v>
+      </c>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L95" t="n">
         <v>1</v>
       </c>
@@ -4001,11 +4147,17 @@
         <v>367367.6000552399</v>
       </c>
       <c r="H96" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
-      <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
+      <c r="J96" t="n">
+        <v>152.5</v>
+      </c>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L96" t="n">
         <v>1</v>
       </c>
@@ -4034,11 +4186,17 @@
         <v>379966.4855292699</v>
       </c>
       <c r="H97" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
-      <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
+      <c r="J97" t="n">
+        <v>152.5</v>
+      </c>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L97" t="n">
         <v>1</v>
       </c>
@@ -4067,11 +4225,17 @@
         <v>379966.4855292699</v>
       </c>
       <c r="H98" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
-      <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
+      <c r="J98" t="n">
+        <v>152.5</v>
+      </c>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L98" t="n">
         <v>1</v>
       </c>
@@ -4100,11 +4264,17 @@
         <v>376863.7425292699</v>
       </c>
       <c r="H99" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
-      <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
+      <c r="J99" t="n">
+        <v>152.5</v>
+      </c>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L99" t="n">
         <v>1</v>
       </c>
@@ -4133,11 +4303,17 @@
         <v>370863.7425292699</v>
       </c>
       <c r="H100" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
-      <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
+      <c r="J100" t="n">
+        <v>152.5</v>
+      </c>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L100" t="n">
         <v>1</v>
       </c>
@@ -4166,11 +4342,17 @@
         <v>370863.7435292699</v>
       </c>
       <c r="H101" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
-      <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
+      <c r="J101" t="n">
+        <v>152.5</v>
+      </c>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L101" t="n">
         <v>1</v>
       </c>
@@ -4199,11 +4381,17 @@
         <v>383443.0715292699</v>
       </c>
       <c r="H102" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
-      <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
+      <c r="J102" t="n">
+        <v>152.5</v>
+      </c>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L102" t="n">
         <v>1</v>
       </c>
@@ -4232,11 +4420,17 @@
         <v>383443.0715292699</v>
       </c>
       <c r="H103" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
-      <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
+      <c r="J103" t="n">
+        <v>152.5</v>
+      </c>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L103" t="n">
         <v>1</v>
       </c>
@@ -4265,11 +4459,17 @@
         <v>376993.2821292698</v>
       </c>
       <c r="H104" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
-      <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
+      <c r="J104" t="n">
+        <v>152.5</v>
+      </c>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L104" t="n">
         <v>1</v>
       </c>
@@ -4301,8 +4501,14 @@
         <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
-      <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
+      <c r="J105" t="n">
+        <v>152.5</v>
+      </c>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L105" t="n">
         <v>1</v>
       </c>
@@ -4334,8 +4540,14 @@
         <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
-      <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
+      <c r="J106" t="n">
+        <v>152.5</v>
+      </c>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L106" t="n">
         <v>1</v>
       </c>
@@ -4367,8 +4579,14 @@
         <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
-      <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
+      <c r="J107" t="n">
+        <v>152.5</v>
+      </c>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L107" t="n">
         <v>1</v>
       </c>
@@ -4400,8 +4618,14 @@
         <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
-      <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
+      <c r="J108" t="n">
+        <v>152.5</v>
+      </c>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L108" t="n">
         <v>1</v>
       </c>
@@ -4433,8 +4657,14 @@
         <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
-      <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
+      <c r="J109" t="n">
+        <v>152.5</v>
+      </c>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L109" t="n">
         <v>1</v>
       </c>
@@ -4466,8 +4696,14 @@
         <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
-      <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
+      <c r="J110" t="n">
+        <v>152.5</v>
+      </c>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L110" t="n">
         <v>1</v>
       </c>
@@ -4496,11 +4732,17 @@
         <v>366966.1799292698</v>
       </c>
       <c r="H111" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
-      <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
+      <c r="J111" t="n">
+        <v>152.5</v>
+      </c>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L111" t="n">
         <v>1</v>
       </c>
@@ -4529,11 +4771,17 @@
         <v>366966.1799292698</v>
       </c>
       <c r="H112" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
-      <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
+      <c r="J112" t="n">
+        <v>152.5</v>
+      </c>
+      <c r="K112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L112" t="n">
         <v>1</v>
       </c>
@@ -4565,8 +4813,14 @@
         <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
-      <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
+      <c r="J113" t="n">
+        <v>152.5</v>
+      </c>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L113" t="n">
         <v>1</v>
       </c>
@@ -4598,8 +4852,14 @@
         <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
-      <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
+      <c r="J114" t="n">
+        <v>152.5</v>
+      </c>
+      <c r="K114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L114" t="n">
         <v>1</v>
       </c>
@@ -4631,8 +4891,14 @@
         <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
-      <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
+      <c r="J115" t="n">
+        <v>152.5</v>
+      </c>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L115" t="n">
         <v>1</v>
       </c>
@@ -4664,8 +4930,14 @@
         <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
-      <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
+      <c r="J116" t="n">
+        <v>152.5</v>
+      </c>
+      <c r="K116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L116" t="n">
         <v>1</v>
       </c>
@@ -4697,8 +4969,14 @@
         <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
-      <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
+      <c r="J117" t="n">
+        <v>152.5</v>
+      </c>
+      <c r="K117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L117" t="n">
         <v>1</v>
       </c>
@@ -4730,8 +5008,14 @@
         <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
-      <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
+      <c r="J118" t="n">
+        <v>152.5</v>
+      </c>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L118" t="n">
         <v>1</v>
       </c>
@@ -4763,8 +5047,14 @@
         <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
-      <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
+      <c r="J119" t="n">
+        <v>152.5</v>
+      </c>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L119" t="n">
         <v>1</v>
       </c>
@@ -4796,8 +5086,14 @@
         <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
-      <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
+      <c r="J120" t="n">
+        <v>152.5</v>
+      </c>
+      <c r="K120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L120" t="n">
         <v>1</v>
       </c>
@@ -4829,8 +5125,14 @@
         <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
-      <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
+      <c r="J121" t="n">
+        <v>152.5</v>
+      </c>
+      <c r="K121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L121" t="n">
         <v>1</v>
       </c>
@@ -4862,8 +5164,14 @@
         <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
-      <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
+      <c r="J122" t="n">
+        <v>152.5</v>
+      </c>
+      <c r="K122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L122" t="n">
         <v>1</v>
       </c>
@@ -4895,8 +5203,14 @@
         <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
-      <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
+      <c r="J123" t="n">
+        <v>152.5</v>
+      </c>
+      <c r="K123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L123" t="n">
         <v>1</v>
       </c>
@@ -4928,8 +5242,14 @@
         <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
-      <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
+      <c r="J124" t="n">
+        <v>152.5</v>
+      </c>
+      <c r="K124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L124" t="n">
         <v>1</v>
       </c>
@@ -4961,8 +5281,14 @@
         <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
-      <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
+      <c r="J125" t="n">
+        <v>152.5</v>
+      </c>
+      <c r="K125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L125" t="n">
         <v>1</v>
       </c>
@@ -4994,8 +5320,14 @@
         <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
-      <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
+      <c r="J126" t="n">
+        <v>152.5</v>
+      </c>
+      <c r="K126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L126" t="n">
         <v>1</v>
       </c>
@@ -5027,8 +5359,14 @@
         <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
-      <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
+      <c r="J127" t="n">
+        <v>152.5</v>
+      </c>
+      <c r="K127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L127" t="n">
         <v>1</v>
       </c>
@@ -5060,8 +5398,14 @@
         <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
-      <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
+      <c r="J128" t="n">
+        <v>152.5</v>
+      </c>
+      <c r="K128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L128" t="n">
         <v>1</v>
       </c>
@@ -5093,8 +5437,14 @@
         <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
-      <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
+      <c r="J129" t="n">
+        <v>152.5</v>
+      </c>
+      <c r="K129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L129" t="n">
         <v>1</v>
       </c>
@@ -5126,8 +5476,14 @@
         <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
-      <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
+      <c r="J130" t="n">
+        <v>152.5</v>
+      </c>
+      <c r="K130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L130" t="n">
         <v>1</v>
       </c>
@@ -5159,8 +5515,14 @@
         <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
-      <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
+      <c r="J131" t="n">
+        <v>152.5</v>
+      </c>
+      <c r="K131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L131" t="n">
         <v>1</v>
       </c>
@@ -5192,8 +5554,14 @@
         <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
-      <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
+      <c r="J132" t="n">
+        <v>152.5</v>
+      </c>
+      <c r="K132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L132" t="n">
         <v>1</v>
       </c>
@@ -5225,8 +5593,14 @@
         <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
-      <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
+      <c r="J133" t="n">
+        <v>152.5</v>
+      </c>
+      <c r="K133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L133" t="n">
         <v>1</v>
       </c>
@@ -5258,8 +5632,14 @@
         <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
-      <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
+      <c r="J134" t="n">
+        <v>152.5</v>
+      </c>
+      <c r="K134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L134" t="n">
         <v>1</v>
       </c>
@@ -5288,15 +5668,23 @@
         <v>369927.6134407798</v>
       </c>
       <c r="H135" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I135" t="inlineStr"/>
-      <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
+      <c r="J135" t="n">
+        <v>152.5</v>
+      </c>
+      <c r="K135" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="L135" t="n">
-        <v>1</v>
-      </c>
-      <c r="M135" t="inlineStr"/>
+        <v>1.100573770491803</v>
+      </c>
+      <c r="M135" t="n">
+        <v>1.00327868852459</v>
+      </c>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -5321,7 +5709,7 @@
         <v>379696.7844407798</v>
       </c>
       <c r="H136" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
@@ -5354,7 +5742,7 @@
         <v>379696.7844407798</v>
       </c>
       <c r="H137" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
@@ -5387,7 +5775,7 @@
         <v>379696.7844407798</v>
       </c>
       <c r="H138" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
@@ -5420,7 +5808,7 @@
         <v>379696.7844407798</v>
       </c>
       <c r="H139" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
@@ -5453,7 +5841,7 @@
         <v>379324.9028407797</v>
       </c>
       <c r="H140" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
@@ -6311,7 +6699,7 @@
         <v>379553.7201894898</v>
       </c>
       <c r="H166" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
@@ -6575,7 +6963,7 @@
         <v>386049.6903894898</v>
       </c>
       <c r="H174" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
@@ -6707,7 +7095,7 @@
         <v>326376.5928894898</v>
       </c>
       <c r="H178" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
@@ -6740,7 +7128,7 @@
         <v>356744.9344894898</v>
       </c>
       <c r="H179" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
@@ -6773,7 +7161,7 @@
         <v>363148.4315894898</v>
       </c>
       <c r="H180" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
@@ -6806,7 +7194,7 @@
         <v>342661.4774894898</v>
       </c>
       <c r="H181" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
@@ -6839,7 +7227,7 @@
         <v>336736.2575894898</v>
       </c>
       <c r="H182" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
@@ -6872,7 +7260,7 @@
         <v>353742.1350894898</v>
       </c>
       <c r="H183" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
@@ -6971,7 +7359,7 @@
         <v>353069.7488894898</v>
       </c>
       <c r="H186" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
@@ -7004,7 +7392,7 @@
         <v>348350.3552894898</v>
       </c>
       <c r="H187" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
@@ -7037,7 +7425,7 @@
         <v>324990.2870894898</v>
       </c>
       <c r="H188" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
